--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_10_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_10_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>69876.56316838731</v>
+        <v>97359.28581207158</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6442094.979476157</v>
+        <v>6186426.707843842</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22479413.54612074</v>
+        <v>22582606.53293525</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4941702.472851523</v>
+        <v>4907913.506231637</v>
       </c>
     </row>
     <row r="11">
@@ -7979,22 +7981,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K2" t="n">
-        <v>122.0365346358061</v>
+        <v>203.9792427191599</v>
       </c>
       <c r="L2" t="n">
-        <v>105.9222139730819</v>
+        <v>207.5793892203829</v>
       </c>
       <c r="M2" t="n">
-        <v>78.83188855375113</v>
+        <v>191.9450832570614</v>
       </c>
       <c r="N2" t="n">
-        <v>74.42176767202952</v>
+        <v>189.3652521218436</v>
       </c>
       <c r="O2" t="n">
-        <v>86.70771710415687</v>
+        <v>195.2455900566382</v>
       </c>
       <c r="P2" t="n">
-        <v>116.5194153913583</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q2" t="n">
         <v>137.5801139476182</v>
@@ -8058,25 +8060,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K3" t="n">
-        <v>68.68019772140313</v>
+        <v>124.3367140941166</v>
       </c>
       <c r="L3" t="n">
-        <v>35.26465785350914</v>
+        <v>110.1017125573466</v>
       </c>
       <c r="M3" t="n">
-        <v>17.29827403488881</v>
+        <v>104.6295870384377</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>89.64271299632065</v>
       </c>
       <c r="O3" t="n">
-        <v>27.38196984081287</v>
+        <v>109.3875391069288</v>
       </c>
       <c r="P3" t="n">
-        <v>45.80103151799199</v>
+        <v>111.6177305927455</v>
       </c>
       <c r="Q3" t="n">
-        <v>92.13336211952077</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R3" t="n">
         <v>29.49804203773589</v>
@@ -8140,16 +8142,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L4" t="n">
-        <v>87.76745019286051</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M4" t="n">
-        <v>88.5232124679478</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N4" t="n">
-        <v>76.73531661208723</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O4" t="n">
-        <v>95.90977625558899</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P4" t="n">
         <v>87.48425302749862</v>
@@ -8216,22 +8218,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K5" t="n">
-        <v>111.0988064408343</v>
+        <v>171.1545065408216</v>
       </c>
       <c r="L5" t="n">
-        <v>92.35299496713264</v>
+        <v>166.8574014294323</v>
       </c>
       <c r="M5" t="n">
-        <v>63.73351790103578</v>
+        <v>146.634025552594</v>
       </c>
       <c r="N5" t="n">
-        <v>59.07908959729269</v>
+        <v>143.3210141324655</v>
       </c>
       <c r="O5" t="n">
-        <v>72.2200612653113</v>
+        <v>151.7673217841382</v>
       </c>
       <c r="P5" t="n">
-        <v>104.1545363166676</v>
+        <v>172.0462827785706</v>
       </c>
       <c r="Q5" t="n">
         <v>137.5801139476182</v>
@@ -8295,25 +8297,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K6" t="n">
-        <v>61.25115537459055</v>
+        <v>102.0417410663602</v>
       </c>
       <c r="L6" t="n">
-        <v>25.27539361745087</v>
+        <v>80.12336995096688</v>
       </c>
       <c r="M6" t="n">
-        <v>5.64127383456389</v>
+        <v>69.64627520386433</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>53.73349699357935</v>
       </c>
       <c r="O6" t="n">
-        <v>16.43585092326006</v>
+        <v>76.53762189920677</v>
       </c>
       <c r="P6" t="n">
-        <v>37.01580605976547</v>
+        <v>85.2527759336897</v>
       </c>
       <c r="Q6" t="n">
-        <v>86.26067155642129</v>
+        <v>118.5058084761395</v>
       </c>
       <c r="R6" t="n">
         <v>29.49804203773589</v>
@@ -8377,16 +8379,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L7" t="n">
-        <v>82.03309671786837</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M7" t="n">
-        <v>82.47714074425393</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N7" t="n">
-        <v>70.83300696034803</v>
+        <v>103.2407731823193</v>
       </c>
       <c r="O7" t="n">
-        <v>90.45803797570775</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P7" t="n">
         <v>87.48425302749862</v>
@@ -8453,25 +8455,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K8" t="n">
-        <v>105.8056161847214</v>
+        <v>122.0365346358061</v>
       </c>
       <c r="L8" t="n">
-        <v>85.7863243985249</v>
+        <v>105.9222139730819</v>
       </c>
       <c r="M8" t="n">
-        <v>56.42683163149823</v>
+        <v>78.8318885537511</v>
       </c>
       <c r="N8" t="n">
-        <v>51.65417350500871</v>
+        <v>74.42176767202952</v>
       </c>
       <c r="O8" t="n">
-        <v>65.2089235451997</v>
+        <v>86.70771710415687</v>
       </c>
       <c r="P8" t="n">
-        <v>98.17069248095629</v>
+        <v>116.5194153913582</v>
       </c>
       <c r="Q8" t="n">
-        <v>133.0864964302902</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R8" t="n">
         <v>42.58424007769262</v>
@@ -8532,25 +8534,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>57.65595408036968</v>
+        <v>68.68019772140312</v>
       </c>
       <c r="L9" t="n">
-        <v>20.44120180197424</v>
+        <v>35.26465785350914</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>17.29827403488881</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.13860007154486</v>
+        <v>27.38196984081287</v>
       </c>
       <c r="P9" t="n">
-        <v>32.7642952373794</v>
+        <v>45.801031517992</v>
       </c>
       <c r="Q9" t="n">
-        <v>83.41864916277152</v>
+        <v>92.13336211952077</v>
       </c>
       <c r="R9" t="n">
         <v>29.49804203773589</v>
@@ -8614,16 +8616,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L10" t="n">
-        <v>79.2580209984983</v>
+        <v>87.76745019286052</v>
       </c>
       <c r="M10" t="n">
-        <v>79.55121249250524</v>
+        <v>88.52321246794781</v>
       </c>
       <c r="N10" t="n">
-        <v>67.97665074265473</v>
+        <v>76.73531661208723</v>
       </c>
       <c r="O10" t="n">
-        <v>87.81973069401728</v>
+        <v>95.90977625558899</v>
       </c>
       <c r="P10" t="n">
         <v>87.48425302749862</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>87.74555168308848</v>
+        <v>85.04107264134677</v>
       </c>
       <c r="K11" t="n">
-        <v>68.98158147698732</v>
+        <v>64.9282684572851</v>
       </c>
       <c r="L11" t="n">
-        <v>40.1028531396922</v>
+        <v>35.07435992029687</v>
       </c>
       <c r="M11" t="n">
-        <v>5.595167593493045</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>16.43335224433218</v>
+        <v>11.0645038884594</v>
       </c>
       <c r="P11" t="n">
-        <v>56.54187083839039</v>
+        <v>51.95968297934965</v>
       </c>
       <c r="Q11" t="n">
-        <v>101.8249850515391</v>
+        <v>98.3839527992952</v>
       </c>
       <c r="R11" t="n">
         <v>42.58424007769262</v>
@@ -8766,10 +8768,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J12" t="n">
-        <v>75.45031945264532</v>
+        <v>73.8395502629202</v>
       </c>
       <c r="K12" t="n">
-        <v>32.64460726796537</v>
+        <v>29.89154616318334</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>3.1870885796273</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>63.64706979377851</v>
+        <v>61.47076291397906</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -8851,19 +8853,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L13" t="n">
-        <v>59.95218091677091</v>
+        <v>57.82713911783085</v>
       </c>
       <c r="M13" t="n">
-        <v>59.1959110048432</v>
+        <v>56.95535238070698</v>
       </c>
       <c r="N13" t="n">
-        <v>48.1053528280334</v>
+        <v>45.91806968008439</v>
       </c>
       <c r="O13" t="n">
-        <v>69.46537080709682</v>
+        <v>67.44506079792963</v>
       </c>
       <c r="P13" t="n">
-        <v>82.93013512200093</v>
+        <v>81.2014108898193</v>
       </c>
       <c r="Q13" t="n">
         <v>42.34223702878295</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>87.74555168308848</v>
+        <v>85.04107264134677</v>
       </c>
       <c r="K14" t="n">
-        <v>68.98158147698732</v>
+        <v>64.9282684572851</v>
       </c>
       <c r="L14" t="n">
-        <v>40.1028531396922</v>
+        <v>35.07435992029684</v>
       </c>
       <c r="M14" t="n">
-        <v>5.595167593493045</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>16.43335224433218</v>
+        <v>11.0645038884594</v>
       </c>
       <c r="P14" t="n">
-        <v>56.54187083839039</v>
+        <v>51.95968297934965</v>
       </c>
       <c r="Q14" t="n">
-        <v>101.8249850515391</v>
+        <v>98.3839527992952</v>
       </c>
       <c r="R14" t="n">
         <v>42.58424007769262</v>
@@ -9003,10 +9005,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J15" t="n">
-        <v>75.45031945264532</v>
+        <v>73.8395502629202</v>
       </c>
       <c r="K15" t="n">
-        <v>32.64460726796537</v>
+        <v>29.89154616318334</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>3.1870885796273</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>63.64706979377851</v>
+        <v>61.47076291397906</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9088,19 +9090,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L16" t="n">
-        <v>59.95218091677091</v>
+        <v>57.82713911783085</v>
       </c>
       <c r="M16" t="n">
-        <v>59.1959110048432</v>
+        <v>56.95535238070698</v>
       </c>
       <c r="N16" t="n">
-        <v>48.1053528280334</v>
+        <v>45.91806968008437</v>
       </c>
       <c r="O16" t="n">
-        <v>69.46537080709682</v>
+        <v>67.44506079792963</v>
       </c>
       <c r="P16" t="n">
-        <v>82.93013512200093</v>
+        <v>81.20141088981929</v>
       </c>
       <c r="Q16" t="n">
         <v>42.34223702878295</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>87.74555168308848</v>
+        <v>85.04107264134677</v>
       </c>
       <c r="K17" t="n">
-        <v>68.98158147698732</v>
+        <v>64.9282684572851</v>
       </c>
       <c r="L17" t="n">
-        <v>40.1028531396922</v>
+        <v>35.07435992029684</v>
       </c>
       <c r="M17" t="n">
-        <v>5.595167593493045</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>16.43335224433218</v>
+        <v>11.0645038884594</v>
       </c>
       <c r="P17" t="n">
-        <v>56.54187083839039</v>
+        <v>51.95968297934965</v>
       </c>
       <c r="Q17" t="n">
-        <v>101.8249850515391</v>
+        <v>98.3839527992952</v>
       </c>
       <c r="R17" t="n">
         <v>42.58424007769262</v>
@@ -9240,10 +9242,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J18" t="n">
-        <v>75.45031945264532</v>
+        <v>73.8395502629202</v>
       </c>
       <c r="K18" t="n">
-        <v>32.64460726796537</v>
+        <v>29.89154616318334</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>3.1870885796273</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>63.64706979377851</v>
+        <v>61.47076291397906</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9325,19 +9327,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L19" t="n">
-        <v>59.95218091677091</v>
+        <v>57.82713911783085</v>
       </c>
       <c r="M19" t="n">
-        <v>59.1959110048432</v>
+        <v>56.95535238070698</v>
       </c>
       <c r="N19" t="n">
-        <v>48.1053528280334</v>
+        <v>45.91806968008437</v>
       </c>
       <c r="O19" t="n">
-        <v>69.46537080709682</v>
+        <v>67.44506079792963</v>
       </c>
       <c r="P19" t="n">
-        <v>82.93013512200093</v>
+        <v>81.20141088981929</v>
       </c>
       <c r="Q19" t="n">
         <v>42.34223702878295</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>87.74555168308848</v>
+        <v>85.04107264134677</v>
       </c>
       <c r="K20" t="n">
-        <v>68.98158147698732</v>
+        <v>64.9282684572851</v>
       </c>
       <c r="L20" t="n">
-        <v>40.1028531396922</v>
+        <v>35.07435992029684</v>
       </c>
       <c r="M20" t="n">
-        <v>5.595167593493045</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>16.43335224433218</v>
+        <v>11.0645038884594</v>
       </c>
       <c r="P20" t="n">
-        <v>56.54187083839039</v>
+        <v>51.95968297934965</v>
       </c>
       <c r="Q20" t="n">
-        <v>101.8249850515391</v>
+        <v>98.3839527992952</v>
       </c>
       <c r="R20" t="n">
         <v>42.58424007769262</v>
@@ -9477,10 +9479,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J21" t="n">
-        <v>75.45031945264532</v>
+        <v>73.8395502629202</v>
       </c>
       <c r="K21" t="n">
-        <v>32.64460726796537</v>
+        <v>29.89154616318334</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>3.1870885796273</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>63.64706979377851</v>
+        <v>61.47076291397906</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9562,19 +9564,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L22" t="n">
-        <v>59.95218091677091</v>
+        <v>57.82713911783085</v>
       </c>
       <c r="M22" t="n">
-        <v>59.1959110048432</v>
+        <v>56.95535238070698</v>
       </c>
       <c r="N22" t="n">
-        <v>48.1053528280334</v>
+        <v>45.91806968008437</v>
       </c>
       <c r="O22" t="n">
-        <v>69.46537080709682</v>
+        <v>67.44506079792963</v>
       </c>
       <c r="P22" t="n">
-        <v>82.93013512200093</v>
+        <v>81.20141088981929</v>
       </c>
       <c r="Q22" t="n">
         <v>42.34223702878295</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>87.74555168308848</v>
+        <v>85.04107264134677</v>
       </c>
       <c r="K23" t="n">
-        <v>68.98158147698732</v>
+        <v>64.9282684572851</v>
       </c>
       <c r="L23" t="n">
-        <v>40.1028531396922</v>
+        <v>35.07435992029684</v>
       </c>
       <c r="M23" t="n">
-        <v>5.595167593493045</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>16.43335224433218</v>
+        <v>11.0645038884594</v>
       </c>
       <c r="P23" t="n">
-        <v>56.54187083839039</v>
+        <v>51.95968297934965</v>
       </c>
       <c r="Q23" t="n">
-        <v>101.8249850515391</v>
+        <v>98.3839527992952</v>
       </c>
       <c r="R23" t="n">
         <v>42.58424007769262</v>
@@ -9714,10 +9716,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J24" t="n">
-        <v>75.45031945264532</v>
+        <v>73.8395502629202</v>
       </c>
       <c r="K24" t="n">
-        <v>32.64460726796537</v>
+        <v>29.89154616318334</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>3.1870885796273</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>63.64706979377851</v>
+        <v>61.47076291397906</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9799,19 +9801,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L25" t="n">
-        <v>59.95218091677091</v>
+        <v>57.82713911783085</v>
       </c>
       <c r="M25" t="n">
-        <v>59.1959110048432</v>
+        <v>56.95535238070698</v>
       </c>
       <c r="N25" t="n">
-        <v>48.1053528280334</v>
+        <v>45.91806968008437</v>
       </c>
       <c r="O25" t="n">
-        <v>69.46537080709682</v>
+        <v>67.44506079792963</v>
       </c>
       <c r="P25" t="n">
-        <v>82.93013512200093</v>
+        <v>81.20141088981929</v>
       </c>
       <c r="Q25" t="n">
         <v>42.34223702878295</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>87.74555168308848</v>
+        <v>85.04107264134677</v>
       </c>
       <c r="K26" t="n">
-        <v>68.98158147698732</v>
+        <v>64.9282684572851</v>
       </c>
       <c r="L26" t="n">
-        <v>40.1028531396922</v>
+        <v>35.07435992029684</v>
       </c>
       <c r="M26" t="n">
-        <v>5.595167593493045</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>16.43335224433218</v>
+        <v>11.0645038884594</v>
       </c>
       <c r="P26" t="n">
-        <v>56.54187083839039</v>
+        <v>51.95968297934965</v>
       </c>
       <c r="Q26" t="n">
-        <v>101.8249850515391</v>
+        <v>98.3839527992952</v>
       </c>
       <c r="R26" t="n">
         <v>42.58424007769262</v>
@@ -9951,10 +9953,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
-        <v>75.45031945264532</v>
+        <v>73.8395502629202</v>
       </c>
       <c r="K27" t="n">
-        <v>32.64460726796537</v>
+        <v>29.89154616318334</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>3.1870885796273</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>63.64706979377851</v>
+        <v>61.47076291397906</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10036,19 +10038,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L28" t="n">
-        <v>59.95218091677091</v>
+        <v>57.82713911783085</v>
       </c>
       <c r="M28" t="n">
-        <v>59.1959110048432</v>
+        <v>56.95535238070698</v>
       </c>
       <c r="N28" t="n">
-        <v>48.1053528280334</v>
+        <v>45.91806968008437</v>
       </c>
       <c r="O28" t="n">
-        <v>69.46537080709682</v>
+        <v>67.44506079792963</v>
       </c>
       <c r="P28" t="n">
-        <v>82.93013512200093</v>
+        <v>81.20141088981929</v>
       </c>
       <c r="Q28" t="n">
         <v>42.34223702878295</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>87.74555168308848</v>
+        <v>85.04107264134677</v>
       </c>
       <c r="K29" t="n">
-        <v>68.98158147698732</v>
+        <v>64.9282684572851</v>
       </c>
       <c r="L29" t="n">
-        <v>40.1028531396922</v>
+        <v>35.07435992029684</v>
       </c>
       <c r="M29" t="n">
-        <v>5.595167593493045</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>16.43335224433218</v>
+        <v>11.0645038884594</v>
       </c>
       <c r="P29" t="n">
-        <v>56.54187083839039</v>
+        <v>51.95968297934965</v>
       </c>
       <c r="Q29" t="n">
-        <v>101.8249850515391</v>
+        <v>98.3839527992952</v>
       </c>
       <c r="R29" t="n">
         <v>42.58424007769262</v>
@@ -10188,10 +10190,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
-        <v>75.45031945264532</v>
+        <v>73.8395502629202</v>
       </c>
       <c r="K30" t="n">
-        <v>32.64460726796537</v>
+        <v>29.89154616318334</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>3.1870885796273</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>63.64706979377851</v>
+        <v>61.47076291397906</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10273,19 +10275,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L31" t="n">
-        <v>59.95218091677091</v>
+        <v>57.82713911783085</v>
       </c>
       <c r="M31" t="n">
-        <v>59.1959110048432</v>
+        <v>56.95535238070698</v>
       </c>
       <c r="N31" t="n">
-        <v>48.1053528280334</v>
+        <v>45.91806968008437</v>
       </c>
       <c r="O31" t="n">
-        <v>69.46537080709682</v>
+        <v>67.44506079792963</v>
       </c>
       <c r="P31" t="n">
-        <v>82.93013512200093</v>
+        <v>81.20141088981929</v>
       </c>
       <c r="Q31" t="n">
         <v>42.34223702878295</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>87.74555168308848</v>
+        <v>85.04107264134677</v>
       </c>
       <c r="K32" t="n">
-        <v>68.98158147698732</v>
+        <v>64.92826845728513</v>
       </c>
       <c r="L32" t="n">
-        <v>40.1028531396922</v>
+        <v>35.0743599202969</v>
       </c>
       <c r="M32" t="n">
-        <v>5.595167593493045</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>16.43335224433218</v>
+        <v>11.06450388845946</v>
       </c>
       <c r="P32" t="n">
-        <v>56.54187083839039</v>
+        <v>51.95968297934968</v>
       </c>
       <c r="Q32" t="n">
-        <v>101.8249850515391</v>
+        <v>98.3839527992952</v>
       </c>
       <c r="R32" t="n">
         <v>42.58424007769262</v>
@@ -10425,10 +10427,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
-        <v>75.45031945264532</v>
+        <v>73.8395502629202</v>
       </c>
       <c r="K33" t="n">
-        <v>32.64460726796537</v>
+        <v>29.89154616318336</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>3.1870885796273</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>63.64706979377851</v>
+        <v>61.47076291397909</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10510,19 +10512,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L34" t="n">
-        <v>59.95218091677091</v>
+        <v>57.82713911783087</v>
       </c>
       <c r="M34" t="n">
-        <v>59.1959110048432</v>
+        <v>56.955352380707</v>
       </c>
       <c r="N34" t="n">
-        <v>48.1053528280334</v>
+        <v>45.9180696800844</v>
       </c>
       <c r="O34" t="n">
-        <v>69.46537080709682</v>
+        <v>67.44506079792964</v>
       </c>
       <c r="P34" t="n">
-        <v>82.93013512200093</v>
+        <v>81.2014108898193</v>
       </c>
       <c r="Q34" t="n">
         <v>42.34223702878295</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>87.74555168308848</v>
+        <v>85.04107264134677</v>
       </c>
       <c r="K35" t="n">
-        <v>68.98158147698732</v>
+        <v>64.92826845728513</v>
       </c>
       <c r="L35" t="n">
-        <v>40.1028531396922</v>
+        <v>35.0743599202969</v>
       </c>
       <c r="M35" t="n">
-        <v>5.595167593493045</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>16.43335224433218</v>
+        <v>11.06450388845946</v>
       </c>
       <c r="P35" t="n">
-        <v>56.54187083839039</v>
+        <v>51.95968297934968</v>
       </c>
       <c r="Q35" t="n">
-        <v>101.8249850515391</v>
+        <v>98.3839527992952</v>
       </c>
       <c r="R35" t="n">
         <v>42.58424007769262</v>
@@ -10662,10 +10664,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
-        <v>75.45031945264532</v>
+        <v>73.8395502629202</v>
       </c>
       <c r="K36" t="n">
-        <v>32.64460726796537</v>
+        <v>29.89154616318336</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>3.1870885796273</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>63.64706979377851</v>
+        <v>61.47076291397909</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10747,19 +10749,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L37" t="n">
-        <v>59.95218091677091</v>
+        <v>57.82713911783087</v>
       </c>
       <c r="M37" t="n">
-        <v>59.1959110048432</v>
+        <v>56.955352380707</v>
       </c>
       <c r="N37" t="n">
-        <v>48.1053528280334</v>
+        <v>45.9180696800844</v>
       </c>
       <c r="O37" t="n">
-        <v>69.46537080709682</v>
+        <v>67.44506079792964</v>
       </c>
       <c r="P37" t="n">
-        <v>82.93013512200093</v>
+        <v>81.2014108898193</v>
       </c>
       <c r="Q37" t="n">
         <v>42.34223702878295</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>87.74555168308848</v>
+        <v>85.04107264134677</v>
       </c>
       <c r="K38" t="n">
-        <v>68.98158147698732</v>
+        <v>64.92826845728513</v>
       </c>
       <c r="L38" t="n">
-        <v>40.1028531396922</v>
+        <v>35.0743599202969</v>
       </c>
       <c r="M38" t="n">
-        <v>5.595167593493045</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>16.43335224433218</v>
+        <v>11.06450388845946</v>
       </c>
       <c r="P38" t="n">
-        <v>56.54187083839039</v>
+        <v>51.95968297934968</v>
       </c>
       <c r="Q38" t="n">
-        <v>101.8249850515391</v>
+        <v>98.3839527992952</v>
       </c>
       <c r="R38" t="n">
         <v>42.58424007769262</v>
@@ -10899,10 +10901,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J39" t="n">
-        <v>75.45031945264532</v>
+        <v>73.8395502629202</v>
       </c>
       <c r="K39" t="n">
-        <v>32.64460726796537</v>
+        <v>29.89154616318336</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>3.1870885796273</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>63.64706979377851</v>
+        <v>61.47076291397909</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -10984,19 +10986,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L40" t="n">
-        <v>59.95218091677091</v>
+        <v>57.82713911783087</v>
       </c>
       <c r="M40" t="n">
-        <v>59.1959110048432</v>
+        <v>56.955352380707</v>
       </c>
       <c r="N40" t="n">
-        <v>48.1053528280334</v>
+        <v>45.9180696800844</v>
       </c>
       <c r="O40" t="n">
-        <v>69.46537080709682</v>
+        <v>67.44506079792964</v>
       </c>
       <c r="P40" t="n">
-        <v>82.93013512200093</v>
+        <v>81.2014108898193</v>
       </c>
       <c r="Q40" t="n">
         <v>42.34223702878295</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>87.74555168308848</v>
+        <v>85.04107264134677</v>
       </c>
       <c r="K41" t="n">
-        <v>68.98158147698732</v>
+        <v>64.9282684572851</v>
       </c>
       <c r="L41" t="n">
-        <v>40.1028531396922</v>
+        <v>35.07435992029687</v>
       </c>
       <c r="M41" t="n">
-        <v>5.595167593493045</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>16.43335224433218</v>
+        <v>11.0645038884594</v>
       </c>
       <c r="P41" t="n">
-        <v>56.54187083839039</v>
+        <v>51.95968297934965</v>
       </c>
       <c r="Q41" t="n">
-        <v>101.8249850515391</v>
+        <v>98.3839527992952</v>
       </c>
       <c r="R41" t="n">
         <v>42.58424007769262</v>
@@ -11136,10 +11138,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J42" t="n">
-        <v>75.45031945264532</v>
+        <v>73.8395502629202</v>
       </c>
       <c r="K42" t="n">
-        <v>32.64460726796537</v>
+        <v>29.89154616318334</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>3.1870885796273</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>63.64706979377851</v>
+        <v>61.47076291397906</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11221,19 +11223,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L43" t="n">
-        <v>59.95218091677091</v>
+        <v>57.82713911783085</v>
       </c>
       <c r="M43" t="n">
-        <v>59.1959110048432</v>
+        <v>56.95535238070698</v>
       </c>
       <c r="N43" t="n">
-        <v>48.1053528280334</v>
+        <v>45.91806968008439</v>
       </c>
       <c r="O43" t="n">
-        <v>69.46537080709682</v>
+        <v>67.44506079792963</v>
       </c>
       <c r="P43" t="n">
-        <v>82.93013512200093</v>
+        <v>81.2014108898193</v>
       </c>
       <c r="Q43" t="n">
         <v>42.34223702878295</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>87.74555168308848</v>
+        <v>85.04107264134677</v>
       </c>
       <c r="K44" t="n">
-        <v>68.98158147698732</v>
+        <v>64.9282684572851</v>
       </c>
       <c r="L44" t="n">
-        <v>40.1028531396922</v>
+        <v>35.07435992029687</v>
       </c>
       <c r="M44" t="n">
-        <v>5.595167593493045</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>16.43335224433218</v>
+        <v>11.0645038884594</v>
       </c>
       <c r="P44" t="n">
-        <v>56.54187083839039</v>
+        <v>51.95968297934965</v>
       </c>
       <c r="Q44" t="n">
-        <v>101.8249850515391</v>
+        <v>98.3839527992952</v>
       </c>
       <c r="R44" t="n">
         <v>42.58424007769262</v>
@@ -11373,10 +11375,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>75.45031945264532</v>
+        <v>73.8395502629202</v>
       </c>
       <c r="K45" t="n">
-        <v>32.64460726796537</v>
+        <v>29.89154616318334</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>3.1870885796273</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>63.64706979377851</v>
+        <v>61.47076291397906</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -11458,19 +11460,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L46" t="n">
-        <v>59.95218091677091</v>
+        <v>57.82713911783085</v>
       </c>
       <c r="M46" t="n">
-        <v>59.1959110048432</v>
+        <v>56.95535238070698</v>
       </c>
       <c r="N46" t="n">
-        <v>48.1053528280334</v>
+        <v>45.91806968008439</v>
       </c>
       <c r="O46" t="n">
-        <v>69.46537080709682</v>
+        <v>67.44506079792963</v>
       </c>
       <c r="P46" t="n">
-        <v>82.93013512200093</v>
+        <v>81.2014108898193</v>
       </c>
       <c r="Q46" t="n">
         <v>42.34223702878295</v>
@@ -22559,16 +22561,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G2" t="n">
-        <v>418.0934080885264</v>
+        <v>418.7375927771332</v>
       </c>
       <c r="H2" t="n">
-        <v>339.3940753414476</v>
+        <v>345.9913317836409</v>
       </c>
       <c r="I2" t="n">
-        <v>212.2972214058836</v>
+        <v>237.1321516133932</v>
       </c>
       <c r="J2" t="n">
-        <v>13.57063122957307</v>
+        <v>68.24500144420554</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22586,22 +22588,22 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>0.6284159487409653</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.285509237068553</v>
+        <v>78.85020852884477</v>
       </c>
       <c r="R2" t="n">
-        <v>148.0982088582942</v>
+        <v>188.5634753039845</v>
       </c>
       <c r="S2" t="n">
-        <v>210.5456649893907</v>
+        <v>225.2250235810158</v>
       </c>
       <c r="T2" t="n">
-        <v>219.2056731633497</v>
+        <v>222.0255916377255</v>
       </c>
       <c r="U2" t="n">
-        <v>250.09096030272</v>
+        <v>250.1424950778085</v>
       </c>
       <c r="V2" t="n">
         <v>320.879783609152</v>
@@ -22638,16 +22640,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G3" t="n">
-        <v>148.3461201365529</v>
+        <v>148.6907893310277</v>
       </c>
       <c r="H3" t="n">
-        <v>121.887004794376</v>
+        <v>125.2157835936458</v>
       </c>
       <c r="I3" t="n">
-        <v>93.64366449363538</v>
+        <v>105.510564391123</v>
       </c>
       <c r="J3" t="n">
-        <v>14.8271391275419</v>
+        <v>47.39081947044387</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>109.9788170619971</v>
+        <v>131.3785412593008</v>
       </c>
       <c r="S3" t="n">
-        <v>184.1891195141138</v>
+        <v>190.5911986307839</v>
       </c>
       <c r="T3" t="n">
-        <v>213.3647520849204</v>
+        <v>214.7540108117728</v>
       </c>
       <c r="U3" t="n">
-        <v>237.2018534220153</v>
+        <v>237.224529026915</v>
       </c>
       <c r="V3" t="n">
         <v>240.6489209154022</v>
@@ -22717,49 +22719,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G4" t="n">
-        <v>168.3666990440678</v>
+        <v>168.6556581185268</v>
       </c>
       <c r="H4" t="n">
-        <v>162.8541593486954</v>
+        <v>165.4232682107039</v>
       </c>
       <c r="I4" t="n">
-        <v>154.8063951475636</v>
+        <v>163.4961825867497</v>
       </c>
       <c r="J4" t="n">
-        <v>96.62044264882138</v>
+        <v>117.0498492130746</v>
       </c>
       <c r="K4" t="n">
-        <v>28.2164366317142</v>
+        <v>61.78822728249941</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>25.44417726395997</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>18.14460057041805</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>9.616055191137953</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>31.10182817494228</v>
       </c>
       <c r="P4" t="n">
-        <v>18.07363936789694</v>
+        <v>53.02192597337788</v>
       </c>
       <c r="Q4" t="n">
-        <v>99.24268633557031</v>
+        <v>123.4390684704985</v>
       </c>
       <c r="R4" t="n">
-        <v>188.4086946307534</v>
+        <v>201.4013453787021</v>
       </c>
       <c r="S4" t="n">
-        <v>229.6160128400592</v>
+        <v>234.651781437677</v>
       </c>
       <c r="T4" t="n">
-        <v>222.3341433135066</v>
+        <v>223.5687866316497</v>
       </c>
       <c r="U4" t="n">
-        <v>288.6383346476701</v>
+        <v>288.6540960517315</v>
       </c>
       <c r="V4" t="n">
         <v>245.1090151844499</v>
@@ -22796,16 +22798,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G5" t="n">
-        <v>418.0074221942822</v>
+        <v>418.4795442826639</v>
       </c>
       <c r="H5" t="n">
-        <v>338.5134723020187</v>
+        <v>343.348592639658</v>
       </c>
       <c r="I5" t="n">
-        <v>208.9822502180322</v>
+        <v>227.1837370303688</v>
       </c>
       <c r="J5" t="n">
-        <v>6.272685937960304</v>
+        <v>46.34345803674904</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,19 +22828,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>50.98387417173238</v>
       </c>
       <c r="R5" t="n">
-        <v>142.6968974289739</v>
+        <v>172.3538365632827</v>
       </c>
       <c r="S5" t="n">
-        <v>208.5862614242999</v>
+        <v>219.3447435132985</v>
       </c>
       <c r="T5" t="n">
-        <v>218.8292699112955</v>
+        <v>220.8959843531865</v>
       </c>
       <c r="U5" t="n">
-        <v>250.0840814311804</v>
+        <v>250.121851198251</v>
       </c>
       <c r="V5" t="n">
         <v>320.879783609152</v>
@@ -22875,16 +22877,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G6" t="n">
-        <v>148.3001136271938</v>
+        <v>148.5527212143879</v>
       </c>
       <c r="H6" t="n">
-        <v>121.4426787697765</v>
+        <v>123.8823362566243</v>
       </c>
       <c r="I6" t="n">
-        <v>92.05966844771967</v>
+        <v>100.7569033576904</v>
       </c>
       <c r="J6" t="n">
-        <v>10.48053290778771</v>
+        <v>34.34641025755577</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>107.1223778230184</v>
+        <v>122.8062067893299</v>
       </c>
       <c r="S6" t="n">
-        <v>183.3345687810625</v>
+        <v>188.0266439203906</v>
       </c>
       <c r="T6" t="n">
-        <v>213.1793135669336</v>
+        <v>214.1974994118079</v>
       </c>
       <c r="U6" t="n">
-        <v>237.1988266779785</v>
+        <v>237.2154455981887</v>
       </c>
       <c r="V6" t="n">
         <v>240.6489209154022</v>
@@ -22954,22 +22956,22 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G7" t="n">
-        <v>168.3281287320799</v>
+        <v>168.5399064475446</v>
       </c>
       <c r="H7" t="n">
-        <v>162.5112342112035</v>
+        <v>164.3941306268804</v>
       </c>
       <c r="I7" t="n">
-        <v>153.6464806743293</v>
+        <v>160.0152141539397</v>
       </c>
       <c r="J7" t="n">
-        <v>93.89352159128109</v>
+        <v>108.8662060746335</v>
       </c>
       <c r="K7" t="n">
-        <v>23.73526765712697</v>
+        <v>48.33998769020441</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>8.235060652661652</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -22978,25 +22980,25 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>14.74085562556805</v>
       </c>
       <c r="P7" t="n">
-        <v>13.40873545256764</v>
+        <v>39.02228751204042</v>
       </c>
       <c r="Q7" t="n">
-        <v>96.01294866538856</v>
+        <v>113.7464444576167</v>
       </c>
       <c r="R7" t="n">
-        <v>186.6744331481002</v>
+        <v>196.1967293361754</v>
       </c>
       <c r="S7" t="n">
-        <v>228.9438374938711</v>
+        <v>232.6345454988327</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1693428895585</v>
+        <v>223.0742113101803</v>
       </c>
       <c r="U7" t="n">
-        <v>288.6362308124707</v>
+        <v>288.6477823242233</v>
       </c>
       <c r="V7" t="n">
         <v>245.1090151844499</v>
@@ -23033,16 +23035,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G8" t="n">
-        <v>417.9658102901039</v>
+        <v>418.0934080885264</v>
       </c>
       <c r="H8" t="n">
-        <v>338.0873143883533</v>
+        <v>339.3940753414475</v>
       </c>
       <c r="I8" t="n">
-        <v>207.3780072822006</v>
+        <v>212.2972214058836</v>
       </c>
       <c r="J8" t="n">
-        <v>2.740927585712328</v>
+        <v>13.57063122957307</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.285509237068567</v>
       </c>
       <c r="R8" t="n">
-        <v>140.0829936531375</v>
+        <v>148.0982088582942</v>
       </c>
       <c r="S8" t="n">
-        <v>207.6380301578382</v>
+        <v>210.5456649893907</v>
       </c>
       <c r="T8" t="n">
-        <v>218.6471138007553</v>
+        <v>219.2056731633497</v>
       </c>
       <c r="U8" t="n">
-        <v>250.0807524788462</v>
+        <v>250.09096030272</v>
       </c>
       <c r="V8" t="n">
         <v>320.879783609152</v>
@@ -23112,16 +23114,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G9" t="n">
-        <v>148.2778492956328</v>
+        <v>148.3461201365529</v>
       </c>
       <c r="H9" t="n">
-        <v>121.2276521991739</v>
+        <v>121.887004794376</v>
       </c>
       <c r="I9" t="n">
-        <v>91.29311141809657</v>
+        <v>93.64366449363538</v>
       </c>
       <c r="J9" t="n">
-        <v>8.377041828155711</v>
+        <v>14.8271391275419</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>105.7400362546942</v>
+        <v>109.9788170619971</v>
       </c>
       <c r="S9" t="n">
-        <v>182.9210185873741</v>
+        <v>184.1891195141138</v>
       </c>
       <c r="T9" t="n">
-        <v>213.0895726866503</v>
+        <v>213.3647520849204</v>
       </c>
       <c r="U9" t="n">
-        <v>237.1973619193232</v>
+        <v>237.2018534220153</v>
       </c>
       <c r="V9" t="n">
         <v>240.6489209154022</v>
@@ -23191,19 +23193,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G10" t="n">
-        <v>168.3094630644065</v>
+        <v>168.3666990440678</v>
       </c>
       <c r="H10" t="n">
-        <v>162.3452794567983</v>
+        <v>162.8541593486954</v>
       </c>
       <c r="I10" t="n">
-        <v>153.0851531410239</v>
+        <v>154.8063951475636</v>
       </c>
       <c r="J10" t="n">
-        <v>92.57385888677204</v>
+        <v>96.62044264882138</v>
       </c>
       <c r="K10" t="n">
-        <v>21.56665644925431</v>
+        <v>28.2164366317142</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>11.15120779141444</v>
+        <v>18.07363936789694</v>
       </c>
       <c r="Q10" t="n">
-        <v>94.44995352957361</v>
+        <v>99.24268633557031</v>
       </c>
       <c r="R10" t="n">
-        <v>185.8351568543492</v>
+        <v>188.4086946307534</v>
       </c>
       <c r="S10" t="n">
-        <v>228.6185458126902</v>
+        <v>229.6160128400592</v>
       </c>
       <c r="T10" t="n">
-        <v>222.0895895822268</v>
+        <v>222.3341433135066</v>
       </c>
       <c r="U10" t="n">
-        <v>288.6352126851431</v>
+        <v>288.6383346476701</v>
       </c>
       <c r="V10" t="n">
         <v>245.1090151844499</v>
@@ -23270,13 +23272,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>417.6763216963499</v>
+        <v>417.6444569673644</v>
       </c>
       <c r="H11" t="n">
-        <v>335.1225893275702</v>
+        <v>334.7962546718464</v>
       </c>
       <c r="I11" t="n">
-        <v>196.2174982714999</v>
+        <v>194.9890333072825</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>121.8984057757385</v>
+        <v>119.8967829935966</v>
       </c>
       <c r="S11" t="n">
-        <v>201.0413088276692</v>
+        <v>200.3151913159098</v>
       </c>
       <c r="T11" t="n">
-        <v>217.3798774815972</v>
+        <v>217.2403896304627</v>
       </c>
       <c r="U11" t="n">
-        <v>250.0575933913458</v>
+        <v>250.055044213027</v>
       </c>
       <c r="V11" t="n">
         <v>320.879783609152</v>
@@ -23349,13 +23351,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>148.1229592428521</v>
+        <v>148.1059101097915</v>
       </c>
       <c r="H12" t="n">
-        <v>119.7317403736337</v>
+        <v>119.5670816411805</v>
       </c>
       <c r="I12" t="n">
-        <v>85.96027407454947</v>
+        <v>85.37327541435067</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>96.12326613555373</v>
+        <v>95.06472434781182</v>
       </c>
       <c r="S12" t="n">
-        <v>180.0440037912057</v>
+        <v>179.7273236222959</v>
       </c>
       <c r="T12" t="n">
-        <v>212.4652570791701</v>
+        <v>212.3965371086322</v>
       </c>
       <c r="U12" t="n">
-        <v>237.1871717842718</v>
+        <v>237.186050130781</v>
       </c>
       <c r="V12" t="n">
         <v>240.6489209154022</v>
@@ -23428,19 +23430,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.1796084472493</v>
+        <v>168.1653150268088</v>
       </c>
       <c r="H13" t="n">
-        <v>161.1907538606181</v>
+        <v>161.0636723588838</v>
       </c>
       <c r="I13" t="n">
-        <v>149.1800706541489</v>
+        <v>148.7502285194483</v>
       </c>
       <c r="J13" t="n">
-        <v>83.39313745375298</v>
+        <v>82.38259262861192</v>
       </c>
       <c r="K13" t="n">
-        <v>6.479910928618636</v>
+        <v>4.819275353807939</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>83.57640008743157</v>
+        <v>82.37952103582114</v>
       </c>
       <c r="R13" t="n">
-        <v>179.9964210683504</v>
+        <v>179.3537369092726</v>
       </c>
       <c r="S13" t="n">
-        <v>226.3555339845949</v>
+        <v>226.1064386483733</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5347562180094</v>
+        <v>221.4736843306728</v>
       </c>
       <c r="U13" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6273500649105</v>
       </c>
       <c r="V13" t="n">
         <v>245.1090151844499</v>
@@ -23507,13 +23509,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>417.6763216963499</v>
+        <v>417.6444569673644</v>
       </c>
       <c r="H14" t="n">
-        <v>335.1225893275702</v>
+        <v>334.7962546718464</v>
       </c>
       <c r="I14" t="n">
-        <v>196.2174982714999</v>
+        <v>194.9890333072825</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>121.8984057757385</v>
+        <v>119.8967829935966</v>
       </c>
       <c r="S14" t="n">
-        <v>201.0413088276692</v>
+        <v>200.3151913159098</v>
       </c>
       <c r="T14" t="n">
-        <v>217.3798774815972</v>
+        <v>217.2403896304627</v>
       </c>
       <c r="U14" t="n">
-        <v>250.0575933913458</v>
+        <v>250.055044213027</v>
       </c>
       <c r="V14" t="n">
         <v>320.879783609152</v>
@@ -23586,13 +23588,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.1229592428521</v>
+        <v>148.1059101097915</v>
       </c>
       <c r="H15" t="n">
-        <v>119.7317403736337</v>
+        <v>119.5670816411805</v>
       </c>
       <c r="I15" t="n">
-        <v>85.96027407454947</v>
+        <v>85.37327541435067</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>96.12326613555373</v>
+        <v>95.06472434781182</v>
       </c>
       <c r="S15" t="n">
-        <v>180.0440037912057</v>
+        <v>179.7273236222959</v>
       </c>
       <c r="T15" t="n">
-        <v>212.4652570791701</v>
+        <v>212.3965371086322</v>
       </c>
       <c r="U15" t="n">
-        <v>237.1871717842718</v>
+        <v>237.186050130781</v>
       </c>
       <c r="V15" t="n">
         <v>240.6489209154022</v>
@@ -23665,19 +23667,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.1796084472493</v>
+        <v>168.1653150268088</v>
       </c>
       <c r="H16" t="n">
-        <v>161.1907538606181</v>
+        <v>161.0636723588838</v>
       </c>
       <c r="I16" t="n">
-        <v>149.1800706541489</v>
+        <v>148.7502285194483</v>
       </c>
       <c r="J16" t="n">
-        <v>83.39313745375298</v>
+        <v>82.38259262861192</v>
       </c>
       <c r="K16" t="n">
-        <v>6.479910928618636</v>
+        <v>4.819275353807939</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>83.57640008743157</v>
+        <v>82.37952103582114</v>
       </c>
       <c r="R16" t="n">
-        <v>179.9964210683504</v>
+        <v>179.3537369092726</v>
       </c>
       <c r="S16" t="n">
-        <v>226.3555339845949</v>
+        <v>226.1064386483733</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5347562180094</v>
+        <v>221.4736843306728</v>
       </c>
       <c r="U16" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6273500649105</v>
       </c>
       <c r="V16" t="n">
         <v>245.1090151844499</v>
@@ -23744,13 +23746,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>417.6763216963499</v>
+        <v>417.6444569673644</v>
       </c>
       <c r="H17" t="n">
-        <v>335.1225893275702</v>
+        <v>334.7962546718464</v>
       </c>
       <c r="I17" t="n">
-        <v>196.2174982714999</v>
+        <v>194.9890333072825</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>121.8984057757385</v>
+        <v>119.8967829935966</v>
       </c>
       <c r="S17" t="n">
-        <v>201.0413088276692</v>
+        <v>200.3151913159098</v>
       </c>
       <c r="T17" t="n">
-        <v>217.3798774815972</v>
+        <v>217.2403896304627</v>
       </c>
       <c r="U17" t="n">
-        <v>250.0575933913458</v>
+        <v>250.055044213027</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -23823,13 +23825,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.1229592428521</v>
+        <v>148.1059101097915</v>
       </c>
       <c r="H18" t="n">
-        <v>119.7317403736337</v>
+        <v>119.5670816411805</v>
       </c>
       <c r="I18" t="n">
-        <v>85.96027407454947</v>
+        <v>85.37327541435067</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>96.12326613555373</v>
+        <v>95.06472434781182</v>
       </c>
       <c r="S18" t="n">
-        <v>180.0440037912057</v>
+        <v>179.7273236222959</v>
       </c>
       <c r="T18" t="n">
-        <v>212.4652570791701</v>
+        <v>212.3965371086322</v>
       </c>
       <c r="U18" t="n">
-        <v>237.1871717842718</v>
+        <v>237.186050130781</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -23902,19 +23904,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G19" t="n">
-        <v>168.1796084472493</v>
+        <v>168.1653150268088</v>
       </c>
       <c r="H19" t="n">
-        <v>161.1907538606181</v>
+        <v>161.0636723588838</v>
       </c>
       <c r="I19" t="n">
-        <v>149.1800706541489</v>
+        <v>148.7502285194483</v>
       </c>
       <c r="J19" t="n">
-        <v>83.39313745375298</v>
+        <v>82.38259262861192</v>
       </c>
       <c r="K19" t="n">
-        <v>6.479910928618636</v>
+        <v>4.819275353807939</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23932,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>83.57640008743157</v>
+        <v>82.37952103582114</v>
       </c>
       <c r="R19" t="n">
-        <v>179.9964210683504</v>
+        <v>179.3537369092726</v>
       </c>
       <c r="S19" t="n">
-        <v>226.3555339845949</v>
+        <v>226.1064386483733</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5347562180094</v>
+        <v>221.4736843306728</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6273500649105</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
@@ -23981,13 +23983,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>417.6763216963499</v>
+        <v>417.6444569673644</v>
       </c>
       <c r="H20" t="n">
-        <v>335.1225893275702</v>
+        <v>334.7962546718464</v>
       </c>
       <c r="I20" t="n">
-        <v>196.2174982714999</v>
+        <v>194.9890333072825</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>121.8984057757385</v>
+        <v>119.8967829935966</v>
       </c>
       <c r="S20" t="n">
-        <v>201.0413088276692</v>
+        <v>200.3151913159098</v>
       </c>
       <c r="T20" t="n">
-        <v>217.3798774815972</v>
+        <v>217.2403896304627</v>
       </c>
       <c r="U20" t="n">
-        <v>250.0575933913458</v>
+        <v>250.055044213027</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -24060,13 +24062,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.1229592428521</v>
+        <v>148.1059101097915</v>
       </c>
       <c r="H21" t="n">
-        <v>119.7317403736337</v>
+        <v>119.5670816411805</v>
       </c>
       <c r="I21" t="n">
-        <v>85.96027407454947</v>
+        <v>85.37327541435067</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>96.12326613555373</v>
+        <v>95.06472434781182</v>
       </c>
       <c r="S21" t="n">
-        <v>180.0440037912057</v>
+        <v>179.7273236222959</v>
       </c>
       <c r="T21" t="n">
-        <v>212.4652570791701</v>
+        <v>212.3965371086322</v>
       </c>
       <c r="U21" t="n">
-        <v>237.1871717842718</v>
+        <v>237.186050130781</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -24139,19 +24141,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
-        <v>168.1796084472493</v>
+        <v>168.1653150268088</v>
       </c>
       <c r="H22" t="n">
-        <v>161.1907538606181</v>
+        <v>161.0636723588838</v>
       </c>
       <c r="I22" t="n">
-        <v>149.1800706541489</v>
+        <v>148.7502285194483</v>
       </c>
       <c r="J22" t="n">
-        <v>83.39313745375298</v>
+        <v>82.38259262861192</v>
       </c>
       <c r="K22" t="n">
-        <v>6.479910928618636</v>
+        <v>4.819275353807939</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24169,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>83.57640008743157</v>
+        <v>82.37952103582114</v>
       </c>
       <c r="R22" t="n">
-        <v>179.9964210683504</v>
+        <v>179.3537369092726</v>
       </c>
       <c r="S22" t="n">
-        <v>226.3555339845949</v>
+        <v>226.1064386483733</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5347562180094</v>
+        <v>221.4736843306728</v>
       </c>
       <c r="U22" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6273500649105</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
@@ -24218,13 +24220,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>417.6763216963499</v>
+        <v>417.6444569673644</v>
       </c>
       <c r="H23" t="n">
-        <v>335.1225893275702</v>
+        <v>334.7962546718464</v>
       </c>
       <c r="I23" t="n">
-        <v>196.2174982714999</v>
+        <v>194.9890333072825</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>121.8984057757385</v>
+        <v>119.8967829935966</v>
       </c>
       <c r="S23" t="n">
-        <v>201.0413088276692</v>
+        <v>200.3151913159098</v>
       </c>
       <c r="T23" t="n">
-        <v>217.3798774815972</v>
+        <v>217.2403896304627</v>
       </c>
       <c r="U23" t="n">
-        <v>250.0575933913458</v>
+        <v>250.055044213027</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
@@ -24297,13 +24299,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>148.1229592428521</v>
+        <v>148.1059101097915</v>
       </c>
       <c r="H24" t="n">
-        <v>119.7317403736337</v>
+        <v>119.5670816411805</v>
       </c>
       <c r="I24" t="n">
-        <v>85.96027407454947</v>
+        <v>85.37327541435067</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>96.12326613555373</v>
+        <v>95.06472434781182</v>
       </c>
       <c r="S24" t="n">
-        <v>180.0440037912057</v>
+        <v>179.7273236222959</v>
       </c>
       <c r="T24" t="n">
-        <v>212.4652570791701</v>
+        <v>212.3965371086322</v>
       </c>
       <c r="U24" t="n">
-        <v>237.1871717842718</v>
+        <v>237.186050130781</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -24376,19 +24378,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
-        <v>168.1796084472493</v>
+        <v>168.1653150268088</v>
       </c>
       <c r="H25" t="n">
-        <v>161.1907538606181</v>
+        <v>161.0636723588838</v>
       </c>
       <c r="I25" t="n">
-        <v>149.1800706541489</v>
+        <v>148.7502285194483</v>
       </c>
       <c r="J25" t="n">
-        <v>83.39313745375298</v>
+        <v>82.38259262861192</v>
       </c>
       <c r="K25" t="n">
-        <v>6.479910928618636</v>
+        <v>4.819275353807939</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24406,19 +24408,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>83.57640008743157</v>
+        <v>82.37952103582114</v>
       </c>
       <c r="R25" t="n">
-        <v>179.9964210683504</v>
+        <v>179.3537369092726</v>
       </c>
       <c r="S25" t="n">
-        <v>226.3555339845949</v>
+        <v>226.1064386483733</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5347562180094</v>
+        <v>221.4736843306728</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6273500649105</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
@@ -24455,13 +24457,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>417.6763216963499</v>
+        <v>417.6444569673644</v>
       </c>
       <c r="H26" t="n">
-        <v>335.1225893275702</v>
+        <v>334.7962546718464</v>
       </c>
       <c r="I26" t="n">
-        <v>196.2174982714999</v>
+        <v>194.9890333072825</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>121.8984057757385</v>
+        <v>119.8967829935966</v>
       </c>
       <c r="S26" t="n">
-        <v>201.0413088276692</v>
+        <v>200.3151913159098</v>
       </c>
       <c r="T26" t="n">
-        <v>217.3798774815972</v>
+        <v>217.2403896304627</v>
       </c>
       <c r="U26" t="n">
-        <v>250.0575933913458</v>
+        <v>250.055044213027</v>
       </c>
       <c r="V26" t="n">
         <v>320.879783609152</v>
@@ -24534,13 +24536,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>148.1229592428521</v>
+        <v>148.1059101097915</v>
       </c>
       <c r="H27" t="n">
-        <v>119.7317403736337</v>
+        <v>119.5670816411805</v>
       </c>
       <c r="I27" t="n">
-        <v>85.96027407454947</v>
+        <v>85.37327541435067</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>96.12326613555373</v>
+        <v>95.06472434781182</v>
       </c>
       <c r="S27" t="n">
-        <v>180.0440037912057</v>
+        <v>179.7273236222959</v>
       </c>
       <c r="T27" t="n">
-        <v>212.4652570791701</v>
+        <v>212.3965371086322</v>
       </c>
       <c r="U27" t="n">
-        <v>237.1871717842718</v>
+        <v>237.186050130781</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
@@ -24613,19 +24615,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.1796084472493</v>
+        <v>168.1653150268088</v>
       </c>
       <c r="H28" t="n">
-        <v>161.1907538606181</v>
+        <v>161.0636723588838</v>
       </c>
       <c r="I28" t="n">
-        <v>149.1800706541489</v>
+        <v>148.7502285194483</v>
       </c>
       <c r="J28" t="n">
-        <v>83.39313745375298</v>
+        <v>82.38259262861192</v>
       </c>
       <c r="K28" t="n">
-        <v>6.479910928618636</v>
+        <v>4.819275353807939</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24643,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>83.57640008743157</v>
+        <v>82.37952103582114</v>
       </c>
       <c r="R28" t="n">
-        <v>179.9964210683504</v>
+        <v>179.3537369092726</v>
       </c>
       <c r="S28" t="n">
-        <v>226.3555339845949</v>
+        <v>226.1064386483733</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5347562180094</v>
+        <v>221.4736843306728</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6273500649105</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
@@ -24692,13 +24694,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>417.6763216963499</v>
+        <v>417.6444569673644</v>
       </c>
       <c r="H29" t="n">
-        <v>335.1225893275702</v>
+        <v>334.7962546718464</v>
       </c>
       <c r="I29" t="n">
-        <v>196.2174982714999</v>
+        <v>194.9890333072825</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>121.8984057757385</v>
+        <v>119.8967829935966</v>
       </c>
       <c r="S29" t="n">
-        <v>201.0413088276692</v>
+        <v>200.3151913159098</v>
       </c>
       <c r="T29" t="n">
-        <v>217.3798774815972</v>
+        <v>217.2403896304627</v>
       </c>
       <c r="U29" t="n">
-        <v>250.0575933913458</v>
+        <v>250.055044213027</v>
       </c>
       <c r="V29" t="n">
         <v>320.879783609152</v>
@@ -24771,13 +24773,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>148.1229592428521</v>
+        <v>148.1059101097915</v>
       </c>
       <c r="H30" t="n">
-        <v>119.7317403736337</v>
+        <v>119.5670816411805</v>
       </c>
       <c r="I30" t="n">
-        <v>85.96027407454947</v>
+        <v>85.37327541435067</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>96.12326613555373</v>
+        <v>95.06472434781182</v>
       </c>
       <c r="S30" t="n">
-        <v>180.0440037912057</v>
+        <v>179.7273236222959</v>
       </c>
       <c r="T30" t="n">
-        <v>212.4652570791701</v>
+        <v>212.3965371086322</v>
       </c>
       <c r="U30" t="n">
-        <v>237.1871717842718</v>
+        <v>237.186050130781</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
@@ -24850,19 +24852,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.1796084472493</v>
+        <v>168.1653150268088</v>
       </c>
       <c r="H31" t="n">
-        <v>161.1907538606181</v>
+        <v>161.0636723588838</v>
       </c>
       <c r="I31" t="n">
-        <v>149.1800706541489</v>
+        <v>148.7502285194483</v>
       </c>
       <c r="J31" t="n">
-        <v>83.39313745375298</v>
+        <v>82.38259262861192</v>
       </c>
       <c r="K31" t="n">
-        <v>6.479910928618636</v>
+        <v>4.819275353807939</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24880,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>83.57640008743157</v>
+        <v>82.37952103582114</v>
       </c>
       <c r="R31" t="n">
-        <v>179.9964210683504</v>
+        <v>179.3537369092726</v>
       </c>
       <c r="S31" t="n">
-        <v>226.3555339845949</v>
+        <v>226.1064386483733</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5347562180094</v>
+        <v>221.4736843306728</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6273500649105</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
@@ -24929,13 +24931,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>417.6763216963499</v>
+        <v>417.6444569673644</v>
       </c>
       <c r="H32" t="n">
-        <v>335.1225893275702</v>
+        <v>334.7962546718464</v>
       </c>
       <c r="I32" t="n">
-        <v>196.2174982714999</v>
+        <v>194.9890333072825</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>121.8984057757385</v>
+        <v>119.8967829935967</v>
       </c>
       <c r="S32" t="n">
-        <v>201.0413088276692</v>
+        <v>200.3151913159098</v>
       </c>
       <c r="T32" t="n">
-        <v>217.3798774815972</v>
+        <v>217.2403896304627</v>
       </c>
       <c r="U32" t="n">
-        <v>250.0575933913458</v>
+        <v>250.055044213027</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
@@ -25008,13 +25010,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>148.1229592428521</v>
+        <v>148.1059101097915</v>
       </c>
       <c r="H33" t="n">
-        <v>119.7317403736337</v>
+        <v>119.5670816411805</v>
       </c>
       <c r="I33" t="n">
-        <v>85.96027407454947</v>
+        <v>85.37327541435067</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>96.12326613555373</v>
+        <v>95.06472434781182</v>
       </c>
       <c r="S33" t="n">
-        <v>180.0440037912057</v>
+        <v>179.7273236222959</v>
       </c>
       <c r="T33" t="n">
-        <v>212.4652570791701</v>
+        <v>212.3965371086322</v>
       </c>
       <c r="U33" t="n">
-        <v>237.1871717842718</v>
+        <v>237.186050130781</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
@@ -25087,19 +25089,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.1796084472493</v>
+        <v>168.1653150268088</v>
       </c>
       <c r="H34" t="n">
-        <v>161.1907538606181</v>
+        <v>161.0636723588838</v>
       </c>
       <c r="I34" t="n">
-        <v>149.1800706541489</v>
+        <v>148.7502285194483</v>
       </c>
       <c r="J34" t="n">
-        <v>83.39313745375298</v>
+        <v>82.38259262861192</v>
       </c>
       <c r="K34" t="n">
-        <v>6.479910928618636</v>
+        <v>4.819275353807953</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25117,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>83.57640008743157</v>
+        <v>82.37952103582114</v>
       </c>
       <c r="R34" t="n">
-        <v>179.9964210683504</v>
+        <v>179.3537369092726</v>
       </c>
       <c r="S34" t="n">
-        <v>226.3555339845949</v>
+        <v>226.1064386483733</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5347562180094</v>
+        <v>221.4736843306728</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6273500649105</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
@@ -25166,13 +25168,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>417.6763216963499</v>
+        <v>417.6444569673644</v>
       </c>
       <c r="H35" t="n">
-        <v>335.1225893275702</v>
+        <v>334.7962546718464</v>
       </c>
       <c r="I35" t="n">
-        <v>196.2174982714999</v>
+        <v>194.9890333072825</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>121.8984057757385</v>
+        <v>119.8967829935967</v>
       </c>
       <c r="S35" t="n">
-        <v>201.0413088276692</v>
+        <v>200.3151913159098</v>
       </c>
       <c r="T35" t="n">
-        <v>217.3798774815972</v>
+        <v>217.2403896304627</v>
       </c>
       <c r="U35" t="n">
-        <v>250.0575933913458</v>
+        <v>250.055044213027</v>
       </c>
       <c r="V35" t="n">
         <v>320.879783609152</v>
@@ -25245,13 +25247,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>148.1229592428521</v>
+        <v>148.1059101097915</v>
       </c>
       <c r="H36" t="n">
-        <v>119.7317403736337</v>
+        <v>119.5670816411805</v>
       </c>
       <c r="I36" t="n">
-        <v>85.96027407454947</v>
+        <v>85.37327541435067</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>96.12326613555373</v>
+        <v>95.06472434781182</v>
       </c>
       <c r="S36" t="n">
-        <v>180.0440037912057</v>
+        <v>179.7273236222959</v>
       </c>
       <c r="T36" t="n">
-        <v>212.4652570791701</v>
+        <v>212.3965371086322</v>
       </c>
       <c r="U36" t="n">
-        <v>237.1871717842718</v>
+        <v>237.186050130781</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
@@ -25324,19 +25326,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.1796084472493</v>
+        <v>168.1653150268088</v>
       </c>
       <c r="H37" t="n">
-        <v>161.1907538606181</v>
+        <v>161.0636723588838</v>
       </c>
       <c r="I37" t="n">
-        <v>149.1800706541489</v>
+        <v>148.7502285194483</v>
       </c>
       <c r="J37" t="n">
-        <v>83.39313745375298</v>
+        <v>82.38259262861192</v>
       </c>
       <c r="K37" t="n">
-        <v>6.479910928618636</v>
+        <v>4.819275353807953</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25354,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>83.57640008743157</v>
+        <v>82.37952103582114</v>
       </c>
       <c r="R37" t="n">
-        <v>179.9964210683504</v>
+        <v>179.3537369092726</v>
       </c>
       <c r="S37" t="n">
-        <v>226.3555339845949</v>
+        <v>226.1064386483733</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5347562180094</v>
+        <v>221.4736843306728</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6273500649105</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
@@ -25403,13 +25405,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>417.6763216963499</v>
+        <v>417.6444569673644</v>
       </c>
       <c r="H38" t="n">
-        <v>335.1225893275702</v>
+        <v>334.7962546718464</v>
       </c>
       <c r="I38" t="n">
-        <v>196.2174982714999</v>
+        <v>194.9890333072825</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>121.8984057757385</v>
+        <v>119.8967829935967</v>
       </c>
       <c r="S38" t="n">
-        <v>201.0413088276692</v>
+        <v>200.3151913159098</v>
       </c>
       <c r="T38" t="n">
-        <v>217.3798774815972</v>
+        <v>217.2403896304627</v>
       </c>
       <c r="U38" t="n">
-        <v>250.0575933913458</v>
+        <v>250.055044213027</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
@@ -25482,13 +25484,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.1229592428521</v>
+        <v>148.1059101097915</v>
       </c>
       <c r="H39" t="n">
-        <v>119.7317403736337</v>
+        <v>119.5670816411805</v>
       </c>
       <c r="I39" t="n">
-        <v>85.96027407454947</v>
+        <v>85.37327541435067</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>96.12326613555373</v>
+        <v>95.06472434781182</v>
       </c>
       <c r="S39" t="n">
-        <v>180.0440037912057</v>
+        <v>179.7273236222959</v>
       </c>
       <c r="T39" t="n">
-        <v>212.4652570791701</v>
+        <v>212.3965371086322</v>
       </c>
       <c r="U39" t="n">
-        <v>237.1871717842718</v>
+        <v>237.186050130781</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -25561,19 +25563,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>168.1796084472493</v>
+        <v>168.1653150268088</v>
       </c>
       <c r="H40" t="n">
-        <v>161.1907538606181</v>
+        <v>161.0636723588838</v>
       </c>
       <c r="I40" t="n">
-        <v>149.1800706541489</v>
+        <v>148.7502285194483</v>
       </c>
       <c r="J40" t="n">
-        <v>83.39313745375298</v>
+        <v>82.38259262861192</v>
       </c>
       <c r="K40" t="n">
-        <v>6.479910928618636</v>
+        <v>4.819275353807953</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25591,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>83.57640008743157</v>
+        <v>82.37952103582114</v>
       </c>
       <c r="R40" t="n">
-        <v>179.9964210683504</v>
+        <v>179.3537369092726</v>
       </c>
       <c r="S40" t="n">
-        <v>226.3555339845949</v>
+        <v>226.1064386483733</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5347562180094</v>
+        <v>221.4736843306728</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6273500649105</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
@@ -25640,13 +25642,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>417.6763216963499</v>
+        <v>417.6444569673644</v>
       </c>
       <c r="H41" t="n">
-        <v>335.1225893275702</v>
+        <v>334.7962546718464</v>
       </c>
       <c r="I41" t="n">
-        <v>196.2174982714999</v>
+        <v>194.9890333072825</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>121.8984057757385</v>
+        <v>119.8967829935966</v>
       </c>
       <c r="S41" t="n">
-        <v>201.0413088276692</v>
+        <v>200.3151913159098</v>
       </c>
       <c r="T41" t="n">
-        <v>217.3798774815972</v>
+        <v>217.2403896304627</v>
       </c>
       <c r="U41" t="n">
-        <v>250.0575933913458</v>
+        <v>250.055044213027</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
@@ -25719,13 +25721,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.1229592428521</v>
+        <v>148.1059101097915</v>
       </c>
       <c r="H42" t="n">
-        <v>119.7317403736337</v>
+        <v>119.5670816411805</v>
       </c>
       <c r="I42" t="n">
-        <v>85.96027407454947</v>
+        <v>85.37327541435067</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>96.12326613555373</v>
+        <v>95.06472434781182</v>
       </c>
       <c r="S42" t="n">
-        <v>180.0440037912057</v>
+        <v>179.7273236222959</v>
       </c>
       <c r="T42" t="n">
-        <v>212.4652570791701</v>
+        <v>212.3965371086322</v>
       </c>
       <c r="U42" t="n">
-        <v>237.1871717842718</v>
+        <v>237.186050130781</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -25798,19 +25800,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>168.1796084472493</v>
+        <v>168.1653150268088</v>
       </c>
       <c r="H43" t="n">
-        <v>161.1907538606181</v>
+        <v>161.0636723588838</v>
       </c>
       <c r="I43" t="n">
-        <v>149.1800706541489</v>
+        <v>148.7502285194483</v>
       </c>
       <c r="J43" t="n">
-        <v>83.39313745375298</v>
+        <v>82.38259262861192</v>
       </c>
       <c r="K43" t="n">
-        <v>6.479910928618636</v>
+        <v>4.819275353807939</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25828,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>83.57640008743157</v>
+        <v>82.37952103582114</v>
       </c>
       <c r="R43" t="n">
-        <v>179.9964210683504</v>
+        <v>179.3537369092726</v>
       </c>
       <c r="S43" t="n">
-        <v>226.3555339845949</v>
+        <v>226.1064386483733</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5347562180094</v>
+        <v>221.4736843306728</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6273500649105</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25877,13 +25879,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>417.6763216963499</v>
+        <v>417.6444569673644</v>
       </c>
       <c r="H44" t="n">
-        <v>335.1225893275702</v>
+        <v>334.7962546718464</v>
       </c>
       <c r="I44" t="n">
-        <v>196.2174982714999</v>
+        <v>194.9890333072825</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>121.8984057757385</v>
+        <v>119.8967829935966</v>
       </c>
       <c r="S44" t="n">
-        <v>201.0413088276692</v>
+        <v>200.3151913159098</v>
       </c>
       <c r="T44" t="n">
-        <v>217.3798774815972</v>
+        <v>217.2403896304627</v>
       </c>
       <c r="U44" t="n">
-        <v>250.0575933913458</v>
+        <v>250.055044213027</v>
       </c>
       <c r="V44" t="n">
         <v>320.879783609152</v>
@@ -25956,13 +25958,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.1229592428521</v>
+        <v>148.1059101097915</v>
       </c>
       <c r="H45" t="n">
-        <v>119.7317403736337</v>
+        <v>119.5670816411805</v>
       </c>
       <c r="I45" t="n">
-        <v>85.96027407454947</v>
+        <v>85.37327541435067</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>96.12326613555373</v>
+        <v>95.06472434781182</v>
       </c>
       <c r="S45" t="n">
-        <v>180.0440037912057</v>
+        <v>179.7273236222959</v>
       </c>
       <c r="T45" t="n">
-        <v>212.4652570791701</v>
+        <v>212.3965371086322</v>
       </c>
       <c r="U45" t="n">
-        <v>237.1871717842718</v>
+        <v>237.186050130781</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -26035,19 +26037,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.1796084472493</v>
+        <v>168.1653150268088</v>
       </c>
       <c r="H46" t="n">
-        <v>161.1907538606181</v>
+        <v>161.0636723588838</v>
       </c>
       <c r="I46" t="n">
-        <v>149.1800706541489</v>
+        <v>148.7502285194483</v>
       </c>
       <c r="J46" t="n">
-        <v>83.39313745375298</v>
+        <v>82.38259262861192</v>
       </c>
       <c r="K46" t="n">
-        <v>6.479910928618636</v>
+        <v>4.819275353807939</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26065,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>83.57640008743157</v>
+        <v>82.37952103582114</v>
       </c>
       <c r="R46" t="n">
-        <v>179.9964210683504</v>
+        <v>179.3537369092726</v>
       </c>
       <c r="S46" t="n">
-        <v>226.3555339845949</v>
+        <v>226.1064386483733</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5347562180094</v>
+        <v>221.4736843306728</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6273500649105</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>424440.8646250127</v>
+        <v>404941.8716415243</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>426699.9443132469</v>
+        <v>413928.190523094</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>427185.1241387324</v>
+        <v>424440.8646250127</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>427798.1390121848</v>
+        <v>427858.9641036989</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>427798.1390121848</v>
+        <v>427858.964103699</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>427798.1390121848</v>
+        <v>427858.964103699</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>427798.1390121848</v>
+        <v>427858.964103699</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>427798.1390121848</v>
+        <v>427858.964103699</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>427798.1390121848</v>
+        <v>427858.964103699</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>427798.1390121848</v>
+        <v>427858.964103699</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>427798.1390121848</v>
+        <v>427858.9641036989</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>427798.1390121848</v>
+        <v>427858.9641036989</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>427798.1390121848</v>
+        <v>427858.9641036989</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>427798.1390121848</v>
+        <v>427858.9641036989</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>427798.1390121848</v>
+        <v>427858.9641036989</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>74861.83396985086</v>
+      </c>
+      <c r="C2" t="n">
+        <v>78177.90151810127</v>
+      </c>
+      <c r="D2" t="n">
         <v>82622.16948907397</v>
       </c>
-      <c r="C2" t="n">
-        <v>83574.99392625129</v>
-      </c>
-      <c r="D2" t="n">
-        <v>83928.79498487277</v>
-      </c>
       <c r="E2" t="n">
-        <v>85756.49049406018</v>
+        <v>85929.89841117934</v>
       </c>
       <c r="F2" t="n">
-        <v>85756.49049406018</v>
+        <v>85929.89841117937</v>
       </c>
       <c r="G2" t="n">
-        <v>85756.49049406018</v>
+        <v>85929.89841117933</v>
       </c>
       <c r="H2" t="n">
-        <v>85756.49049406018</v>
+        <v>85929.89841117934</v>
       </c>
       <c r="I2" t="n">
-        <v>85756.49049406018</v>
+        <v>85929.89841117934</v>
       </c>
       <c r="J2" t="n">
-        <v>85756.49049406018</v>
+        <v>85929.8984111793</v>
       </c>
       <c r="K2" t="n">
-        <v>85756.49049406018</v>
+        <v>85929.8984111793</v>
       </c>
       <c r="L2" t="n">
-        <v>85756.49049406018</v>
+        <v>85929.89841117934</v>
       </c>
       <c r="M2" t="n">
-        <v>85756.49049406018</v>
+        <v>85929.89841117934</v>
       </c>
       <c r="N2" t="n">
-        <v>85756.49049406018</v>
+        <v>85929.89841117934</v>
       </c>
       <c r="O2" t="n">
-        <v>85756.49049406018</v>
+        <v>85929.89841117934</v>
       </c>
       <c r="P2" t="n">
-        <v>85756.49049406018</v>
+        <v>85929.89841117934</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>276009.2581920185</v>
+        <v>121599.0040318557</v>
       </c>
       <c r="C3" t="n">
-        <v>19476.85815856198</v>
+        <v>58451.14444621313</v>
       </c>
       <c r="D3" t="n">
-        <v>8864.708054594879</v>
+        <v>82259.74508830642</v>
       </c>
       <c r="E3" t="n">
-        <v>57853.28116607443</v>
+        <v>89721.30855175095</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>43109.67412057838</v>
+      </c>
+      <c r="C4" t="n">
+        <v>36068.33318560441</v>
+      </c>
+      <c r="D4" t="n">
         <v>25100.37876115517</v>
       </c>
-      <c r="C4" t="n">
-        <v>22754.14033636534</v>
-      </c>
-      <c r="D4" t="n">
-        <v>21529.2817118471</v>
-      </c>
       <c r="E4" t="n">
-        <v>13308.43495756049</v>
+        <v>12531.1217829989</v>
       </c>
       <c r="F4" t="n">
-        <v>13308.43495756049</v>
+        <v>12531.1217829989</v>
       </c>
       <c r="G4" t="n">
-        <v>13308.43495756049</v>
+        <v>12531.1217829989</v>
       </c>
       <c r="H4" t="n">
-        <v>13308.43495756049</v>
+        <v>12531.1217829989</v>
       </c>
       <c r="I4" t="n">
-        <v>13308.43495756049</v>
+        <v>12531.1217829989</v>
       </c>
       <c r="J4" t="n">
-        <v>13308.43495756049</v>
+        <v>12531.1217829989</v>
       </c>
       <c r="K4" t="n">
-        <v>13308.43495756049</v>
+        <v>12531.1217829989</v>
       </c>
       <c r="L4" t="n">
-        <v>13308.43495756049</v>
+        <v>12531.1217829989</v>
       </c>
       <c r="M4" t="n">
-        <v>13308.43495756049</v>
+        <v>12531.1217829989</v>
       </c>
       <c r="N4" t="n">
-        <v>13308.43495756049</v>
+        <v>12531.1217829989</v>
       </c>
       <c r="O4" t="n">
-        <v>13308.43495756049</v>
+        <v>12531.1217829989</v>
       </c>
       <c r="P4" t="n">
-        <v>13308.43495756049</v>
+        <v>12531.1217829989</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>36378.55737385699</v>
+      </c>
+      <c r="C5" t="n">
+        <v>37777.88984723992</v>
+      </c>
+      <c r="D5" t="n">
         <v>39871.80989399894</v>
       </c>
-      <c r="C5" t="n">
-        <v>40338.08990201194</v>
-      </c>
-      <c r="D5" t="n">
-        <v>40563.74085539449</v>
-      </c>
       <c r="E5" t="n">
-        <v>8505.965127173942</v>
+        <v>8678.759586280614</v>
       </c>
       <c r="F5" t="n">
-        <v>8505.965127173942</v>
+        <v>8678.759586280614</v>
       </c>
       <c r="G5" t="n">
-        <v>8505.965127173942</v>
+        <v>8678.759586280614</v>
       </c>
       <c r="H5" t="n">
-        <v>8505.965127173942</v>
+        <v>8678.759586280614</v>
       </c>
       <c r="I5" t="n">
-        <v>8505.965127173942</v>
+        <v>8678.759586280614</v>
       </c>
       <c r="J5" t="n">
-        <v>8505.965127173942</v>
+        <v>8678.759586280614</v>
       </c>
       <c r="K5" t="n">
-        <v>8505.965127173942</v>
+        <v>8678.759586280614</v>
       </c>
       <c r="L5" t="n">
-        <v>8505.965127173942</v>
+        <v>8678.759586280612</v>
       </c>
       <c r="M5" t="n">
-        <v>8505.965127173942</v>
+        <v>8678.759586280612</v>
       </c>
       <c r="N5" t="n">
-        <v>8505.965127173942</v>
+        <v>8678.759586280612</v>
       </c>
       <c r="O5" t="n">
-        <v>8505.965127173942</v>
+        <v>8678.759586280614</v>
       </c>
       <c r="P5" t="n">
-        <v>8505.965127173942</v>
+        <v>8678.759586280614</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-258359.2773580987</v>
+        <v>-126225.4015564402</v>
       </c>
       <c r="C6" t="n">
-        <v>1005.905529312033</v>
+        <v>-54119.46596095619</v>
       </c>
       <c r="D6" t="n">
-        <v>12971.0643630363</v>
+        <v>-64609.76425438654</v>
       </c>
       <c r="E6" t="n">
-        <v>6088.80924325132</v>
+        <v>-25001.29150985111</v>
       </c>
       <c r="F6" t="n">
-        <v>63942.09040932576</v>
+        <v>64720.01704189986</v>
       </c>
       <c r="G6" t="n">
-        <v>63942.09040932576</v>
+        <v>64720.01704189982</v>
       </c>
       <c r="H6" t="n">
-        <v>63942.09040932576</v>
+        <v>64720.01704189983</v>
       </c>
       <c r="I6" t="n">
-        <v>63942.09040932576</v>
+        <v>64720.01704189983</v>
       </c>
       <c r="J6" t="n">
-        <v>63942.09040932576</v>
+        <v>64720.01704189979</v>
       </c>
       <c r="K6" t="n">
-        <v>63942.09040932576</v>
+        <v>64720.01704189979</v>
       </c>
       <c r="L6" t="n">
-        <v>63942.09040932576</v>
+        <v>64720.01704189982</v>
       </c>
       <c r="M6" t="n">
-        <v>63942.09040932576</v>
+        <v>64720.01704189982</v>
       </c>
       <c r="N6" t="n">
-        <v>63942.09040932576</v>
+        <v>64720.01704189982</v>
       </c>
       <c r="O6" t="n">
-        <v>63942.09040932576</v>
+        <v>64720.01704189983</v>
       </c>
       <c r="P6" t="n">
-        <v>63942.09040932576</v>
+        <v>64720.01704189983</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>126.1907052227976</v>
+      </c>
+      <c r="C3" t="n">
+        <v>190.3802682220148</v>
+      </c>
+      <c r="D3" t="n">
         <v>286.431646513713</v>
       </c>
-      <c r="C3" t="n">
-        <v>307.8206377069697</v>
-      </c>
-      <c r="D3" t="n">
-        <v>318.1715988713071</v>
-      </c>
       <c r="E3" t="n">
-        <v>390.181886567612</v>
+        <v>398.1082379027804</v>
       </c>
       <c r="F3" t="n">
-        <v>390.181886567612</v>
+        <v>398.1082379027804</v>
       </c>
       <c r="G3" t="n">
-        <v>390.181886567612</v>
+        <v>398.1082379027804</v>
       </c>
       <c r="H3" t="n">
-        <v>390.181886567612</v>
+        <v>398.1082379027804</v>
       </c>
       <c r="I3" t="n">
-        <v>390.181886567612</v>
+        <v>398.1082379027804</v>
       </c>
       <c r="J3" t="n">
-        <v>390.181886567612</v>
+        <v>398.1082379027804</v>
       </c>
       <c r="K3" t="n">
-        <v>390.181886567612</v>
+        <v>398.1082379027804</v>
       </c>
       <c r="L3" t="n">
-        <v>390.181886567612</v>
+        <v>398.1082379027804</v>
       </c>
       <c r="M3" t="n">
-        <v>390.181886567612</v>
+        <v>398.1082379027804</v>
       </c>
       <c r="N3" t="n">
-        <v>390.181886567612</v>
+        <v>398.1082379027804</v>
       </c>
       <c r="O3" t="n">
-        <v>390.181886567612</v>
+        <v>398.1082379027804</v>
       </c>
       <c r="P3" t="n">
-        <v>390.181886567612</v>
+        <v>398.1082379027804</v>
       </c>
     </row>
     <row r="4">
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>286.431646513713</v>
+        <v>126.1907052227976</v>
       </c>
       <c r="C3" t="n">
-        <v>21.38899119325674</v>
+        <v>64.18956299921715</v>
       </c>
       <c r="D3" t="n">
-        <v>10.35096116433743</v>
+        <v>96.0513782916982</v>
       </c>
       <c r="E3" t="n">
-        <v>72.01028769630489</v>
+        <v>111.6765913890674</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.151484006085277</v>
+        <v>0.507299317478583</v>
       </c>
       <c r="H2" t="n">
-        <v>11.79263557732085</v>
+        <v>5.195379135127538</v>
       </c>
       <c r="I2" t="n">
-        <v>44.3925871446027</v>
+        <v>19.55765693709309</v>
       </c>
       <c r="J2" t="n">
-        <v>97.7307656614804</v>
+        <v>43.05639544684792</v>
       </c>
       <c r="K2" t="n">
-        <v>146.4730836390702</v>
+        <v>64.53037555571635</v>
       </c>
       <c r="L2" t="n">
-        <v>181.7128122903026</v>
+        <v>80.05563704300155</v>
       </c>
       <c r="M2" t="n">
-        <v>202.1905159835216</v>
+        <v>89.07732128021129</v>
       </c>
       <c r="N2" t="n">
-        <v>205.4621699158114</v>
+        <v>90.51868546599734</v>
       </c>
       <c r="O2" t="n">
-        <v>194.0121008303009</v>
+        <v>85.47422787781967</v>
       </c>
       <c r="P2" t="n">
-        <v>165.5848394300706</v>
+        <v>72.95027597756713</v>
       </c>
       <c r="Q2" t="n">
-        <v>124.3473184621416</v>
+        <v>54.78261917036536</v>
       </c>
       <c r="R2" t="n">
-        <v>72.33190719725437</v>
+        <v>31.86664075156407</v>
       </c>
       <c r="S2" t="n">
-        <v>26.23944178866828</v>
+        <v>11.56008319704322</v>
       </c>
       <c r="T2" t="n">
-        <v>5.040621236638304</v>
+        <v>2.220702762262498</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09211872048682217</v>
+        <v>0.04058394539828663</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6160982585389297</v>
+        <v>0.2714290640641308</v>
       </c>
       <c r="H3" t="n">
-        <v>5.950212128520717</v>
+        <v>2.621433329250947</v>
       </c>
       <c r="I3" t="n">
-        <v>21.21215495408158</v>
+        <v>9.345255056593976</v>
       </c>
       <c r="J3" t="n">
-        <v>58.20777450520653</v>
+        <v>25.64409416230456</v>
       </c>
       <c r="K3" t="n">
-        <v>99.48635782731482</v>
+        <v>43.82984145460132</v>
       </c>
       <c r="L3" t="n">
-        <v>133.7716854779374</v>
+        <v>58.93463077409996</v>
       </c>
       <c r="M3" t="n">
-        <v>156.1052473499736</v>
+        <v>68.7739343464247</v>
       </c>
       <c r="N3" t="n">
-        <v>160.2368887416667</v>
+        <v>70.59417574534601</v>
       </c>
       <c r="O3" t="n">
-        <v>146.5854483814093</v>
+        <v>64.57987911529341</v>
       </c>
       <c r="P3" t="n">
-        <v>117.6477455274909</v>
+        <v>51.83104645273739</v>
       </c>
       <c r="Q3" t="n">
-        <v>78.6444022654255</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R3" t="n">
-        <v>38.25213573630304</v>
+        <v>16.85241153899928</v>
       </c>
       <c r="S3" t="n">
-        <v>11.44375493382617</v>
+        <v>5.041675817156109</v>
       </c>
       <c r="T3" t="n">
-        <v>2.483308331567001</v>
+        <v>1.094049604714632</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04053278016703487</v>
+        <v>0.01785717526737703</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5165160838771873</v>
+        <v>0.2275570094181596</v>
       </c>
       <c r="H4" t="n">
-        <v>4.59229754574445</v>
+        <v>2.023188683736002</v>
       </c>
       <c r="I4" t="n">
-        <v>15.53304732241578</v>
+        <v>6.843259883229747</v>
       </c>
       <c r="J4" t="n">
-        <v>36.51768713011714</v>
+        <v>16.08828056586388</v>
       </c>
       <c r="K4" t="n">
-        <v>60.00977774500411</v>
+        <v>26.4379870942189</v>
       </c>
       <c r="L4" t="n">
-        <v>76.79185487025021</v>
+        <v>33.83152120022348</v>
       </c>
       <c r="M4" t="n">
-        <v>80.96624394813036</v>
+        <v>35.67059557633932</v>
       </c>
       <c r="N4" t="n">
-        <v>79.04104763549726</v>
+        <v>34.8224285412353</v>
       </c>
       <c r="O4" t="n">
-        <v>73.00720065565919</v>
+        <v>32.16414893121406</v>
       </c>
       <c r="P4" t="n">
-        <v>62.47027254456452</v>
+        <v>27.52198593908358</v>
       </c>
       <c r="Q4" t="n">
-        <v>43.25117862357066</v>
+        <v>19.05479648864244</v>
       </c>
       <c r="R4" t="n">
-        <v>23.22444137142334</v>
+        <v>10.2317906234747</v>
       </c>
       <c r="S4" t="n">
-        <v>9.001466661750614</v>
+        <v>3.965698064132834</v>
       </c>
       <c r="T4" t="n">
-        <v>2.206932358384345</v>
+        <v>0.9722890402412272</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02817360457511934</v>
+        <v>0.01241220051371781</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.237469900329526</v>
+        <v>0.7653478119477974</v>
       </c>
       <c r="H5" t="n">
-        <v>12.67323861674976</v>
+        <v>7.838118279110383</v>
       </c>
       <c r="I5" t="n">
-        <v>47.70755833245408</v>
+        <v>29.50607152011749</v>
       </c>
       <c r="J5" t="n">
-        <v>105.0287109530932</v>
+        <v>64.95793885430443</v>
       </c>
       <c r="K5" t="n">
-        <v>157.410811834042</v>
+        <v>97.35511173405472</v>
       </c>
       <c r="L5" t="n">
-        <v>195.2820312962518</v>
+        <v>120.7776248339521</v>
       </c>
       <c r="M5" t="n">
-        <v>217.288886636237</v>
+        <v>134.3883789846788</v>
       </c>
       <c r="N5" t="n">
-        <v>220.8048479905482</v>
+        <v>136.5629234553755</v>
       </c>
       <c r="O5" t="n">
-        <v>208.4997566691465</v>
+        <v>128.9524961503196</v>
       </c>
       <c r="P5" t="n">
-        <v>177.9497185047613</v>
+        <v>110.0579720428583</v>
       </c>
       <c r="Q5" t="n">
-        <v>133.6328276992101</v>
+        <v>82.64895352747776</v>
       </c>
       <c r="R5" t="n">
-        <v>77.73321862657463</v>
+        <v>48.07627949226588</v>
       </c>
       <c r="S5" t="n">
-        <v>28.19884535375909</v>
+        <v>17.44036326476045</v>
       </c>
       <c r="T5" t="n">
-        <v>5.4170244886925</v>
+        <v>3.350310046801485</v>
       </c>
       <c r="U5" t="n">
-        <v>0.09899759202636202</v>
+        <v>0.06122782495582379</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6621047678980103</v>
+        <v>0.4094971807039562</v>
       </c>
       <c r="H6" t="n">
-        <v>6.394538153120259</v>
+        <v>3.954880666272421</v>
       </c>
       <c r="I6" t="n">
-        <v>22.79615099999729</v>
+        <v>14.09891609002657</v>
       </c>
       <c r="J6" t="n">
-        <v>62.55438072496072</v>
+        <v>38.68850337519265</v>
       </c>
       <c r="K6" t="n">
-        <v>106.9154001741274</v>
+        <v>66.12481448235772</v>
       </c>
       <c r="L6" t="n">
-        <v>143.7609497139956</v>
+        <v>88.91297338047964</v>
       </c>
       <c r="M6" t="n">
-        <v>167.7622475502985</v>
+        <v>103.757246180998</v>
       </c>
       <c r="N6" t="n">
-        <v>160.2368887416667</v>
+        <v>106.5033917480873</v>
       </c>
       <c r="O6" t="n">
-        <v>157.5315672989621</v>
+        <v>97.42979632301542</v>
       </c>
       <c r="P6" t="n">
-        <v>126.4329709857174</v>
+        <v>78.19600111179319</v>
       </c>
       <c r="Q6" t="n">
-        <v>84.51709282852498</v>
+        <v>52.27195590880678</v>
       </c>
       <c r="R6" t="n">
-        <v>41.10857497528175</v>
+        <v>25.42474600897021</v>
       </c>
       <c r="S6" t="n">
-        <v>12.29830566687751</v>
+        <v>7.606230527549359</v>
       </c>
       <c r="T6" t="n">
-        <v>2.668746849553821</v>
+        <v>1.650561004679542</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04355952420381649</v>
+        <v>0.02694060399368135</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5550863958650273</v>
+        <v>0.3433086804003544</v>
       </c>
       <c r="H7" t="n">
-        <v>4.935222683236337</v>
+        <v>3.052326267559517</v>
       </c>
       <c r="I7" t="n">
-        <v>16.6929617956501</v>
+        <v>10.32422831603975</v>
       </c>
       <c r="J7" t="n">
-        <v>39.24460818765743</v>
+        <v>24.27192370430506</v>
       </c>
       <c r="K7" t="n">
-        <v>64.49094671959134</v>
+        <v>39.88622668651389</v>
       </c>
       <c r="L7" t="n">
-        <v>82.52620834524234</v>
+        <v>51.0406378115218</v>
       </c>
       <c r="M7" t="n">
-        <v>87.01231567182423</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N7" t="n">
-        <v>84.94335728723647</v>
+        <v>52.53559106526519</v>
       </c>
       <c r="O7" t="n">
-        <v>78.45893893554043</v>
+        <v>48.5251214805883</v>
       </c>
       <c r="P7" t="n">
-        <v>67.13517645989381</v>
+        <v>41.52162440042103</v>
       </c>
       <c r="Q7" t="n">
-        <v>46.48091629375242</v>
+        <v>28.74742050152423</v>
       </c>
       <c r="R7" t="n">
-        <v>24.95870285407658</v>
+        <v>15.43640666600139</v>
       </c>
       <c r="S7" t="n">
-        <v>9.6736420079387</v>
+        <v>5.982934002977084</v>
       </c>
       <c r="T7" t="n">
-        <v>2.371732782332389</v>
+        <v>1.466864361710605</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03027743977445607</v>
+        <v>0.01872592802183753</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.279081804507766</v>
+        <v>1.151484006085277</v>
       </c>
       <c r="H8" t="n">
-        <v>13.09939653041517</v>
+        <v>11.79263557732085</v>
       </c>
       <c r="I8" t="n">
-        <v>49.31180126828571</v>
+        <v>44.3925871446027</v>
       </c>
       <c r="J8" t="n">
-        <v>108.5604693053411</v>
+        <v>97.7307656614804</v>
       </c>
       <c r="K8" t="n">
-        <v>162.7040020901549</v>
+        <v>146.4730836390702</v>
       </c>
       <c r="L8" t="n">
-        <v>201.8487018648595</v>
+        <v>181.7128122903026</v>
       </c>
       <c r="M8" t="n">
-        <v>224.5955729057745</v>
+        <v>202.1905159835216</v>
       </c>
       <c r="N8" t="n">
-        <v>228.2297640828322</v>
+        <v>205.4621699158114</v>
       </c>
       <c r="O8" t="n">
-        <v>215.5108943892581</v>
+        <v>194.0121008303009</v>
       </c>
       <c r="P8" t="n">
-        <v>183.9335623404726</v>
+        <v>165.5848394300706</v>
       </c>
       <c r="Q8" t="n">
-        <v>138.1264452165381</v>
+        <v>124.3473184621416</v>
       </c>
       <c r="R8" t="n">
-        <v>80.34712240241106</v>
+        <v>72.33190719725437</v>
       </c>
       <c r="S8" t="n">
-        <v>29.14707662022075</v>
+        <v>26.23944178866829</v>
       </c>
       <c r="T8" t="n">
-        <v>5.59918059923275</v>
+        <v>5.040621236638304</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1023265443606213</v>
+        <v>0.09211872048682217</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.684369099459038</v>
+        <v>0.6160982585389299</v>
       </c>
       <c r="H9" t="n">
-        <v>6.609564723722816</v>
+        <v>5.950212128520717</v>
       </c>
       <c r="I9" t="n">
-        <v>23.56270802962039</v>
+        <v>21.21215495408158</v>
       </c>
       <c r="J9" t="n">
-        <v>64.65787180459272</v>
+        <v>58.20777450520653</v>
       </c>
       <c r="K9" t="n">
-        <v>110.5106014683483</v>
+        <v>99.48635782731483</v>
       </c>
       <c r="L9" t="n">
-        <v>148.5951415294723</v>
+        <v>133.7716854779374</v>
       </c>
       <c r="M9" t="n">
-        <v>173.4035213848624</v>
+        <v>156.1052473499736</v>
       </c>
       <c r="N9" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O9" t="n">
-        <v>162.8288181506773</v>
+        <v>146.5854483814093</v>
       </c>
       <c r="P9" t="n">
-        <v>130.6844818081035</v>
+        <v>117.6477455274909</v>
       </c>
       <c r="Q9" t="n">
-        <v>87.35911522217475</v>
+        <v>78.6444022654255</v>
       </c>
       <c r="R9" t="n">
-        <v>42.49091654360591</v>
+        <v>38.25213573630304</v>
       </c>
       <c r="S9" t="n">
-        <v>12.7118558605659</v>
+        <v>11.44375493382617</v>
       </c>
       <c r="T9" t="n">
-        <v>2.758487729837086</v>
+        <v>2.483308331567001</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04502428285914726</v>
+        <v>0.04053278016703487</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5737520635384227</v>
+        <v>0.5165160838771873</v>
       </c>
       <c r="H10" t="n">
-        <v>5.101177437641616</v>
+        <v>4.59229754574445</v>
       </c>
       <c r="I10" t="n">
-        <v>17.25428932895548</v>
+        <v>15.53304732241578</v>
       </c>
       <c r="J10" t="n">
-        <v>40.56427089216648</v>
+        <v>36.51768713011714</v>
       </c>
       <c r="K10" t="n">
-        <v>66.65955792746399</v>
+        <v>60.00977774500411</v>
       </c>
       <c r="L10" t="n">
-        <v>85.30128406461242</v>
+        <v>76.79185487025019</v>
       </c>
       <c r="M10" t="n">
-        <v>89.93824392357291</v>
+        <v>80.96624394813034</v>
       </c>
       <c r="N10" t="n">
-        <v>87.79971350492977</v>
+        <v>79.04104763549726</v>
       </c>
       <c r="O10" t="n">
-        <v>81.0972462172309</v>
+        <v>73.00720065565919</v>
       </c>
       <c r="P10" t="n">
-        <v>69.39270412104702</v>
+        <v>62.47027254456452</v>
       </c>
       <c r="Q10" t="n">
-        <v>48.04391142956737</v>
+        <v>43.25117862357066</v>
       </c>
       <c r="R10" t="n">
-        <v>25.79797914782761</v>
+        <v>23.22444137142334</v>
       </c>
       <c r="S10" t="n">
-        <v>9.998933689119598</v>
+        <v>9.001466661750616</v>
       </c>
       <c r="T10" t="n">
-        <v>2.451486089664169</v>
+        <v>2.206932358384345</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03129556710209581</v>
+        <v>0.02817360457511934</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.568570398261756</v>
+        <v>1.600435127247357</v>
       </c>
       <c r="H11" t="n">
-        <v>16.06412159119821</v>
+        <v>16.390456246922</v>
       </c>
       <c r="I11" t="n">
-        <v>60.4723102789864</v>
+        <v>61.70077524320381</v>
       </c>
       <c r="J11" t="n">
-        <v>133.1304518394688</v>
+        <v>135.8349308812105</v>
       </c>
       <c r="K11" t="n">
-        <v>199.528036797889</v>
+        <v>203.5813498175912</v>
       </c>
       <c r="L11" t="n">
-        <v>247.5321731236922</v>
+        <v>252.5606663430875</v>
       </c>
       <c r="M11" t="n">
-        <v>275.4272369437797</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N11" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O11" t="n">
-        <v>264.2864656901256</v>
+        <v>269.6553140459984</v>
       </c>
       <c r="P11" t="n">
-        <v>225.5623839830385</v>
+        <v>230.1445718420792</v>
       </c>
       <c r="Q11" t="n">
-        <v>169.3879565952893</v>
+        <v>172.8289888475332</v>
       </c>
       <c r="R11" t="n">
-        <v>98.5317102798101</v>
+        <v>100.5333330619519</v>
       </c>
       <c r="S11" t="n">
-        <v>35.74379795038979</v>
+        <v>36.46991546214919</v>
       </c>
       <c r="T11" t="n">
-        <v>6.866416918390839</v>
+        <v>7.00590476952531</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1280348101797886</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8392591522397693</v>
+        <v>0.8563082853003202</v>
       </c>
       <c r="H12" t="n">
-        <v>8.105476549263036</v>
+        <v>8.270135281716252</v>
       </c>
       <c r="I12" t="n">
-        <v>28.8955453731675</v>
+        <v>29.48254403336629</v>
       </c>
       <c r="J12" t="n">
-        <v>79.29158508068804</v>
+        <v>80.90235427041316</v>
       </c>
       <c r="K12" t="n">
-        <v>135.5219482807526</v>
+        <v>138.2750093855346</v>
       </c>
       <c r="L12" t="n">
         <v>169.0363433314465</v>
@@ -31856,22 +31858,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P12" t="n">
-        <v>160.2616884658556</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q12" t="n">
-        <v>107.1306945911678</v>
+        <v>109.3070014709672</v>
       </c>
       <c r="R12" t="n">
-        <v>52.1076866627464</v>
+        <v>53.16622845048833</v>
       </c>
       <c r="S12" t="n">
-        <v>15.5888706567343</v>
+        <v>15.90555082564409</v>
       </c>
       <c r="T12" t="n">
-        <v>3.382803337317315</v>
+        <v>3.451523307855237</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05521441791051116</v>
+        <v>0.05633607140133688</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7036066806956938</v>
+        <v>0.7179001011361613</v>
       </c>
       <c r="H13" t="n">
-        <v>6.255703033821718</v>
+        <v>6.382784535556058</v>
       </c>
       <c r="I13" t="n">
-        <v>21.15937181583051</v>
+        <v>21.58921395053111</v>
       </c>
       <c r="J13" t="n">
-        <v>49.74499232518554</v>
+        <v>50.7555371503266</v>
       </c>
       <c r="K13" t="n">
-        <v>81.74630344809967</v>
+        <v>83.40693902291036</v>
       </c>
       <c r="L13" t="n">
-        <v>104.6071241463398</v>
+        <v>106.7321659452799</v>
       </c>
       <c r="M13" t="n">
-        <v>110.293545411235</v>
+        <v>112.5341040353712</v>
       </c>
       <c r="N13" t="n">
-        <v>107.6710114195511</v>
+        <v>109.8582945675001</v>
       </c>
       <c r="O13" t="n">
-        <v>99.45160610415137</v>
+        <v>101.4719161133186</v>
       </c>
       <c r="P13" t="n">
-        <v>85.09802981795914</v>
+        <v>86.82675405014078</v>
       </c>
       <c r="Q13" t="n">
-        <v>58.91746487170941</v>
+        <v>60.11434392331984</v>
       </c>
       <c r="R13" t="n">
-        <v>31.63671493382637</v>
+        <v>32.27939909290412</v>
       </c>
       <c r="S13" t="n">
-        <v>12.26194551721495</v>
+        <v>12.51104085343655</v>
       </c>
       <c r="T13" t="n">
-        <v>3.0063194538816</v>
+        <v>3.067391341218143</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.03915818733469976</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.568570398261756</v>
+        <v>1.600435127247357</v>
       </c>
       <c r="H14" t="n">
-        <v>16.06412159119821</v>
+        <v>16.390456246922</v>
       </c>
       <c r="I14" t="n">
-        <v>60.4723102789864</v>
+        <v>61.70077524320381</v>
       </c>
       <c r="J14" t="n">
-        <v>133.1304518394688</v>
+        <v>135.8349308812105</v>
       </c>
       <c r="K14" t="n">
-        <v>199.528036797889</v>
+        <v>203.5813498175912</v>
       </c>
       <c r="L14" t="n">
-        <v>247.5321731236922</v>
+        <v>252.5606663430876</v>
       </c>
       <c r="M14" t="n">
-        <v>275.4272369437797</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N14" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O14" t="n">
-        <v>264.2864656901256</v>
+        <v>269.6553140459984</v>
       </c>
       <c r="P14" t="n">
-        <v>225.5623839830385</v>
+        <v>230.1445718420792</v>
       </c>
       <c r="Q14" t="n">
-        <v>169.3879565952893</v>
+        <v>172.8289888475332</v>
       </c>
       <c r="R14" t="n">
-        <v>98.5317102798101</v>
+        <v>100.5333330619519</v>
       </c>
       <c r="S14" t="n">
-        <v>35.74379795038979</v>
+        <v>36.4699154621492</v>
       </c>
       <c r="T14" t="n">
-        <v>6.866416918390839</v>
+        <v>7.00590476952531</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1280348101797886</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8392591522397693</v>
+        <v>0.8563082853003202</v>
       </c>
       <c r="H15" t="n">
-        <v>8.105476549263036</v>
+        <v>8.270135281716252</v>
       </c>
       <c r="I15" t="n">
-        <v>28.8955453731675</v>
+        <v>29.48254403336629</v>
       </c>
       <c r="J15" t="n">
-        <v>79.29158508068804</v>
+        <v>80.90235427041316</v>
       </c>
       <c r="K15" t="n">
-        <v>135.5219482807526</v>
+        <v>138.2750093855346</v>
       </c>
       <c r="L15" t="n">
         <v>169.0363433314465</v>
@@ -32093,22 +32095,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P15" t="n">
-        <v>160.2616884658556</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q15" t="n">
-        <v>107.1306945911678</v>
+        <v>109.3070014709672</v>
       </c>
       <c r="R15" t="n">
-        <v>52.1076866627464</v>
+        <v>53.16622845048833</v>
       </c>
       <c r="S15" t="n">
-        <v>15.5888706567343</v>
+        <v>15.9055508256441</v>
       </c>
       <c r="T15" t="n">
-        <v>3.382803337317315</v>
+        <v>3.451523307855237</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05521441791051116</v>
+        <v>0.05633607140133688</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7036066806956938</v>
+        <v>0.7179001011361613</v>
       </c>
       <c r="H16" t="n">
-        <v>6.255703033821718</v>
+        <v>6.382784535556057</v>
       </c>
       <c r="I16" t="n">
-        <v>21.15937181583051</v>
+        <v>21.58921395053111</v>
       </c>
       <c r="J16" t="n">
-        <v>49.74499232518554</v>
+        <v>50.75553715032661</v>
       </c>
       <c r="K16" t="n">
-        <v>81.74630344809967</v>
+        <v>83.40693902291036</v>
       </c>
       <c r="L16" t="n">
-        <v>104.6071241463398</v>
+        <v>106.7321659452799</v>
       </c>
       <c r="M16" t="n">
-        <v>110.293545411235</v>
+        <v>112.5341040353712</v>
       </c>
       <c r="N16" t="n">
-        <v>107.6710114195511</v>
+        <v>109.8582945675001</v>
       </c>
       <c r="O16" t="n">
-        <v>99.45160610415137</v>
+        <v>101.4719161133186</v>
       </c>
       <c r="P16" t="n">
-        <v>85.09802981795914</v>
+        <v>86.82675405014079</v>
       </c>
       <c r="Q16" t="n">
-        <v>58.91746487170941</v>
+        <v>60.11434392331984</v>
       </c>
       <c r="R16" t="n">
-        <v>31.63671493382637</v>
+        <v>32.27939909290412</v>
       </c>
       <c r="S16" t="n">
-        <v>12.26194551721495</v>
+        <v>12.51104085343655</v>
       </c>
       <c r="T16" t="n">
-        <v>3.0063194538816</v>
+        <v>3.067391341218143</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.03915818733469976</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.568570398261756</v>
+        <v>1.600435127247357</v>
       </c>
       <c r="H17" t="n">
-        <v>16.06412159119821</v>
+        <v>16.390456246922</v>
       </c>
       <c r="I17" t="n">
-        <v>60.4723102789864</v>
+        <v>61.70077524320381</v>
       </c>
       <c r="J17" t="n">
-        <v>133.1304518394688</v>
+        <v>135.8349308812105</v>
       </c>
       <c r="K17" t="n">
-        <v>199.528036797889</v>
+        <v>203.5813498175912</v>
       </c>
       <c r="L17" t="n">
-        <v>247.5321731236922</v>
+        <v>252.5606663430876</v>
       </c>
       <c r="M17" t="n">
-        <v>275.4272369437797</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N17" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O17" t="n">
-        <v>264.2864656901256</v>
+        <v>269.6553140459984</v>
       </c>
       <c r="P17" t="n">
-        <v>225.5623839830385</v>
+        <v>230.1445718420792</v>
       </c>
       <c r="Q17" t="n">
-        <v>169.3879565952893</v>
+        <v>172.8289888475332</v>
       </c>
       <c r="R17" t="n">
-        <v>98.5317102798101</v>
+        <v>100.5333330619519</v>
       </c>
       <c r="S17" t="n">
-        <v>35.74379795038979</v>
+        <v>36.4699154621492</v>
       </c>
       <c r="T17" t="n">
-        <v>6.866416918390839</v>
+        <v>7.00590476952531</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1280348101797886</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8392591522397693</v>
+        <v>0.8563082853003202</v>
       </c>
       <c r="H18" t="n">
-        <v>8.105476549263036</v>
+        <v>8.270135281716252</v>
       </c>
       <c r="I18" t="n">
-        <v>28.8955453731675</v>
+        <v>29.48254403336629</v>
       </c>
       <c r="J18" t="n">
-        <v>79.29158508068804</v>
+        <v>80.90235427041316</v>
       </c>
       <c r="K18" t="n">
-        <v>135.5219482807526</v>
+        <v>138.2750093855346</v>
       </c>
       <c r="L18" t="n">
         <v>169.0363433314465</v>
@@ -32330,22 +32332,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P18" t="n">
-        <v>160.2616884658556</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q18" t="n">
-        <v>107.1306945911678</v>
+        <v>109.3070014709672</v>
       </c>
       <c r="R18" t="n">
-        <v>52.1076866627464</v>
+        <v>53.16622845048833</v>
       </c>
       <c r="S18" t="n">
-        <v>15.5888706567343</v>
+        <v>15.9055508256441</v>
       </c>
       <c r="T18" t="n">
-        <v>3.382803337317315</v>
+        <v>3.451523307855237</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05521441791051116</v>
+        <v>0.05633607140133688</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7036066806956938</v>
+        <v>0.7179001011361613</v>
       </c>
       <c r="H19" t="n">
-        <v>6.255703033821718</v>
+        <v>6.382784535556057</v>
       </c>
       <c r="I19" t="n">
-        <v>21.15937181583051</v>
+        <v>21.58921395053111</v>
       </c>
       <c r="J19" t="n">
-        <v>49.74499232518554</v>
+        <v>50.75553715032661</v>
       </c>
       <c r="K19" t="n">
-        <v>81.74630344809967</v>
+        <v>83.40693902291036</v>
       </c>
       <c r="L19" t="n">
-        <v>104.6071241463398</v>
+        <v>106.7321659452799</v>
       </c>
       <c r="M19" t="n">
-        <v>110.293545411235</v>
+        <v>112.5341040353712</v>
       </c>
       <c r="N19" t="n">
-        <v>107.6710114195511</v>
+        <v>109.8582945675001</v>
       </c>
       <c r="O19" t="n">
-        <v>99.45160610415137</v>
+        <v>101.4719161133186</v>
       </c>
       <c r="P19" t="n">
-        <v>85.09802981795914</v>
+        <v>86.82675405014079</v>
       </c>
       <c r="Q19" t="n">
-        <v>58.91746487170941</v>
+        <v>60.11434392331984</v>
       </c>
       <c r="R19" t="n">
-        <v>31.63671493382637</v>
+        <v>32.27939909290412</v>
       </c>
       <c r="S19" t="n">
-        <v>12.26194551721495</v>
+        <v>12.51104085343655</v>
       </c>
       <c r="T19" t="n">
-        <v>3.0063194538816</v>
+        <v>3.067391341218143</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.03915818733469976</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.568570398261756</v>
+        <v>1.600435127247357</v>
       </c>
       <c r="H20" t="n">
-        <v>16.06412159119821</v>
+        <v>16.390456246922</v>
       </c>
       <c r="I20" t="n">
-        <v>60.4723102789864</v>
+        <v>61.70077524320381</v>
       </c>
       <c r="J20" t="n">
-        <v>133.1304518394688</v>
+        <v>135.8349308812105</v>
       </c>
       <c r="K20" t="n">
-        <v>199.528036797889</v>
+        <v>203.5813498175912</v>
       </c>
       <c r="L20" t="n">
-        <v>247.5321731236922</v>
+        <v>252.5606663430876</v>
       </c>
       <c r="M20" t="n">
-        <v>275.4272369437797</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N20" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O20" t="n">
-        <v>264.2864656901256</v>
+        <v>269.6553140459984</v>
       </c>
       <c r="P20" t="n">
-        <v>225.5623839830385</v>
+        <v>230.1445718420792</v>
       </c>
       <c r="Q20" t="n">
-        <v>169.3879565952893</v>
+        <v>172.8289888475332</v>
       </c>
       <c r="R20" t="n">
-        <v>98.5317102798101</v>
+        <v>100.5333330619519</v>
       </c>
       <c r="S20" t="n">
-        <v>35.74379795038979</v>
+        <v>36.4699154621492</v>
       </c>
       <c r="T20" t="n">
-        <v>6.866416918390839</v>
+        <v>7.00590476952531</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1280348101797886</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8392591522397693</v>
+        <v>0.8563082853003202</v>
       </c>
       <c r="H21" t="n">
-        <v>8.105476549263036</v>
+        <v>8.270135281716252</v>
       </c>
       <c r="I21" t="n">
-        <v>28.8955453731675</v>
+        <v>29.48254403336629</v>
       </c>
       <c r="J21" t="n">
-        <v>79.29158508068804</v>
+        <v>80.90235427041316</v>
       </c>
       <c r="K21" t="n">
-        <v>135.5219482807526</v>
+        <v>138.2750093855346</v>
       </c>
       <c r="L21" t="n">
         <v>169.0363433314465</v>
@@ -32567,22 +32569,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P21" t="n">
-        <v>160.2616884658556</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q21" t="n">
-        <v>107.1306945911678</v>
+        <v>109.3070014709672</v>
       </c>
       <c r="R21" t="n">
-        <v>52.1076866627464</v>
+        <v>53.16622845048833</v>
       </c>
       <c r="S21" t="n">
-        <v>15.5888706567343</v>
+        <v>15.9055508256441</v>
       </c>
       <c r="T21" t="n">
-        <v>3.382803337317315</v>
+        <v>3.451523307855237</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05521441791051116</v>
+        <v>0.05633607140133688</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7036066806956938</v>
+        <v>0.7179001011361613</v>
       </c>
       <c r="H22" t="n">
-        <v>6.255703033821718</v>
+        <v>6.382784535556057</v>
       </c>
       <c r="I22" t="n">
-        <v>21.15937181583051</v>
+        <v>21.58921395053111</v>
       </c>
       <c r="J22" t="n">
-        <v>49.74499232518554</v>
+        <v>50.75553715032661</v>
       </c>
       <c r="K22" t="n">
-        <v>81.74630344809967</v>
+        <v>83.40693902291036</v>
       </c>
       <c r="L22" t="n">
-        <v>104.6071241463398</v>
+        <v>106.7321659452799</v>
       </c>
       <c r="M22" t="n">
-        <v>110.293545411235</v>
+        <v>112.5341040353712</v>
       </c>
       <c r="N22" t="n">
-        <v>107.6710114195511</v>
+        <v>109.8582945675001</v>
       </c>
       <c r="O22" t="n">
-        <v>99.45160610415137</v>
+        <v>101.4719161133186</v>
       </c>
       <c r="P22" t="n">
-        <v>85.09802981795914</v>
+        <v>86.82675405014079</v>
       </c>
       <c r="Q22" t="n">
-        <v>58.91746487170941</v>
+        <v>60.11434392331984</v>
       </c>
       <c r="R22" t="n">
-        <v>31.63671493382637</v>
+        <v>32.27939909290412</v>
       </c>
       <c r="S22" t="n">
-        <v>12.26194551721495</v>
+        <v>12.51104085343655</v>
       </c>
       <c r="T22" t="n">
-        <v>3.0063194538816</v>
+        <v>3.067391341218143</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.03915818733469976</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.568570398261756</v>
+        <v>1.600435127247357</v>
       </c>
       <c r="H23" t="n">
-        <v>16.06412159119821</v>
+        <v>16.390456246922</v>
       </c>
       <c r="I23" t="n">
-        <v>60.4723102789864</v>
+        <v>61.70077524320381</v>
       </c>
       <c r="J23" t="n">
-        <v>133.1304518394688</v>
+        <v>135.8349308812105</v>
       </c>
       <c r="K23" t="n">
-        <v>199.528036797889</v>
+        <v>203.5813498175912</v>
       </c>
       <c r="L23" t="n">
-        <v>247.5321731236922</v>
+        <v>252.5606663430876</v>
       </c>
       <c r="M23" t="n">
-        <v>275.4272369437797</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N23" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O23" t="n">
-        <v>264.2864656901256</v>
+        <v>269.6553140459984</v>
       </c>
       <c r="P23" t="n">
-        <v>225.5623839830385</v>
+        <v>230.1445718420792</v>
       </c>
       <c r="Q23" t="n">
-        <v>169.3879565952893</v>
+        <v>172.8289888475332</v>
       </c>
       <c r="R23" t="n">
-        <v>98.5317102798101</v>
+        <v>100.5333330619519</v>
       </c>
       <c r="S23" t="n">
-        <v>35.74379795038979</v>
+        <v>36.4699154621492</v>
       </c>
       <c r="T23" t="n">
-        <v>6.866416918390839</v>
+        <v>7.00590476952531</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1280348101797886</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8392591522397693</v>
+        <v>0.8563082853003202</v>
       </c>
       <c r="H24" t="n">
-        <v>8.105476549263036</v>
+        <v>8.270135281716252</v>
       </c>
       <c r="I24" t="n">
-        <v>28.8955453731675</v>
+        <v>29.48254403336629</v>
       </c>
       <c r="J24" t="n">
-        <v>79.29158508068804</v>
+        <v>80.90235427041316</v>
       </c>
       <c r="K24" t="n">
-        <v>135.5219482807526</v>
+        <v>138.2750093855346</v>
       </c>
       <c r="L24" t="n">
         <v>169.0363433314465</v>
@@ -32804,22 +32806,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P24" t="n">
-        <v>160.2616884658556</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q24" t="n">
-        <v>107.1306945911678</v>
+        <v>109.3070014709672</v>
       </c>
       <c r="R24" t="n">
-        <v>52.1076866627464</v>
+        <v>53.16622845048833</v>
       </c>
       <c r="S24" t="n">
-        <v>15.5888706567343</v>
+        <v>15.9055508256441</v>
       </c>
       <c r="T24" t="n">
-        <v>3.382803337317315</v>
+        <v>3.451523307855237</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05521441791051116</v>
+        <v>0.05633607140133688</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7036066806956938</v>
+        <v>0.7179001011361613</v>
       </c>
       <c r="H25" t="n">
-        <v>6.255703033821718</v>
+        <v>6.382784535556057</v>
       </c>
       <c r="I25" t="n">
-        <v>21.15937181583051</v>
+        <v>21.58921395053111</v>
       </c>
       <c r="J25" t="n">
-        <v>49.74499232518554</v>
+        <v>50.75553715032661</v>
       </c>
       <c r="K25" t="n">
-        <v>81.74630344809967</v>
+        <v>83.40693902291036</v>
       </c>
       <c r="L25" t="n">
-        <v>104.6071241463398</v>
+        <v>106.7321659452799</v>
       </c>
       <c r="M25" t="n">
-        <v>110.293545411235</v>
+        <v>112.5341040353712</v>
       </c>
       <c r="N25" t="n">
-        <v>107.6710114195511</v>
+        <v>109.8582945675001</v>
       </c>
       <c r="O25" t="n">
-        <v>99.45160610415137</v>
+        <v>101.4719161133186</v>
       </c>
       <c r="P25" t="n">
-        <v>85.09802981795914</v>
+        <v>86.82675405014079</v>
       </c>
       <c r="Q25" t="n">
-        <v>58.91746487170941</v>
+        <v>60.11434392331984</v>
       </c>
       <c r="R25" t="n">
-        <v>31.63671493382637</v>
+        <v>32.27939909290412</v>
       </c>
       <c r="S25" t="n">
-        <v>12.26194551721495</v>
+        <v>12.51104085343655</v>
       </c>
       <c r="T25" t="n">
-        <v>3.0063194538816</v>
+        <v>3.067391341218143</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.03915818733469976</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.568570398261756</v>
+        <v>1.600435127247357</v>
       </c>
       <c r="H26" t="n">
-        <v>16.06412159119821</v>
+        <v>16.390456246922</v>
       </c>
       <c r="I26" t="n">
-        <v>60.4723102789864</v>
+        <v>61.70077524320381</v>
       </c>
       <c r="J26" t="n">
-        <v>133.1304518394688</v>
+        <v>135.8349308812105</v>
       </c>
       <c r="K26" t="n">
-        <v>199.528036797889</v>
+        <v>203.5813498175912</v>
       </c>
       <c r="L26" t="n">
-        <v>247.5321731236922</v>
+        <v>252.5606663430876</v>
       </c>
       <c r="M26" t="n">
-        <v>275.4272369437797</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N26" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O26" t="n">
-        <v>264.2864656901256</v>
+        <v>269.6553140459984</v>
       </c>
       <c r="P26" t="n">
-        <v>225.5623839830385</v>
+        <v>230.1445718420792</v>
       </c>
       <c r="Q26" t="n">
-        <v>169.3879565952893</v>
+        <v>172.8289888475332</v>
       </c>
       <c r="R26" t="n">
-        <v>98.5317102798101</v>
+        <v>100.5333330619519</v>
       </c>
       <c r="S26" t="n">
-        <v>35.74379795038979</v>
+        <v>36.4699154621492</v>
       </c>
       <c r="T26" t="n">
-        <v>6.866416918390839</v>
+        <v>7.00590476952531</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1280348101797886</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8392591522397693</v>
+        <v>0.8563082853003202</v>
       </c>
       <c r="H27" t="n">
-        <v>8.105476549263036</v>
+        <v>8.270135281716252</v>
       </c>
       <c r="I27" t="n">
-        <v>28.8955453731675</v>
+        <v>29.48254403336629</v>
       </c>
       <c r="J27" t="n">
-        <v>79.29158508068804</v>
+        <v>80.90235427041316</v>
       </c>
       <c r="K27" t="n">
-        <v>135.5219482807526</v>
+        <v>138.2750093855346</v>
       </c>
       <c r="L27" t="n">
         <v>169.0363433314465</v>
@@ -33041,22 +33043,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P27" t="n">
-        <v>160.2616884658556</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q27" t="n">
-        <v>107.1306945911678</v>
+        <v>109.3070014709672</v>
       </c>
       <c r="R27" t="n">
-        <v>52.1076866627464</v>
+        <v>53.16622845048833</v>
       </c>
       <c r="S27" t="n">
-        <v>15.5888706567343</v>
+        <v>15.9055508256441</v>
       </c>
       <c r="T27" t="n">
-        <v>3.382803337317315</v>
+        <v>3.451523307855237</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05521441791051116</v>
+        <v>0.05633607140133688</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7036066806956938</v>
+        <v>0.7179001011361613</v>
       </c>
       <c r="H28" t="n">
-        <v>6.255703033821718</v>
+        <v>6.382784535556057</v>
       </c>
       <c r="I28" t="n">
-        <v>21.15937181583051</v>
+        <v>21.58921395053111</v>
       </c>
       <c r="J28" t="n">
-        <v>49.74499232518554</v>
+        <v>50.75553715032661</v>
       </c>
       <c r="K28" t="n">
-        <v>81.74630344809967</v>
+        <v>83.40693902291036</v>
       </c>
       <c r="L28" t="n">
-        <v>104.6071241463398</v>
+        <v>106.7321659452799</v>
       </c>
       <c r="M28" t="n">
-        <v>110.293545411235</v>
+        <v>112.5341040353712</v>
       </c>
       <c r="N28" t="n">
-        <v>107.6710114195511</v>
+        <v>109.8582945675001</v>
       </c>
       <c r="O28" t="n">
-        <v>99.45160610415137</v>
+        <v>101.4719161133186</v>
       </c>
       <c r="P28" t="n">
-        <v>85.09802981795914</v>
+        <v>86.82675405014079</v>
       </c>
       <c r="Q28" t="n">
-        <v>58.91746487170941</v>
+        <v>60.11434392331984</v>
       </c>
       <c r="R28" t="n">
-        <v>31.63671493382637</v>
+        <v>32.27939909290412</v>
       </c>
       <c r="S28" t="n">
-        <v>12.26194551721495</v>
+        <v>12.51104085343655</v>
       </c>
       <c r="T28" t="n">
-        <v>3.0063194538816</v>
+        <v>3.067391341218143</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.03915818733469976</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.568570398261756</v>
+        <v>1.600435127247357</v>
       </c>
       <c r="H29" t="n">
-        <v>16.06412159119821</v>
+        <v>16.390456246922</v>
       </c>
       <c r="I29" t="n">
-        <v>60.4723102789864</v>
+        <v>61.70077524320381</v>
       </c>
       <c r="J29" t="n">
-        <v>133.1304518394688</v>
+        <v>135.8349308812105</v>
       </c>
       <c r="K29" t="n">
-        <v>199.528036797889</v>
+        <v>203.5813498175912</v>
       </c>
       <c r="L29" t="n">
-        <v>247.5321731236922</v>
+        <v>252.5606663430876</v>
       </c>
       <c r="M29" t="n">
-        <v>275.4272369437797</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N29" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O29" t="n">
-        <v>264.2864656901256</v>
+        <v>269.6553140459984</v>
       </c>
       <c r="P29" t="n">
-        <v>225.5623839830385</v>
+        <v>230.1445718420792</v>
       </c>
       <c r="Q29" t="n">
-        <v>169.3879565952893</v>
+        <v>172.8289888475332</v>
       </c>
       <c r="R29" t="n">
-        <v>98.5317102798101</v>
+        <v>100.5333330619519</v>
       </c>
       <c r="S29" t="n">
-        <v>35.74379795038979</v>
+        <v>36.4699154621492</v>
       </c>
       <c r="T29" t="n">
-        <v>6.866416918390839</v>
+        <v>7.00590476952531</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1280348101797886</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8392591522397693</v>
+        <v>0.8563082853003202</v>
       </c>
       <c r="H30" t="n">
-        <v>8.105476549263036</v>
+        <v>8.270135281716252</v>
       </c>
       <c r="I30" t="n">
-        <v>28.8955453731675</v>
+        <v>29.48254403336629</v>
       </c>
       <c r="J30" t="n">
-        <v>79.29158508068804</v>
+        <v>80.90235427041316</v>
       </c>
       <c r="K30" t="n">
-        <v>135.5219482807526</v>
+        <v>138.2750093855346</v>
       </c>
       <c r="L30" t="n">
         <v>169.0363433314465</v>
@@ -33278,22 +33280,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P30" t="n">
-        <v>160.2616884658556</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q30" t="n">
-        <v>107.1306945911678</v>
+        <v>109.3070014709672</v>
       </c>
       <c r="R30" t="n">
-        <v>52.1076866627464</v>
+        <v>53.16622845048833</v>
       </c>
       <c r="S30" t="n">
-        <v>15.5888706567343</v>
+        <v>15.9055508256441</v>
       </c>
       <c r="T30" t="n">
-        <v>3.382803337317315</v>
+        <v>3.451523307855237</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05521441791051116</v>
+        <v>0.05633607140133688</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7036066806956938</v>
+        <v>0.7179001011361613</v>
       </c>
       <c r="H31" t="n">
-        <v>6.255703033821718</v>
+        <v>6.382784535556057</v>
       </c>
       <c r="I31" t="n">
-        <v>21.15937181583051</v>
+        <v>21.58921395053111</v>
       </c>
       <c r="J31" t="n">
-        <v>49.74499232518554</v>
+        <v>50.75553715032661</v>
       </c>
       <c r="K31" t="n">
-        <v>81.74630344809967</v>
+        <v>83.40693902291036</v>
       </c>
       <c r="L31" t="n">
-        <v>104.6071241463398</v>
+        <v>106.7321659452799</v>
       </c>
       <c r="M31" t="n">
-        <v>110.293545411235</v>
+        <v>112.5341040353712</v>
       </c>
       <c r="N31" t="n">
-        <v>107.6710114195511</v>
+        <v>109.8582945675001</v>
       </c>
       <c r="O31" t="n">
-        <v>99.45160610415137</v>
+        <v>101.4719161133186</v>
       </c>
       <c r="P31" t="n">
-        <v>85.09802981795914</v>
+        <v>86.82675405014079</v>
       </c>
       <c r="Q31" t="n">
-        <v>58.91746487170941</v>
+        <v>60.11434392331984</v>
       </c>
       <c r="R31" t="n">
-        <v>31.63671493382637</v>
+        <v>32.27939909290412</v>
       </c>
       <c r="S31" t="n">
-        <v>12.26194551721495</v>
+        <v>12.51104085343655</v>
       </c>
       <c r="T31" t="n">
-        <v>3.0063194538816</v>
+        <v>3.067391341218143</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.03915818733469976</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.568570398261756</v>
+        <v>1.600435127247357</v>
       </c>
       <c r="H32" t="n">
-        <v>16.06412159119821</v>
+        <v>16.390456246922</v>
       </c>
       <c r="I32" t="n">
-        <v>60.4723102789864</v>
+        <v>61.70077524320379</v>
       </c>
       <c r="J32" t="n">
-        <v>133.1304518394688</v>
+        <v>135.8349308812105</v>
       </c>
       <c r="K32" t="n">
-        <v>199.528036797889</v>
+        <v>203.5813498175912</v>
       </c>
       <c r="L32" t="n">
-        <v>247.5321731236922</v>
+        <v>252.5606663430875</v>
       </c>
       <c r="M32" t="n">
-        <v>275.4272369437797</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N32" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O32" t="n">
-        <v>264.2864656901256</v>
+        <v>269.6553140459984</v>
       </c>
       <c r="P32" t="n">
-        <v>225.5623839830385</v>
+        <v>230.1445718420792</v>
       </c>
       <c r="Q32" t="n">
-        <v>169.3879565952893</v>
+        <v>172.8289888475332</v>
       </c>
       <c r="R32" t="n">
-        <v>98.5317102798101</v>
+        <v>100.5333330619519</v>
       </c>
       <c r="S32" t="n">
-        <v>35.74379795038979</v>
+        <v>36.46991546214919</v>
       </c>
       <c r="T32" t="n">
-        <v>6.866416918390839</v>
+        <v>7.005904769525309</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1280348101797885</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8392591522397693</v>
+        <v>0.8563082853003201</v>
       </c>
       <c r="H33" t="n">
-        <v>8.105476549263036</v>
+        <v>8.27013528171625</v>
       </c>
       <c r="I33" t="n">
-        <v>28.8955453731675</v>
+        <v>29.48254403336629</v>
       </c>
       <c r="J33" t="n">
-        <v>79.29158508068804</v>
+        <v>80.90235427041316</v>
       </c>
       <c r="K33" t="n">
-        <v>135.5219482807526</v>
+        <v>138.2750093855346</v>
       </c>
       <c r="L33" t="n">
         <v>169.0363433314465</v>
@@ -33515,22 +33517,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P33" t="n">
-        <v>160.2616884658556</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q33" t="n">
-        <v>107.1306945911678</v>
+        <v>109.3070014709672</v>
       </c>
       <c r="R33" t="n">
-        <v>52.1076866627464</v>
+        <v>53.16622845048832</v>
       </c>
       <c r="S33" t="n">
-        <v>15.5888706567343</v>
+        <v>15.90555082564409</v>
       </c>
       <c r="T33" t="n">
-        <v>3.382803337317315</v>
+        <v>3.451523307855236</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05521441791051116</v>
+        <v>0.05633607140133687</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7036066806956938</v>
+        <v>0.7179001011361613</v>
       </c>
       <c r="H34" t="n">
-        <v>6.255703033821718</v>
+        <v>6.382784535556056</v>
       </c>
       <c r="I34" t="n">
-        <v>21.15937181583051</v>
+        <v>21.58921395053111</v>
       </c>
       <c r="J34" t="n">
-        <v>49.74499232518554</v>
+        <v>50.7555371503266</v>
       </c>
       <c r="K34" t="n">
-        <v>81.74630344809967</v>
+        <v>83.40693902291035</v>
       </c>
       <c r="L34" t="n">
-        <v>104.6071241463398</v>
+        <v>106.7321659452798</v>
       </c>
       <c r="M34" t="n">
-        <v>110.293545411235</v>
+        <v>112.5341040353712</v>
       </c>
       <c r="N34" t="n">
-        <v>107.6710114195511</v>
+        <v>109.8582945675001</v>
       </c>
       <c r="O34" t="n">
-        <v>99.45160610415137</v>
+        <v>101.4719161133185</v>
       </c>
       <c r="P34" t="n">
-        <v>85.09802981795914</v>
+        <v>86.82675405014078</v>
       </c>
       <c r="Q34" t="n">
-        <v>58.91746487170941</v>
+        <v>60.11434392331984</v>
       </c>
       <c r="R34" t="n">
-        <v>31.63671493382637</v>
+        <v>32.27939909290411</v>
       </c>
       <c r="S34" t="n">
-        <v>12.26194551721495</v>
+        <v>12.51104085343655</v>
       </c>
       <c r="T34" t="n">
-        <v>3.0063194538816</v>
+        <v>3.067391341218143</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.03915818733469975</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.568570398261756</v>
+        <v>1.600435127247357</v>
       </c>
       <c r="H35" t="n">
-        <v>16.06412159119821</v>
+        <v>16.390456246922</v>
       </c>
       <c r="I35" t="n">
-        <v>60.4723102789864</v>
+        <v>61.70077524320379</v>
       </c>
       <c r="J35" t="n">
-        <v>133.1304518394688</v>
+        <v>135.8349308812105</v>
       </c>
       <c r="K35" t="n">
-        <v>199.528036797889</v>
+        <v>203.5813498175912</v>
       </c>
       <c r="L35" t="n">
-        <v>247.5321731236922</v>
+        <v>252.5606663430875</v>
       </c>
       <c r="M35" t="n">
-        <v>275.4272369437797</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N35" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O35" t="n">
-        <v>264.2864656901256</v>
+        <v>269.6553140459984</v>
       </c>
       <c r="P35" t="n">
-        <v>225.5623839830385</v>
+        <v>230.1445718420792</v>
       </c>
       <c r="Q35" t="n">
-        <v>169.3879565952893</v>
+        <v>172.8289888475332</v>
       </c>
       <c r="R35" t="n">
-        <v>98.5317102798101</v>
+        <v>100.5333330619519</v>
       </c>
       <c r="S35" t="n">
-        <v>35.74379795038979</v>
+        <v>36.46991546214919</v>
       </c>
       <c r="T35" t="n">
-        <v>6.866416918390839</v>
+        <v>7.005904769525309</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1280348101797885</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8392591522397693</v>
+        <v>0.8563082853003201</v>
       </c>
       <c r="H36" t="n">
-        <v>8.105476549263036</v>
+        <v>8.27013528171625</v>
       </c>
       <c r="I36" t="n">
-        <v>28.8955453731675</v>
+        <v>29.48254403336629</v>
       </c>
       <c r="J36" t="n">
-        <v>79.29158508068804</v>
+        <v>80.90235427041316</v>
       </c>
       <c r="K36" t="n">
-        <v>135.5219482807526</v>
+        <v>138.2750093855346</v>
       </c>
       <c r="L36" t="n">
         <v>169.0363433314465</v>
@@ -33752,22 +33754,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P36" t="n">
-        <v>160.2616884658556</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q36" t="n">
-        <v>107.1306945911678</v>
+        <v>109.3070014709672</v>
       </c>
       <c r="R36" t="n">
-        <v>52.1076866627464</v>
+        <v>53.16622845048832</v>
       </c>
       <c r="S36" t="n">
-        <v>15.5888706567343</v>
+        <v>15.90555082564409</v>
       </c>
       <c r="T36" t="n">
-        <v>3.382803337317315</v>
+        <v>3.451523307855236</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05521441791051116</v>
+        <v>0.05633607140133687</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7036066806956938</v>
+        <v>0.7179001011361613</v>
       </c>
       <c r="H37" t="n">
-        <v>6.255703033821718</v>
+        <v>6.382784535556056</v>
       </c>
       <c r="I37" t="n">
-        <v>21.15937181583051</v>
+        <v>21.58921395053111</v>
       </c>
       <c r="J37" t="n">
-        <v>49.74499232518554</v>
+        <v>50.7555371503266</v>
       </c>
       <c r="K37" t="n">
-        <v>81.74630344809967</v>
+        <v>83.40693902291035</v>
       </c>
       <c r="L37" t="n">
-        <v>104.6071241463398</v>
+        <v>106.7321659452798</v>
       </c>
       <c r="M37" t="n">
-        <v>110.293545411235</v>
+        <v>112.5341040353712</v>
       </c>
       <c r="N37" t="n">
-        <v>107.6710114195511</v>
+        <v>109.8582945675001</v>
       </c>
       <c r="O37" t="n">
-        <v>99.45160610415137</v>
+        <v>101.4719161133185</v>
       </c>
       <c r="P37" t="n">
-        <v>85.09802981795914</v>
+        <v>86.82675405014078</v>
       </c>
       <c r="Q37" t="n">
-        <v>58.91746487170941</v>
+        <v>60.11434392331984</v>
       </c>
       <c r="R37" t="n">
-        <v>31.63671493382637</v>
+        <v>32.27939909290411</v>
       </c>
       <c r="S37" t="n">
-        <v>12.26194551721495</v>
+        <v>12.51104085343655</v>
       </c>
       <c r="T37" t="n">
-        <v>3.0063194538816</v>
+        <v>3.067391341218143</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.03915818733469975</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.568570398261756</v>
+        <v>1.600435127247357</v>
       </c>
       <c r="H38" t="n">
-        <v>16.06412159119821</v>
+        <v>16.390456246922</v>
       </c>
       <c r="I38" t="n">
-        <v>60.4723102789864</v>
+        <v>61.70077524320379</v>
       </c>
       <c r="J38" t="n">
-        <v>133.1304518394688</v>
+        <v>135.8349308812105</v>
       </c>
       <c r="K38" t="n">
-        <v>199.528036797889</v>
+        <v>203.5813498175912</v>
       </c>
       <c r="L38" t="n">
-        <v>247.5321731236922</v>
+        <v>252.5606663430875</v>
       </c>
       <c r="M38" t="n">
-        <v>275.4272369437797</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N38" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O38" t="n">
-        <v>264.2864656901256</v>
+        <v>269.6553140459984</v>
       </c>
       <c r="P38" t="n">
-        <v>225.5623839830385</v>
+        <v>230.1445718420792</v>
       </c>
       <c r="Q38" t="n">
-        <v>169.3879565952893</v>
+        <v>172.8289888475332</v>
       </c>
       <c r="R38" t="n">
-        <v>98.5317102798101</v>
+        <v>100.5333330619519</v>
       </c>
       <c r="S38" t="n">
-        <v>35.74379795038979</v>
+        <v>36.46991546214919</v>
       </c>
       <c r="T38" t="n">
-        <v>6.866416918390839</v>
+        <v>7.005904769525309</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1280348101797885</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8392591522397693</v>
+        <v>0.8563082853003201</v>
       </c>
       <c r="H39" t="n">
-        <v>8.105476549263036</v>
+        <v>8.27013528171625</v>
       </c>
       <c r="I39" t="n">
-        <v>28.8955453731675</v>
+        <v>29.48254403336629</v>
       </c>
       <c r="J39" t="n">
-        <v>79.29158508068804</v>
+        <v>80.90235427041316</v>
       </c>
       <c r="K39" t="n">
-        <v>135.5219482807526</v>
+        <v>138.2750093855346</v>
       </c>
       <c r="L39" t="n">
         <v>169.0363433314465</v>
@@ -33989,22 +33991,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P39" t="n">
-        <v>160.2616884658556</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q39" t="n">
-        <v>107.1306945911678</v>
+        <v>109.3070014709672</v>
       </c>
       <c r="R39" t="n">
-        <v>52.1076866627464</v>
+        <v>53.16622845048832</v>
       </c>
       <c r="S39" t="n">
-        <v>15.5888706567343</v>
+        <v>15.90555082564409</v>
       </c>
       <c r="T39" t="n">
-        <v>3.382803337317315</v>
+        <v>3.451523307855236</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05521441791051116</v>
+        <v>0.05633607140133687</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7036066806956938</v>
+        <v>0.7179001011361613</v>
       </c>
       <c r="H40" t="n">
-        <v>6.255703033821718</v>
+        <v>6.382784535556056</v>
       </c>
       <c r="I40" t="n">
-        <v>21.15937181583051</v>
+        <v>21.58921395053111</v>
       </c>
       <c r="J40" t="n">
-        <v>49.74499232518554</v>
+        <v>50.7555371503266</v>
       </c>
       <c r="K40" t="n">
-        <v>81.74630344809967</v>
+        <v>83.40693902291035</v>
       </c>
       <c r="L40" t="n">
-        <v>104.6071241463398</v>
+        <v>106.7321659452798</v>
       </c>
       <c r="M40" t="n">
-        <v>110.293545411235</v>
+        <v>112.5341040353712</v>
       </c>
       <c r="N40" t="n">
-        <v>107.6710114195511</v>
+        <v>109.8582945675001</v>
       </c>
       <c r="O40" t="n">
-        <v>99.45160610415137</v>
+        <v>101.4719161133185</v>
       </c>
       <c r="P40" t="n">
-        <v>85.09802981795914</v>
+        <v>86.82675405014078</v>
       </c>
       <c r="Q40" t="n">
-        <v>58.91746487170941</v>
+        <v>60.11434392331984</v>
       </c>
       <c r="R40" t="n">
-        <v>31.63671493382637</v>
+        <v>32.27939909290411</v>
       </c>
       <c r="S40" t="n">
-        <v>12.26194551721495</v>
+        <v>12.51104085343655</v>
       </c>
       <c r="T40" t="n">
-        <v>3.0063194538816</v>
+        <v>3.067391341218143</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.03915818733469975</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.568570398261756</v>
+        <v>1.600435127247357</v>
       </c>
       <c r="H41" t="n">
-        <v>16.06412159119821</v>
+        <v>16.390456246922</v>
       </c>
       <c r="I41" t="n">
-        <v>60.4723102789864</v>
+        <v>61.70077524320381</v>
       </c>
       <c r="J41" t="n">
-        <v>133.1304518394688</v>
+        <v>135.8349308812105</v>
       </c>
       <c r="K41" t="n">
-        <v>199.528036797889</v>
+        <v>203.5813498175912</v>
       </c>
       <c r="L41" t="n">
-        <v>247.5321731236922</v>
+        <v>252.5606663430875</v>
       </c>
       <c r="M41" t="n">
-        <v>275.4272369437797</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N41" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O41" t="n">
-        <v>264.2864656901256</v>
+        <v>269.6553140459984</v>
       </c>
       <c r="P41" t="n">
-        <v>225.5623839830385</v>
+        <v>230.1445718420792</v>
       </c>
       <c r="Q41" t="n">
-        <v>169.3879565952893</v>
+        <v>172.8289888475332</v>
       </c>
       <c r="R41" t="n">
-        <v>98.5317102798101</v>
+        <v>100.5333330619519</v>
       </c>
       <c r="S41" t="n">
-        <v>35.74379795038979</v>
+        <v>36.46991546214919</v>
       </c>
       <c r="T41" t="n">
-        <v>6.866416918390839</v>
+        <v>7.00590476952531</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1280348101797886</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8392591522397693</v>
+        <v>0.8563082853003202</v>
       </c>
       <c r="H42" t="n">
-        <v>8.105476549263036</v>
+        <v>8.270135281716252</v>
       </c>
       <c r="I42" t="n">
-        <v>28.8955453731675</v>
+        <v>29.48254403336629</v>
       </c>
       <c r="J42" t="n">
-        <v>79.29158508068804</v>
+        <v>80.90235427041316</v>
       </c>
       <c r="K42" t="n">
-        <v>135.5219482807526</v>
+        <v>138.2750093855346</v>
       </c>
       <c r="L42" t="n">
         <v>169.0363433314465</v>
@@ -34226,22 +34228,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P42" t="n">
-        <v>160.2616884658556</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q42" t="n">
-        <v>107.1306945911678</v>
+        <v>109.3070014709672</v>
       </c>
       <c r="R42" t="n">
-        <v>52.1076866627464</v>
+        <v>53.16622845048833</v>
       </c>
       <c r="S42" t="n">
-        <v>15.5888706567343</v>
+        <v>15.90555082564409</v>
       </c>
       <c r="T42" t="n">
-        <v>3.382803337317315</v>
+        <v>3.451523307855237</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05521441791051116</v>
+        <v>0.05633607140133688</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7036066806956938</v>
+        <v>0.7179001011361613</v>
       </c>
       <c r="H43" t="n">
-        <v>6.255703033821718</v>
+        <v>6.382784535556058</v>
       </c>
       <c r="I43" t="n">
-        <v>21.15937181583051</v>
+        <v>21.58921395053111</v>
       </c>
       <c r="J43" t="n">
-        <v>49.74499232518554</v>
+        <v>50.7555371503266</v>
       </c>
       <c r="K43" t="n">
-        <v>81.74630344809967</v>
+        <v>83.40693902291036</v>
       </c>
       <c r="L43" t="n">
-        <v>104.6071241463398</v>
+        <v>106.7321659452799</v>
       </c>
       <c r="M43" t="n">
-        <v>110.293545411235</v>
+        <v>112.5341040353712</v>
       </c>
       <c r="N43" t="n">
-        <v>107.6710114195511</v>
+        <v>109.8582945675001</v>
       </c>
       <c r="O43" t="n">
-        <v>99.45160610415137</v>
+        <v>101.4719161133186</v>
       </c>
       <c r="P43" t="n">
-        <v>85.09802981795914</v>
+        <v>86.82675405014078</v>
       </c>
       <c r="Q43" t="n">
-        <v>58.91746487170941</v>
+        <v>60.11434392331984</v>
       </c>
       <c r="R43" t="n">
-        <v>31.63671493382637</v>
+        <v>32.27939909290412</v>
       </c>
       <c r="S43" t="n">
-        <v>12.26194551721495</v>
+        <v>12.51104085343655</v>
       </c>
       <c r="T43" t="n">
-        <v>3.0063194538816</v>
+        <v>3.067391341218143</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.03915818733469976</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.568570398261756</v>
+        <v>1.600435127247357</v>
       </c>
       <c r="H44" t="n">
-        <v>16.06412159119821</v>
+        <v>16.390456246922</v>
       </c>
       <c r="I44" t="n">
-        <v>60.4723102789864</v>
+        <v>61.70077524320381</v>
       </c>
       <c r="J44" t="n">
-        <v>133.1304518394688</v>
+        <v>135.8349308812105</v>
       </c>
       <c r="K44" t="n">
-        <v>199.528036797889</v>
+        <v>203.5813498175912</v>
       </c>
       <c r="L44" t="n">
-        <v>247.5321731236922</v>
+        <v>252.5606663430875</v>
       </c>
       <c r="M44" t="n">
-        <v>275.4272369437797</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N44" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O44" t="n">
-        <v>264.2864656901256</v>
+        <v>269.6553140459984</v>
       </c>
       <c r="P44" t="n">
-        <v>225.5623839830385</v>
+        <v>230.1445718420792</v>
       </c>
       <c r="Q44" t="n">
-        <v>169.3879565952893</v>
+        <v>172.8289888475332</v>
       </c>
       <c r="R44" t="n">
-        <v>98.5317102798101</v>
+        <v>100.5333330619519</v>
       </c>
       <c r="S44" t="n">
-        <v>35.74379795038979</v>
+        <v>36.46991546214919</v>
       </c>
       <c r="T44" t="n">
-        <v>6.866416918390839</v>
+        <v>7.00590476952531</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1280348101797886</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8392591522397693</v>
+        <v>0.8563082853003202</v>
       </c>
       <c r="H45" t="n">
-        <v>8.105476549263036</v>
+        <v>8.270135281716252</v>
       </c>
       <c r="I45" t="n">
-        <v>28.8955453731675</v>
+        <v>29.48254403336629</v>
       </c>
       <c r="J45" t="n">
-        <v>79.29158508068804</v>
+        <v>80.90235427041316</v>
       </c>
       <c r="K45" t="n">
-        <v>135.5219482807526</v>
+        <v>138.2750093855346</v>
       </c>
       <c r="L45" t="n">
         <v>169.0363433314465</v>
@@ -34463,22 +34465,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P45" t="n">
-        <v>160.2616884658556</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q45" t="n">
-        <v>107.1306945911678</v>
+        <v>109.3070014709672</v>
       </c>
       <c r="R45" t="n">
-        <v>52.1076866627464</v>
+        <v>53.16622845048833</v>
       </c>
       <c r="S45" t="n">
-        <v>15.5888706567343</v>
+        <v>15.90555082564409</v>
       </c>
       <c r="T45" t="n">
-        <v>3.382803337317315</v>
+        <v>3.451523307855237</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05521441791051116</v>
+        <v>0.05633607140133688</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7036066806956938</v>
+        <v>0.7179001011361613</v>
       </c>
       <c r="H46" t="n">
-        <v>6.255703033821718</v>
+        <v>6.382784535556058</v>
       </c>
       <c r="I46" t="n">
-        <v>21.15937181583051</v>
+        <v>21.58921395053111</v>
       </c>
       <c r="J46" t="n">
-        <v>49.74499232518554</v>
+        <v>50.7555371503266</v>
       </c>
       <c r="K46" t="n">
-        <v>81.74630344809967</v>
+        <v>83.40693902291036</v>
       </c>
       <c r="L46" t="n">
-        <v>104.6071241463398</v>
+        <v>106.7321659452799</v>
       </c>
       <c r="M46" t="n">
-        <v>110.293545411235</v>
+        <v>112.5341040353712</v>
       </c>
       <c r="N46" t="n">
-        <v>107.6710114195511</v>
+        <v>109.8582945675001</v>
       </c>
       <c r="O46" t="n">
-        <v>99.45160610415137</v>
+        <v>101.4719161133186</v>
       </c>
       <c r="P46" t="n">
-        <v>85.09802981795914</v>
+        <v>86.82675405014078</v>
       </c>
       <c r="Q46" t="n">
-        <v>58.91746487170941</v>
+        <v>60.11434392331984</v>
       </c>
       <c r="R46" t="n">
-        <v>31.63671493382637</v>
+        <v>32.27939909290412</v>
       </c>
       <c r="S46" t="n">
-        <v>12.26194551721495</v>
+        <v>12.51104085343655</v>
       </c>
       <c r="T46" t="n">
-        <v>3.0063194538816</v>
+        <v>3.067391341218143</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.03915818733469976</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_10_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_10_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>97359.28581207158</v>
+        <v>-29356.9675415075</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6186426.707843842</v>
+        <v>6499661.589930465</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22582606.53293525</v>
+        <v>22472961.30020713</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4907913.506231637</v>
+        <v>4939609.485859198</v>
       </c>
     </row>
     <row r="11">
@@ -7981,22 +7981,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K2" t="n">
-        <v>203.9792427191599</v>
+        <v>122.0365346358061</v>
       </c>
       <c r="L2" t="n">
-        <v>207.5793892203829</v>
+        <v>105.9222139730819</v>
       </c>
       <c r="M2" t="n">
-        <v>191.9450832570614</v>
+        <v>78.83188855375113</v>
       </c>
       <c r="N2" t="n">
-        <v>189.3652521218436</v>
+        <v>74.42176767202952</v>
       </c>
       <c r="O2" t="n">
-        <v>195.2455900566382</v>
+        <v>86.70771710415687</v>
       </c>
       <c r="P2" t="n">
-        <v>208.5255628951208</v>
+        <v>116.5194153913583</v>
       </c>
       <c r="Q2" t="n">
         <v>137.5801139476182</v>
@@ -8060,25 +8060,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K3" t="n">
-        <v>124.3367140941166</v>
+        <v>68.68019772140313</v>
       </c>
       <c r="L3" t="n">
-        <v>110.1017125573466</v>
+        <v>35.26465785350914</v>
       </c>
       <c r="M3" t="n">
-        <v>104.6295870384377</v>
+        <v>17.29827403488881</v>
       </c>
       <c r="N3" t="n">
-        <v>89.64271299632065</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>109.3875391069288</v>
+        <v>27.38196984081287</v>
       </c>
       <c r="P3" t="n">
-        <v>111.6177305927455</v>
+        <v>45.80103151799199</v>
       </c>
       <c r="Q3" t="n">
-        <v>136.1300824528302</v>
+        <v>92.13336211952077</v>
       </c>
       <c r="R3" t="n">
         <v>29.49804203773589</v>
@@ -8142,16 +8142,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L4" t="n">
-        <v>105.2836065989273</v>
+        <v>87.76745019286051</v>
       </c>
       <c r="M4" t="n">
-        <v>115.6742602693208</v>
+        <v>88.5232124679478</v>
       </c>
       <c r="N4" t="n">
-        <v>111.3378805152112</v>
+        <v>76.73531661208723</v>
       </c>
       <c r="O4" t="n">
-        <v>105.6509998050918</v>
+        <v>95.90977625558899</v>
       </c>
       <c r="P4" t="n">
         <v>87.48425302749862</v>
@@ -8218,22 +8218,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K5" t="n">
-        <v>171.1545065408216</v>
+        <v>122.0365346358061</v>
       </c>
       <c r="L5" t="n">
-        <v>166.8574014294323</v>
+        <v>105.9222139730819</v>
       </c>
       <c r="M5" t="n">
-        <v>146.634025552594</v>
+        <v>78.83188855375113</v>
       </c>
       <c r="N5" t="n">
-        <v>143.3210141324655</v>
+        <v>74.42176767202952</v>
       </c>
       <c r="O5" t="n">
-        <v>151.7673217841382</v>
+        <v>86.70771710415687</v>
       </c>
       <c r="P5" t="n">
-        <v>172.0462827785706</v>
+        <v>116.5194153913583</v>
       </c>
       <c r="Q5" t="n">
         <v>137.5801139476182</v>
@@ -8297,25 +8297,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K6" t="n">
-        <v>102.0417410663602</v>
+        <v>68.68019772140313</v>
       </c>
       <c r="L6" t="n">
-        <v>80.12336995096688</v>
+        <v>35.26465785350914</v>
       </c>
       <c r="M6" t="n">
-        <v>69.64627520386433</v>
+        <v>17.29827403488881</v>
       </c>
       <c r="N6" t="n">
-        <v>53.73349699357935</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>76.53762189920677</v>
+        <v>27.38196984081287</v>
       </c>
       <c r="P6" t="n">
-        <v>85.2527759336897</v>
+        <v>45.80103151799199</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.5058084761395</v>
+        <v>92.13336211952077</v>
       </c>
       <c r="R6" t="n">
         <v>29.49804203773589</v>
@@ -8379,16 +8379,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L7" t="n">
-        <v>105.2836065989273</v>
+        <v>87.76745019286051</v>
       </c>
       <c r="M7" t="n">
-        <v>115.6742602693208</v>
+        <v>88.5232124679478</v>
       </c>
       <c r="N7" t="n">
-        <v>103.2407731823193</v>
+        <v>76.73531661208723</v>
       </c>
       <c r="O7" t="n">
-        <v>105.6509998050918</v>
+        <v>95.90977625558899</v>
       </c>
       <c r="P7" t="n">
         <v>87.48425302749862</v>
@@ -8455,22 +8455,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K8" t="n">
-        <v>122.0365346358061</v>
+        <v>111.0988064408343</v>
       </c>
       <c r="L8" t="n">
-        <v>105.9222139730819</v>
+        <v>92.35299496713264</v>
       </c>
       <c r="M8" t="n">
-        <v>78.8318885537511</v>
+        <v>63.73351790103578</v>
       </c>
       <c r="N8" t="n">
-        <v>74.42176767202952</v>
+        <v>59.07908959729269</v>
       </c>
       <c r="O8" t="n">
-        <v>86.70771710415687</v>
+        <v>72.2200612653113</v>
       </c>
       <c r="P8" t="n">
-        <v>116.5194153913582</v>
+        <v>104.1545363166676</v>
       </c>
       <c r="Q8" t="n">
         <v>137.5801139476182</v>
@@ -8534,25 +8534,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>68.68019772140312</v>
+        <v>61.25115537459055</v>
       </c>
       <c r="L9" t="n">
-        <v>35.26465785350914</v>
+        <v>25.27539361745087</v>
       </c>
       <c r="M9" t="n">
-        <v>17.29827403488881</v>
+        <v>5.64127383456389</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>27.38196984081287</v>
+        <v>16.43585092326006</v>
       </c>
       <c r="P9" t="n">
-        <v>45.801031517992</v>
+        <v>37.01580605976547</v>
       </c>
       <c r="Q9" t="n">
-        <v>92.13336211952077</v>
+        <v>86.26067155642129</v>
       </c>
       <c r="R9" t="n">
         <v>29.49804203773589</v>
@@ -8616,16 +8616,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L10" t="n">
-        <v>87.76745019286052</v>
+        <v>82.03309671786837</v>
       </c>
       <c r="M10" t="n">
-        <v>88.52321246794781</v>
+        <v>82.47714074425393</v>
       </c>
       <c r="N10" t="n">
-        <v>76.73531661208723</v>
+        <v>70.83300696034803</v>
       </c>
       <c r="O10" t="n">
-        <v>95.90977625558899</v>
+        <v>90.45803797570775</v>
       </c>
       <c r="P10" t="n">
         <v>87.48425302749862</v>
@@ -8932,7 +8932,7 @@
         <v>64.9282684572851</v>
       </c>
       <c r="L14" t="n">
-        <v>35.07435992029684</v>
+        <v>35.07435992029687</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9096,13 +9096,13 @@
         <v>56.95535238070698</v>
       </c>
       <c r="N16" t="n">
-        <v>45.91806968008437</v>
+        <v>45.91806968008439</v>
       </c>
       <c r="O16" t="n">
         <v>67.44506079792963</v>
       </c>
       <c r="P16" t="n">
-        <v>81.20141088981929</v>
+        <v>81.2014108898193</v>
       </c>
       <c r="Q16" t="n">
         <v>42.34223702878295</v>
@@ -9166,10 +9166,10 @@
         <v>85.04107264134677</v>
       </c>
       <c r="K17" t="n">
-        <v>64.9282684572851</v>
+        <v>64.92826845728513</v>
       </c>
       <c r="L17" t="n">
-        <v>35.07435992029684</v>
+        <v>35.0743599202969</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,10 +9178,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>11.0645038884594</v>
+        <v>11.06450388845946</v>
       </c>
       <c r="P17" t="n">
-        <v>51.95968297934965</v>
+        <v>51.95968297934968</v>
       </c>
       <c r="Q17" t="n">
         <v>98.3839527992952</v>
@@ -9245,7 +9245,7 @@
         <v>73.8395502629202</v>
       </c>
       <c r="K18" t="n">
-        <v>29.89154616318334</v>
+        <v>29.89154616318336</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>61.47076291397906</v>
+        <v>61.47076291397909</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9327,19 +9327,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L19" t="n">
-        <v>57.82713911783085</v>
+        <v>57.82713911783087</v>
       </c>
       <c r="M19" t="n">
-        <v>56.95535238070698</v>
+        <v>56.955352380707</v>
       </c>
       <c r="N19" t="n">
-        <v>45.91806968008437</v>
+        <v>45.9180696800844</v>
       </c>
       <c r="O19" t="n">
-        <v>67.44506079792963</v>
+        <v>67.44506079792964</v>
       </c>
       <c r="P19" t="n">
-        <v>81.20141088981929</v>
+        <v>81.2014108898193</v>
       </c>
       <c r="Q19" t="n">
         <v>42.34223702878295</v>
@@ -9406,7 +9406,7 @@
         <v>64.9282684572851</v>
       </c>
       <c r="L20" t="n">
-        <v>35.07435992029684</v>
+        <v>35.07435992029687</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9570,13 +9570,13 @@
         <v>56.95535238070698</v>
       </c>
       <c r="N22" t="n">
-        <v>45.91806968008437</v>
+        <v>45.91806968008439</v>
       </c>
       <c r="O22" t="n">
         <v>67.44506079792963</v>
       </c>
       <c r="P22" t="n">
-        <v>81.20141088981929</v>
+        <v>81.2014108898193</v>
       </c>
       <c r="Q22" t="n">
         <v>42.34223702878295</v>
@@ -9877,10 +9877,10 @@
         <v>85.04107264134677</v>
       </c>
       <c r="K26" t="n">
-        <v>64.9282684572851</v>
+        <v>64.92826845728513</v>
       </c>
       <c r="L26" t="n">
-        <v>35.07435992029684</v>
+        <v>35.0743599202969</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,10 +9889,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>11.0645038884594</v>
+        <v>11.06450388845946</v>
       </c>
       <c r="P26" t="n">
-        <v>51.95968297934965</v>
+        <v>51.95968297934968</v>
       </c>
       <c r="Q26" t="n">
         <v>98.3839527992952</v>
@@ -9956,7 +9956,7 @@
         <v>73.8395502629202</v>
       </c>
       <c r="K27" t="n">
-        <v>29.89154616318334</v>
+        <v>29.89154616318336</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>61.47076291397906</v>
+        <v>61.47076291397909</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10038,19 +10038,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L28" t="n">
-        <v>57.82713911783085</v>
+        <v>57.82713911783087</v>
       </c>
       <c r="M28" t="n">
-        <v>56.95535238070698</v>
+        <v>56.955352380707</v>
       </c>
       <c r="N28" t="n">
-        <v>45.91806968008437</v>
+        <v>45.9180696800844</v>
       </c>
       <c r="O28" t="n">
-        <v>67.44506079792963</v>
+        <v>67.44506079792964</v>
       </c>
       <c r="P28" t="n">
-        <v>81.20141088981929</v>
+        <v>81.2014108898193</v>
       </c>
       <c r="Q28" t="n">
         <v>42.34223702878295</v>
@@ -10117,7 +10117,7 @@
         <v>64.9282684572851</v>
       </c>
       <c r="L29" t="n">
-        <v>35.07435992029684</v>
+        <v>35.07435992029687</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10281,13 +10281,13 @@
         <v>56.95535238070698</v>
       </c>
       <c r="N31" t="n">
-        <v>45.91806968008437</v>
+        <v>45.91806968008439</v>
       </c>
       <c r="O31" t="n">
         <v>67.44506079792963</v>
       </c>
       <c r="P31" t="n">
-        <v>81.20141088981929</v>
+        <v>81.2014108898193</v>
       </c>
       <c r="Q31" t="n">
         <v>42.34223702878295</v>
@@ -10351,10 +10351,10 @@
         <v>85.04107264134677</v>
       </c>
       <c r="K32" t="n">
-        <v>64.92826845728513</v>
+        <v>64.9282684572851</v>
       </c>
       <c r="L32" t="n">
-        <v>35.0743599202969</v>
+        <v>35.07435992029687</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,10 +10363,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>11.06450388845946</v>
+        <v>11.0645038884594</v>
       </c>
       <c r="P32" t="n">
-        <v>51.95968297934968</v>
+        <v>51.95968297934965</v>
       </c>
       <c r="Q32" t="n">
         <v>98.3839527992952</v>
@@ -10430,7 +10430,7 @@
         <v>73.8395502629202</v>
       </c>
       <c r="K33" t="n">
-        <v>29.89154616318336</v>
+        <v>29.89154616318334</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>61.47076291397909</v>
+        <v>61.47076291397906</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10512,16 +10512,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L34" t="n">
-        <v>57.82713911783087</v>
+        <v>57.82713911783085</v>
       </c>
       <c r="M34" t="n">
-        <v>56.955352380707</v>
+        <v>56.95535238070698</v>
       </c>
       <c r="N34" t="n">
-        <v>45.9180696800844</v>
+        <v>45.91806968008439</v>
       </c>
       <c r="O34" t="n">
-        <v>67.44506079792964</v>
+        <v>67.44506079792963</v>
       </c>
       <c r="P34" t="n">
         <v>81.2014108898193</v>
@@ -11062,10 +11062,10 @@
         <v>85.04107264134677</v>
       </c>
       <c r="K41" t="n">
-        <v>64.9282684572851</v>
+        <v>64.92826845728513</v>
       </c>
       <c r="L41" t="n">
-        <v>35.07435992029687</v>
+        <v>35.0743599202969</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,10 +11074,10 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>11.0645038884594</v>
+        <v>11.06450388845946</v>
       </c>
       <c r="P41" t="n">
-        <v>51.95968297934965</v>
+        <v>51.95968297934968</v>
       </c>
       <c r="Q41" t="n">
         <v>98.3839527992952</v>
@@ -11141,7 +11141,7 @@
         <v>73.8395502629202</v>
       </c>
       <c r="K42" t="n">
-        <v>29.89154616318334</v>
+        <v>29.89154616318336</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>61.47076291397906</v>
+        <v>61.47076291397909</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11223,16 +11223,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L43" t="n">
-        <v>57.82713911783085</v>
+        <v>57.82713911783087</v>
       </c>
       <c r="M43" t="n">
-        <v>56.95535238070698</v>
+        <v>56.955352380707</v>
       </c>
       <c r="N43" t="n">
-        <v>45.91806968008439</v>
+        <v>45.9180696800844</v>
       </c>
       <c r="O43" t="n">
-        <v>67.44506079792963</v>
+        <v>67.44506079792964</v>
       </c>
       <c r="P43" t="n">
         <v>81.2014108898193</v>
@@ -11299,10 +11299,10 @@
         <v>85.04107264134677</v>
       </c>
       <c r="K44" t="n">
-        <v>64.9282684572851</v>
+        <v>64.92826845728513</v>
       </c>
       <c r="L44" t="n">
-        <v>35.07435992029687</v>
+        <v>35.0743599202969</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,10 +11311,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>11.0645038884594</v>
+        <v>11.06450388845946</v>
       </c>
       <c r="P44" t="n">
-        <v>51.95968297934965</v>
+        <v>51.95968297934968</v>
       </c>
       <c r="Q44" t="n">
         <v>98.3839527992952</v>
@@ -11378,7 +11378,7 @@
         <v>73.8395502629202</v>
       </c>
       <c r="K45" t="n">
-        <v>29.89154616318334</v>
+        <v>29.89154616318336</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>61.47076291397906</v>
+        <v>61.47076291397909</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -11460,16 +11460,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L46" t="n">
-        <v>57.82713911783085</v>
+        <v>57.82713911783087</v>
       </c>
       <c r="M46" t="n">
-        <v>56.95535238070698</v>
+        <v>56.955352380707</v>
       </c>
       <c r="N46" t="n">
-        <v>45.91806968008439</v>
+        <v>45.9180696800844</v>
       </c>
       <c r="O46" t="n">
-        <v>67.44506079792963</v>
+        <v>67.44506079792964</v>
       </c>
       <c r="P46" t="n">
         <v>81.2014108898193</v>
@@ -22561,16 +22561,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G2" t="n">
-        <v>418.7375927771332</v>
+        <v>418.0934080885264</v>
       </c>
       <c r="H2" t="n">
-        <v>345.9913317836409</v>
+        <v>339.3940753414476</v>
       </c>
       <c r="I2" t="n">
-        <v>237.1321516133932</v>
+        <v>212.2972214058836</v>
       </c>
       <c r="J2" t="n">
-        <v>68.24500144420554</v>
+        <v>13.57063122957307</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22588,22 +22588,22 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.6284159487409653</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>78.85020852884477</v>
+        <v>9.285509237068553</v>
       </c>
       <c r="R2" t="n">
-        <v>188.5634753039845</v>
+        <v>148.0982088582942</v>
       </c>
       <c r="S2" t="n">
-        <v>225.2250235810158</v>
+        <v>210.5456649893907</v>
       </c>
       <c r="T2" t="n">
-        <v>222.0255916377255</v>
+        <v>219.2056731633497</v>
       </c>
       <c r="U2" t="n">
-        <v>250.1424950778085</v>
+        <v>250.09096030272</v>
       </c>
       <c r="V2" t="n">
         <v>320.879783609152</v>
@@ -22640,16 +22640,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G3" t="n">
-        <v>148.6907893310277</v>
+        <v>148.3461201365529</v>
       </c>
       <c r="H3" t="n">
-        <v>125.2157835936458</v>
+        <v>121.887004794376</v>
       </c>
       <c r="I3" t="n">
-        <v>105.510564391123</v>
+        <v>93.64366449363538</v>
       </c>
       <c r="J3" t="n">
-        <v>47.39081947044387</v>
+        <v>14.8271391275419</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>131.3785412593008</v>
+        <v>109.9788170619971</v>
       </c>
       <c r="S3" t="n">
-        <v>190.5911986307839</v>
+        <v>184.1891195141138</v>
       </c>
       <c r="T3" t="n">
-        <v>214.7540108117728</v>
+        <v>213.3647520849204</v>
       </c>
       <c r="U3" t="n">
-        <v>237.224529026915</v>
+        <v>237.2018534220153</v>
       </c>
       <c r="V3" t="n">
         <v>240.6489209154022</v>
@@ -22719,49 +22719,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G4" t="n">
-        <v>168.6556581185268</v>
+        <v>168.3666990440678</v>
       </c>
       <c r="H4" t="n">
-        <v>165.4232682107039</v>
+        <v>162.8541593486954</v>
       </c>
       <c r="I4" t="n">
-        <v>163.4961825867497</v>
+        <v>154.8063951475636</v>
       </c>
       <c r="J4" t="n">
-        <v>117.0498492130746</v>
+        <v>96.62044264882138</v>
       </c>
       <c r="K4" t="n">
-        <v>61.78822728249941</v>
+        <v>28.2164366317142</v>
       </c>
       <c r="L4" t="n">
-        <v>25.44417726395997</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>18.14460057041805</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>9.616055191137953</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>31.10182817494228</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>53.02192597337788</v>
+        <v>18.07363936789694</v>
       </c>
       <c r="Q4" t="n">
-        <v>123.4390684704985</v>
+        <v>99.24268633557031</v>
       </c>
       <c r="R4" t="n">
-        <v>201.4013453787021</v>
+        <v>188.4086946307534</v>
       </c>
       <c r="S4" t="n">
-        <v>234.651781437677</v>
+        <v>229.6160128400592</v>
       </c>
       <c r="T4" t="n">
-        <v>223.5687866316497</v>
+        <v>222.3341433135066</v>
       </c>
       <c r="U4" t="n">
-        <v>288.6540960517315</v>
+        <v>288.6383346476701</v>
       </c>
       <c r="V4" t="n">
         <v>245.1090151844499</v>
@@ -22798,16 +22798,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G5" t="n">
-        <v>418.4795442826639</v>
+        <v>418.0934080885264</v>
       </c>
       <c r="H5" t="n">
-        <v>343.348592639658</v>
+        <v>339.3940753414476</v>
       </c>
       <c r="I5" t="n">
-        <v>227.1837370303688</v>
+        <v>212.2972214058836</v>
       </c>
       <c r="J5" t="n">
-        <v>46.34345803674904</v>
+        <v>13.57063122957307</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,19 +22828,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>50.98387417173238</v>
+        <v>9.285509237068553</v>
       </c>
       <c r="R5" t="n">
-        <v>172.3538365632827</v>
+        <v>148.0982088582942</v>
       </c>
       <c r="S5" t="n">
-        <v>219.3447435132985</v>
+        <v>210.5456649893907</v>
       </c>
       <c r="T5" t="n">
-        <v>220.8959843531865</v>
+        <v>219.2056731633497</v>
       </c>
       <c r="U5" t="n">
-        <v>250.121851198251</v>
+        <v>250.09096030272</v>
       </c>
       <c r="V5" t="n">
         <v>320.879783609152</v>
@@ -22877,16 +22877,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G6" t="n">
-        <v>148.5527212143879</v>
+        <v>148.3461201365529</v>
       </c>
       <c r="H6" t="n">
-        <v>123.8823362566243</v>
+        <v>121.887004794376</v>
       </c>
       <c r="I6" t="n">
-        <v>100.7569033576904</v>
+        <v>93.64366449363538</v>
       </c>
       <c r="J6" t="n">
-        <v>34.34641025755577</v>
+        <v>14.8271391275419</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>122.8062067893299</v>
+        <v>109.9788170619971</v>
       </c>
       <c r="S6" t="n">
-        <v>188.0266439203906</v>
+        <v>184.1891195141138</v>
       </c>
       <c r="T6" t="n">
-        <v>214.1974994118079</v>
+        <v>213.3647520849204</v>
       </c>
       <c r="U6" t="n">
-        <v>237.2154455981887</v>
+        <v>237.2018534220153</v>
       </c>
       <c r="V6" t="n">
         <v>240.6489209154022</v>
@@ -22956,22 +22956,22 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G7" t="n">
-        <v>168.5399064475446</v>
+        <v>168.3666990440678</v>
       </c>
       <c r="H7" t="n">
-        <v>164.3941306268804</v>
+        <v>162.8541593486954</v>
       </c>
       <c r="I7" t="n">
-        <v>160.0152141539397</v>
+        <v>154.8063951475636</v>
       </c>
       <c r="J7" t="n">
-        <v>108.8662060746335</v>
+        <v>96.62044264882138</v>
       </c>
       <c r="K7" t="n">
-        <v>48.33998769020441</v>
+        <v>28.2164366317142</v>
       </c>
       <c r="L7" t="n">
-        <v>8.235060652661652</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -22980,25 +22980,25 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>14.74085562556805</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>39.02228751204042</v>
+        <v>18.07363936789694</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.7464444576167</v>
+        <v>99.24268633557031</v>
       </c>
       <c r="R7" t="n">
-        <v>196.1967293361754</v>
+        <v>188.4086946307534</v>
       </c>
       <c r="S7" t="n">
-        <v>232.6345454988327</v>
+        <v>229.6160128400592</v>
       </c>
       <c r="T7" t="n">
-        <v>223.0742113101803</v>
+        <v>222.3341433135066</v>
       </c>
       <c r="U7" t="n">
-        <v>288.6477823242233</v>
+        <v>288.6383346476701</v>
       </c>
       <c r="V7" t="n">
         <v>245.1090151844499</v>
@@ -23035,16 +23035,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G8" t="n">
-        <v>418.0934080885264</v>
+        <v>418.0074221942822</v>
       </c>
       <c r="H8" t="n">
-        <v>339.3940753414475</v>
+        <v>338.5134723020187</v>
       </c>
       <c r="I8" t="n">
-        <v>212.2972214058836</v>
+        <v>208.9822502180322</v>
       </c>
       <c r="J8" t="n">
-        <v>13.57063122957307</v>
+        <v>6.272685937960304</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.285509237068567</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>148.0982088582942</v>
+        <v>142.6968974289739</v>
       </c>
       <c r="S8" t="n">
-        <v>210.5456649893907</v>
+        <v>208.5862614242999</v>
       </c>
       <c r="T8" t="n">
-        <v>219.2056731633497</v>
+        <v>218.8292699112955</v>
       </c>
       <c r="U8" t="n">
-        <v>250.09096030272</v>
+        <v>250.0840814311804</v>
       </c>
       <c r="V8" t="n">
         <v>320.879783609152</v>
@@ -23114,16 +23114,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G9" t="n">
-        <v>148.3461201365529</v>
+        <v>148.3001136271938</v>
       </c>
       <c r="H9" t="n">
-        <v>121.887004794376</v>
+        <v>121.4426787697765</v>
       </c>
       <c r="I9" t="n">
-        <v>93.64366449363538</v>
+        <v>92.05966844771967</v>
       </c>
       <c r="J9" t="n">
-        <v>14.8271391275419</v>
+        <v>10.48053290778771</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>109.9788170619971</v>
+        <v>107.1223778230184</v>
       </c>
       <c r="S9" t="n">
-        <v>184.1891195141138</v>
+        <v>183.3345687810625</v>
       </c>
       <c r="T9" t="n">
-        <v>213.3647520849204</v>
+        <v>213.1793135669336</v>
       </c>
       <c r="U9" t="n">
-        <v>237.2018534220153</v>
+        <v>237.1988266779785</v>
       </c>
       <c r="V9" t="n">
         <v>240.6489209154022</v>
@@ -23193,19 +23193,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G10" t="n">
-        <v>168.3666990440678</v>
+        <v>168.3281287320799</v>
       </c>
       <c r="H10" t="n">
-        <v>162.8541593486954</v>
+        <v>162.5112342112035</v>
       </c>
       <c r="I10" t="n">
-        <v>154.8063951475636</v>
+        <v>153.6464806743293</v>
       </c>
       <c r="J10" t="n">
-        <v>96.62044264882138</v>
+        <v>93.89352159128109</v>
       </c>
       <c r="K10" t="n">
-        <v>28.2164366317142</v>
+        <v>23.73526765712697</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>18.07363936789694</v>
+        <v>13.40873545256764</v>
       </c>
       <c r="Q10" t="n">
-        <v>99.24268633557031</v>
+        <v>96.01294866538856</v>
       </c>
       <c r="R10" t="n">
-        <v>188.4086946307534</v>
+        <v>186.6744331481002</v>
       </c>
       <c r="S10" t="n">
-        <v>229.6160128400592</v>
+        <v>228.9438374938711</v>
       </c>
       <c r="T10" t="n">
-        <v>222.3341433135066</v>
+        <v>222.1693428895585</v>
       </c>
       <c r="U10" t="n">
-        <v>288.6383346476701</v>
+        <v>288.6362308124707</v>
       </c>
       <c r="V10" t="n">
         <v>245.1090151844499</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>119.8967829935966</v>
+        <v>119.8967829935967</v>
       </c>
       <c r="S17" t="n">
         <v>200.3151913159098</v>
@@ -23916,7 +23916,7 @@
         <v>82.38259262861192</v>
       </c>
       <c r="K19" t="n">
-        <v>4.819275353807939</v>
+        <v>4.819275353807953</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>119.8967829935966</v>
+        <v>119.8967829935967</v>
       </c>
       <c r="S26" t="n">
         <v>200.3151913159098</v>
@@ -24627,7 +24627,7 @@
         <v>82.38259262861192</v>
       </c>
       <c r="K28" t="n">
-        <v>4.819275353807939</v>
+        <v>4.819275353807953</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>119.8967829935967</v>
+        <v>119.8967829935966</v>
       </c>
       <c r="S32" t="n">
         <v>200.3151913159098</v>
@@ -25101,7 +25101,7 @@
         <v>82.38259262861192</v>
       </c>
       <c r="K34" t="n">
-        <v>4.819275353807953</v>
+        <v>4.819275353807939</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>119.8967829935966</v>
+        <v>119.8967829935967</v>
       </c>
       <c r="S41" t="n">
         <v>200.3151913159098</v>
@@ -25812,7 +25812,7 @@
         <v>82.38259262861192</v>
       </c>
       <c r="K43" t="n">
-        <v>4.819275353807939</v>
+        <v>4.819275353807953</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>119.8967829935966</v>
+        <v>119.8967829935967</v>
       </c>
       <c r="S44" t="n">
         <v>200.3151913159098</v>
@@ -26049,7 +26049,7 @@
         <v>82.38259262861192</v>
       </c>
       <c r="K46" t="n">
-        <v>4.819275353807939</v>
+        <v>4.819275353807953</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>404941.8716415243</v>
+        <v>424440.8646250127</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>413928.190523094</v>
+        <v>424440.8646250127</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>424440.8646250127</v>
+        <v>426699.9443132469</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>427858.964103699</v>
+        <v>427858.9641036989</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>427858.964103699</v>
+        <v>427858.9641036989</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>427858.964103699</v>
+        <v>427858.9641036989</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>427858.964103699</v>
+        <v>427858.9641036989</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>427858.964103699</v>
+        <v>427858.9641036989</v>
       </c>
     </row>
     <row r="12">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>74861.83396985086</v>
+        <v>82622.16948907396</v>
       </c>
       <c r="C2" t="n">
-        <v>78177.90151810127</v>
+        <v>82622.16948907397</v>
       </c>
       <c r="D2" t="n">
-        <v>82622.16948907397</v>
+        <v>83574.99392625129</v>
       </c>
       <c r="E2" t="n">
+        <v>85929.89841117935</v>
+      </c>
+      <c r="F2" t="n">
         <v>85929.89841117934</v>
       </c>
-      <c r="F2" t="n">
-        <v>85929.89841117937</v>
-      </c>
       <c r="G2" t="n">
+        <v>85929.89841117931</v>
+      </c>
+      <c r="H2" t="n">
+        <v>85929.89841117935</v>
+      </c>
+      <c r="I2" t="n">
         <v>85929.89841117933</v>
       </c>
-      <c r="H2" t="n">
-        <v>85929.89841117934</v>
-      </c>
-      <c r="I2" t="n">
-        <v>85929.89841117934</v>
-      </c>
       <c r="J2" t="n">
-        <v>85929.8984111793</v>
+        <v>85929.89841117933</v>
       </c>
       <c r="K2" t="n">
-        <v>85929.8984111793</v>
+        <v>85929.89841117935</v>
       </c>
       <c r="L2" t="n">
         <v>85929.89841117934</v>
       </c>
       <c r="M2" t="n">
-        <v>85929.89841117934</v>
+        <v>85929.89841117933</v>
       </c>
       <c r="N2" t="n">
-        <v>85929.89841117934</v>
+        <v>85929.89841117933</v>
       </c>
       <c r="O2" t="n">
         <v>85929.89841117934</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>121599.0040318557</v>
+        <v>276009.2581920185</v>
       </c>
       <c r="C3" t="n">
-        <v>58451.14444621313</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>82259.74508830642</v>
+        <v>18317.83150378178</v>
       </c>
       <c r="E3" t="n">
-        <v>89721.30855175095</v>
+        <v>72537.3288601149</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43109.67412057838</v>
+        <v>25100.37876115517</v>
       </c>
       <c r="C4" t="n">
-        <v>36068.33318560441</v>
+        <v>25100.37876115517</v>
       </c>
       <c r="D4" t="n">
-        <v>25100.37876115517</v>
+        <v>22754.14033636534</v>
       </c>
       <c r="E4" t="n">
         <v>12531.1217829989</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36378.55737385699</v>
+        <v>39871.80989399894</v>
       </c>
       <c r="C5" t="n">
-        <v>37777.88984723992</v>
+        <v>39871.80989399894</v>
       </c>
       <c r="D5" t="n">
-        <v>39871.80989399894</v>
+        <v>40338.08990201194</v>
       </c>
       <c r="E5" t="n">
         <v>8678.759586280614</v>
@@ -26484,7 +26484,7 @@
         <v>8678.759586280614</v>
       </c>
       <c r="G5" t="n">
-        <v>8678.759586280614</v>
+        <v>8678.759586280612</v>
       </c>
       <c r="H5" t="n">
         <v>8678.759586280614</v>
@@ -26493,13 +26493,13 @@
         <v>8678.759586280614</v>
       </c>
       <c r="J5" t="n">
-        <v>8678.759586280614</v>
+        <v>8678.759586280612</v>
       </c>
       <c r="K5" t="n">
         <v>8678.759586280614</v>
       </c>
       <c r="L5" t="n">
-        <v>8678.759586280612</v>
+        <v>8678.759586280614</v>
       </c>
       <c r="M5" t="n">
         <v>8678.759586280612</v>
@@ -26508,10 +26508,10 @@
         <v>8678.759586280612</v>
       </c>
       <c r="O5" t="n">
-        <v>8678.759586280614</v>
+        <v>8678.759586280612</v>
       </c>
       <c r="P5" t="n">
-        <v>8678.759586280614</v>
+        <v>8678.759586280612</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-126225.4015564402</v>
+        <v>-273567.0602888059</v>
       </c>
       <c r="C6" t="n">
-        <v>-54119.46596095619</v>
+        <v>2442.197903212635</v>
       </c>
       <c r="D6" t="n">
-        <v>-64609.76425438654</v>
+        <v>-12963.44871018355</v>
       </c>
       <c r="E6" t="n">
-        <v>-25001.29150985111</v>
+        <v>-22749.45067208017</v>
       </c>
       <c r="F6" t="n">
-        <v>64720.01704189986</v>
+        <v>49787.87818803471</v>
       </c>
       <c r="G6" t="n">
-        <v>64720.01704189982</v>
+        <v>49787.87818803468</v>
       </c>
       <c r="H6" t="n">
-        <v>64720.01704189983</v>
+        <v>49787.87818803472</v>
       </c>
       <c r="I6" t="n">
-        <v>64720.01704189983</v>
+        <v>49787.87818803469</v>
       </c>
       <c r="J6" t="n">
-        <v>64720.01704189979</v>
+        <v>49787.87818803469</v>
       </c>
       <c r="K6" t="n">
-        <v>64720.01704189979</v>
+        <v>49787.87818803472</v>
       </c>
       <c r="L6" t="n">
-        <v>64720.01704189982</v>
+        <v>49787.87818803471</v>
       </c>
       <c r="M6" t="n">
-        <v>64720.01704189982</v>
+        <v>49787.87818803469</v>
       </c>
       <c r="N6" t="n">
-        <v>64720.01704189982</v>
+        <v>49787.87818803469</v>
       </c>
       <c r="O6" t="n">
-        <v>64720.01704189983</v>
+        <v>49787.87818803471</v>
       </c>
       <c r="P6" t="n">
-        <v>64720.01704189983</v>
+        <v>49787.87818803471</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126.1907052227976</v>
+        <v>286.431646513713</v>
       </c>
       <c r="C3" t="n">
-        <v>190.3802682220148</v>
+        <v>286.431646513713</v>
       </c>
       <c r="D3" t="n">
-        <v>286.431646513713</v>
+        <v>307.8206377069697</v>
       </c>
       <c r="E3" t="n">
         <v>398.1082379027804</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126.1907052227976</v>
+        <v>286.431646513713</v>
       </c>
       <c r="C3" t="n">
-        <v>64.18956299921715</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>96.0513782916982</v>
+        <v>21.38899119325674</v>
       </c>
       <c r="E3" t="n">
-        <v>111.6765913890674</v>
+        <v>90.28760019581068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.507299317478583</v>
+        <v>1.151484006085277</v>
       </c>
       <c r="H2" t="n">
-        <v>5.195379135127538</v>
+        <v>11.79263557732085</v>
       </c>
       <c r="I2" t="n">
-        <v>19.55765693709309</v>
+        <v>44.3925871446027</v>
       </c>
       <c r="J2" t="n">
-        <v>43.05639544684792</v>
+        <v>97.7307656614804</v>
       </c>
       <c r="K2" t="n">
-        <v>64.53037555571635</v>
+        <v>146.4730836390702</v>
       </c>
       <c r="L2" t="n">
-        <v>80.05563704300155</v>
+        <v>181.7128122903026</v>
       </c>
       <c r="M2" t="n">
-        <v>89.07732128021129</v>
+        <v>202.1905159835216</v>
       </c>
       <c r="N2" t="n">
-        <v>90.51868546599734</v>
+        <v>205.4621699158114</v>
       </c>
       <c r="O2" t="n">
-        <v>85.47422787781967</v>
+        <v>194.0121008303009</v>
       </c>
       <c r="P2" t="n">
-        <v>72.95027597756713</v>
+        <v>165.5848394300706</v>
       </c>
       <c r="Q2" t="n">
-        <v>54.78261917036536</v>
+        <v>124.3473184621416</v>
       </c>
       <c r="R2" t="n">
-        <v>31.86664075156407</v>
+        <v>72.33190719725437</v>
       </c>
       <c r="S2" t="n">
-        <v>11.56008319704322</v>
+        <v>26.23944178866828</v>
       </c>
       <c r="T2" t="n">
-        <v>2.220702762262498</v>
+        <v>5.040621236638304</v>
       </c>
       <c r="U2" t="n">
-        <v>0.04058394539828663</v>
+        <v>0.09211872048682217</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2714290640641308</v>
+        <v>0.6160982585389297</v>
       </c>
       <c r="H3" t="n">
-        <v>2.621433329250947</v>
+        <v>5.950212128520717</v>
       </c>
       <c r="I3" t="n">
-        <v>9.345255056593976</v>
+        <v>21.21215495408158</v>
       </c>
       <c r="J3" t="n">
-        <v>25.64409416230456</v>
+        <v>58.20777450520653</v>
       </c>
       <c r="K3" t="n">
-        <v>43.82984145460132</v>
+        <v>99.48635782731482</v>
       </c>
       <c r="L3" t="n">
-        <v>58.93463077409996</v>
+        <v>133.7716854779374</v>
       </c>
       <c r="M3" t="n">
-        <v>68.7739343464247</v>
+        <v>156.1052473499736</v>
       </c>
       <c r="N3" t="n">
-        <v>70.59417574534601</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O3" t="n">
-        <v>64.57987911529341</v>
+        <v>146.5854483814093</v>
       </c>
       <c r="P3" t="n">
-        <v>51.83104645273739</v>
+        <v>117.6477455274909</v>
       </c>
       <c r="Q3" t="n">
-        <v>34.64768193211606</v>
+        <v>78.6444022654255</v>
       </c>
       <c r="R3" t="n">
-        <v>16.85241153899928</v>
+        <v>38.25213573630304</v>
       </c>
       <c r="S3" t="n">
-        <v>5.041675817156109</v>
+        <v>11.44375493382617</v>
       </c>
       <c r="T3" t="n">
-        <v>1.094049604714632</v>
+        <v>2.483308331567001</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01785717526737703</v>
+        <v>0.04053278016703487</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2275570094181596</v>
+        <v>0.5165160838771873</v>
       </c>
       <c r="H4" t="n">
-        <v>2.023188683736002</v>
+        <v>4.59229754574445</v>
       </c>
       <c r="I4" t="n">
-        <v>6.843259883229747</v>
+        <v>15.53304732241578</v>
       </c>
       <c r="J4" t="n">
-        <v>16.08828056586388</v>
+        <v>36.51768713011714</v>
       </c>
       <c r="K4" t="n">
-        <v>26.4379870942189</v>
+        <v>60.00977774500411</v>
       </c>
       <c r="L4" t="n">
-        <v>33.83152120022348</v>
+        <v>76.79185487025021</v>
       </c>
       <c r="M4" t="n">
-        <v>35.67059557633932</v>
+        <v>80.96624394813036</v>
       </c>
       <c r="N4" t="n">
-        <v>34.8224285412353</v>
+        <v>79.04104763549726</v>
       </c>
       <c r="O4" t="n">
-        <v>32.16414893121406</v>
+        <v>73.00720065565919</v>
       </c>
       <c r="P4" t="n">
-        <v>27.52198593908358</v>
+        <v>62.47027254456452</v>
       </c>
       <c r="Q4" t="n">
-        <v>19.05479648864244</v>
+        <v>43.25117862357066</v>
       </c>
       <c r="R4" t="n">
-        <v>10.2317906234747</v>
+        <v>23.22444137142334</v>
       </c>
       <c r="S4" t="n">
-        <v>3.965698064132834</v>
+        <v>9.001466661750614</v>
       </c>
       <c r="T4" t="n">
-        <v>0.9722890402412272</v>
+        <v>2.206932358384345</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01241220051371781</v>
+        <v>0.02817360457511934</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7653478119477974</v>
+        <v>1.151484006085277</v>
       </c>
       <c r="H5" t="n">
-        <v>7.838118279110383</v>
+        <v>11.79263557732085</v>
       </c>
       <c r="I5" t="n">
-        <v>29.50607152011749</v>
+        <v>44.3925871446027</v>
       </c>
       <c r="J5" t="n">
-        <v>64.95793885430443</v>
+        <v>97.7307656614804</v>
       </c>
       <c r="K5" t="n">
-        <v>97.35511173405472</v>
+        <v>146.4730836390702</v>
       </c>
       <c r="L5" t="n">
-        <v>120.7776248339521</v>
+        <v>181.7128122903026</v>
       </c>
       <c r="M5" t="n">
-        <v>134.3883789846788</v>
+        <v>202.1905159835216</v>
       </c>
       <c r="N5" t="n">
-        <v>136.5629234553755</v>
+        <v>205.4621699158114</v>
       </c>
       <c r="O5" t="n">
-        <v>128.9524961503196</v>
+        <v>194.0121008303009</v>
       </c>
       <c r="P5" t="n">
-        <v>110.0579720428583</v>
+        <v>165.5848394300706</v>
       </c>
       <c r="Q5" t="n">
-        <v>82.64895352747776</v>
+        <v>124.3473184621416</v>
       </c>
       <c r="R5" t="n">
-        <v>48.07627949226588</v>
+        <v>72.33190719725437</v>
       </c>
       <c r="S5" t="n">
-        <v>17.44036326476045</v>
+        <v>26.23944178866828</v>
       </c>
       <c r="T5" t="n">
-        <v>3.350310046801485</v>
+        <v>5.040621236638304</v>
       </c>
       <c r="U5" t="n">
-        <v>0.06122782495582379</v>
+        <v>0.09211872048682217</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4094971807039562</v>
+        <v>0.6160982585389297</v>
       </c>
       <c r="H6" t="n">
-        <v>3.954880666272421</v>
+        <v>5.950212128520717</v>
       </c>
       <c r="I6" t="n">
-        <v>14.09891609002657</v>
+        <v>21.21215495408158</v>
       </c>
       <c r="J6" t="n">
-        <v>38.68850337519265</v>
+        <v>58.20777450520653</v>
       </c>
       <c r="K6" t="n">
-        <v>66.12481448235772</v>
+        <v>99.48635782731482</v>
       </c>
       <c r="L6" t="n">
-        <v>88.91297338047964</v>
+        <v>133.7716854779374</v>
       </c>
       <c r="M6" t="n">
-        <v>103.757246180998</v>
+        <v>156.1052473499736</v>
       </c>
       <c r="N6" t="n">
-        <v>106.5033917480873</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O6" t="n">
-        <v>97.42979632301542</v>
+        <v>146.5854483814093</v>
       </c>
       <c r="P6" t="n">
-        <v>78.19600111179319</v>
+        <v>117.6477455274909</v>
       </c>
       <c r="Q6" t="n">
-        <v>52.27195590880678</v>
+        <v>78.6444022654255</v>
       </c>
       <c r="R6" t="n">
-        <v>25.42474600897021</v>
+        <v>38.25213573630304</v>
       </c>
       <c r="S6" t="n">
-        <v>7.606230527549359</v>
+        <v>11.44375493382617</v>
       </c>
       <c r="T6" t="n">
-        <v>1.650561004679542</v>
+        <v>2.483308331567001</v>
       </c>
       <c r="U6" t="n">
-        <v>0.02694060399368135</v>
+        <v>0.04053278016703487</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3433086804003544</v>
+        <v>0.5165160838771873</v>
       </c>
       <c r="H7" t="n">
-        <v>3.052326267559517</v>
+        <v>4.59229754574445</v>
       </c>
       <c r="I7" t="n">
-        <v>10.32422831603975</v>
+        <v>15.53304732241578</v>
       </c>
       <c r="J7" t="n">
-        <v>24.27192370430506</v>
+        <v>36.51768713011714</v>
       </c>
       <c r="K7" t="n">
-        <v>39.88622668651389</v>
+        <v>60.00977774500411</v>
       </c>
       <c r="L7" t="n">
-        <v>51.0406378115218</v>
+        <v>76.79185487025021</v>
       </c>
       <c r="M7" t="n">
-        <v>53.81519614675737</v>
+        <v>80.96624394813036</v>
       </c>
       <c r="N7" t="n">
-        <v>52.53559106526519</v>
+        <v>79.04104763549726</v>
       </c>
       <c r="O7" t="n">
-        <v>48.5251214805883</v>
+        <v>73.00720065565919</v>
       </c>
       <c r="P7" t="n">
-        <v>41.52162440042103</v>
+        <v>62.47027254456452</v>
       </c>
       <c r="Q7" t="n">
-        <v>28.74742050152423</v>
+        <v>43.25117862357066</v>
       </c>
       <c r="R7" t="n">
-        <v>15.43640666600139</v>
+        <v>23.22444137142334</v>
       </c>
       <c r="S7" t="n">
-        <v>5.982934002977084</v>
+        <v>9.001466661750614</v>
       </c>
       <c r="T7" t="n">
-        <v>1.466864361710605</v>
+        <v>2.206932358384345</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01872592802183753</v>
+        <v>0.02817360457511934</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.151484006085277</v>
+        <v>1.237469900329526</v>
       </c>
       <c r="H8" t="n">
-        <v>11.79263557732085</v>
+        <v>12.67323861674976</v>
       </c>
       <c r="I8" t="n">
-        <v>44.3925871446027</v>
+        <v>47.70755833245408</v>
       </c>
       <c r="J8" t="n">
-        <v>97.7307656614804</v>
+        <v>105.0287109530932</v>
       </c>
       <c r="K8" t="n">
-        <v>146.4730836390702</v>
+        <v>157.410811834042</v>
       </c>
       <c r="L8" t="n">
-        <v>181.7128122903026</v>
+        <v>195.2820312962518</v>
       </c>
       <c r="M8" t="n">
-        <v>202.1905159835216</v>
+        <v>217.288886636237</v>
       </c>
       <c r="N8" t="n">
-        <v>205.4621699158114</v>
+        <v>220.8048479905482</v>
       </c>
       <c r="O8" t="n">
-        <v>194.0121008303009</v>
+        <v>208.4997566691465</v>
       </c>
       <c r="P8" t="n">
-        <v>165.5848394300706</v>
+        <v>177.9497185047613</v>
       </c>
       <c r="Q8" t="n">
-        <v>124.3473184621416</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R8" t="n">
-        <v>72.33190719725437</v>
+        <v>77.73321862657463</v>
       </c>
       <c r="S8" t="n">
-        <v>26.23944178866829</v>
+        <v>28.19884535375909</v>
       </c>
       <c r="T8" t="n">
-        <v>5.040621236638304</v>
+        <v>5.4170244886925</v>
       </c>
       <c r="U8" t="n">
-        <v>0.09211872048682217</v>
+        <v>0.09899759202636202</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6160982585389299</v>
+        <v>0.6621047678980103</v>
       </c>
       <c r="H9" t="n">
-        <v>5.950212128520717</v>
+        <v>6.394538153120259</v>
       </c>
       <c r="I9" t="n">
-        <v>21.21215495408158</v>
+        <v>22.79615099999729</v>
       </c>
       <c r="J9" t="n">
-        <v>58.20777450520653</v>
+        <v>62.55438072496072</v>
       </c>
       <c r="K9" t="n">
-        <v>99.48635782731483</v>
+        <v>106.9154001741274</v>
       </c>
       <c r="L9" t="n">
-        <v>133.7716854779374</v>
+        <v>143.7609497139956</v>
       </c>
       <c r="M9" t="n">
-        <v>156.1052473499736</v>
+        <v>167.7622475502985</v>
       </c>
       <c r="N9" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O9" t="n">
-        <v>146.5854483814093</v>
+        <v>157.5315672989621</v>
       </c>
       <c r="P9" t="n">
-        <v>117.6477455274909</v>
+        <v>126.4329709857174</v>
       </c>
       <c r="Q9" t="n">
-        <v>78.6444022654255</v>
+        <v>84.51709282852498</v>
       </c>
       <c r="R9" t="n">
-        <v>38.25213573630304</v>
+        <v>41.10857497528175</v>
       </c>
       <c r="S9" t="n">
-        <v>11.44375493382617</v>
+        <v>12.29830566687751</v>
       </c>
       <c r="T9" t="n">
-        <v>2.483308331567001</v>
+        <v>2.668746849553821</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04053278016703487</v>
+        <v>0.04355952420381649</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5165160838771873</v>
+        <v>0.5550863958650273</v>
       </c>
       <c r="H10" t="n">
-        <v>4.59229754574445</v>
+        <v>4.935222683236337</v>
       </c>
       <c r="I10" t="n">
-        <v>15.53304732241578</v>
+        <v>16.6929617956501</v>
       </c>
       <c r="J10" t="n">
-        <v>36.51768713011714</v>
+        <v>39.24460818765743</v>
       </c>
       <c r="K10" t="n">
-        <v>60.00977774500411</v>
+        <v>64.49094671959134</v>
       </c>
       <c r="L10" t="n">
-        <v>76.79185487025019</v>
+        <v>82.52620834524234</v>
       </c>
       <c r="M10" t="n">
-        <v>80.96624394813034</v>
+        <v>87.01231567182423</v>
       </c>
       <c r="N10" t="n">
-        <v>79.04104763549726</v>
+        <v>84.94335728723647</v>
       </c>
       <c r="O10" t="n">
-        <v>73.00720065565919</v>
+        <v>78.45893893554043</v>
       </c>
       <c r="P10" t="n">
-        <v>62.47027254456452</v>
+        <v>67.13517645989381</v>
       </c>
       <c r="Q10" t="n">
-        <v>43.25117862357066</v>
+        <v>46.48091629375242</v>
       </c>
       <c r="R10" t="n">
-        <v>23.22444137142334</v>
+        <v>24.95870285407658</v>
       </c>
       <c r="S10" t="n">
-        <v>9.001466661750616</v>
+        <v>9.6736420079387</v>
       </c>
       <c r="T10" t="n">
-        <v>2.206932358384345</v>
+        <v>2.371732782332389</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02817360457511934</v>
+        <v>0.03027743977445607</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32004,7 +32004,7 @@
         <v>203.5813498175912</v>
       </c>
       <c r="L14" t="n">
-        <v>252.5606663430876</v>
+        <v>252.5606663430875</v>
       </c>
       <c r="M14" t="n">
         <v>281.0224045372727</v>
@@ -32025,7 +32025,7 @@
         <v>100.5333330619519</v>
       </c>
       <c r="S14" t="n">
-        <v>36.4699154621492</v>
+        <v>36.46991546214919</v>
       </c>
       <c r="T14" t="n">
         <v>7.00590476952531</v>
@@ -32104,7 +32104,7 @@
         <v>53.16622845048833</v>
       </c>
       <c r="S15" t="n">
-        <v>15.9055508256441</v>
+        <v>15.90555082564409</v>
       </c>
       <c r="T15" t="n">
         <v>3.451523307855237</v>
@@ -32150,13 +32150,13 @@
         <v>0.7179001011361613</v>
       </c>
       <c r="H16" t="n">
-        <v>6.382784535556057</v>
+        <v>6.382784535556058</v>
       </c>
       <c r="I16" t="n">
         <v>21.58921395053111</v>
       </c>
       <c r="J16" t="n">
-        <v>50.75553715032661</v>
+        <v>50.7555371503266</v>
       </c>
       <c r="K16" t="n">
         <v>83.40693902291036</v>
@@ -32174,7 +32174,7 @@
         <v>101.4719161133186</v>
       </c>
       <c r="P16" t="n">
-        <v>86.82675405014079</v>
+        <v>86.82675405014078</v>
       </c>
       <c r="Q16" t="n">
         <v>60.11434392331984</v>
@@ -32232,7 +32232,7 @@
         <v>16.390456246922</v>
       </c>
       <c r="I17" t="n">
-        <v>61.70077524320381</v>
+        <v>61.70077524320379</v>
       </c>
       <c r="J17" t="n">
         <v>135.8349308812105</v>
@@ -32241,7 +32241,7 @@
         <v>203.5813498175912</v>
       </c>
       <c r="L17" t="n">
-        <v>252.5606663430876</v>
+        <v>252.5606663430875</v>
       </c>
       <c r="M17" t="n">
         <v>281.0224045372727</v>
@@ -32262,13 +32262,13 @@
         <v>100.5333330619519</v>
       </c>
       <c r="S17" t="n">
-        <v>36.4699154621492</v>
+        <v>36.46991546214919</v>
       </c>
       <c r="T17" t="n">
-        <v>7.00590476952531</v>
+        <v>7.005904769525309</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1280348101797886</v>
+        <v>0.1280348101797885</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8563082853003202</v>
+        <v>0.8563082853003201</v>
       </c>
       <c r="H18" t="n">
-        <v>8.270135281716252</v>
+        <v>8.27013528171625</v>
       </c>
       <c r="I18" t="n">
         <v>29.48254403336629</v>
@@ -32338,16 +32338,16 @@
         <v>109.3070014709672</v>
       </c>
       <c r="R18" t="n">
-        <v>53.16622845048833</v>
+        <v>53.16622845048832</v>
       </c>
       <c r="S18" t="n">
-        <v>15.9055508256441</v>
+        <v>15.90555082564409</v>
       </c>
       <c r="T18" t="n">
-        <v>3.451523307855237</v>
+        <v>3.451523307855236</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05633607140133688</v>
+        <v>0.05633607140133687</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,19 +32387,19 @@
         <v>0.7179001011361613</v>
       </c>
       <c r="H19" t="n">
-        <v>6.382784535556057</v>
+        <v>6.382784535556056</v>
       </c>
       <c r="I19" t="n">
         <v>21.58921395053111</v>
       </c>
       <c r="J19" t="n">
-        <v>50.75553715032661</v>
+        <v>50.7555371503266</v>
       </c>
       <c r="K19" t="n">
-        <v>83.40693902291036</v>
+        <v>83.40693902291035</v>
       </c>
       <c r="L19" t="n">
-        <v>106.7321659452799</v>
+        <v>106.7321659452798</v>
       </c>
       <c r="M19" t="n">
         <v>112.5341040353712</v>
@@ -32408,16 +32408,16 @@
         <v>109.8582945675001</v>
       </c>
       <c r="O19" t="n">
-        <v>101.4719161133186</v>
+        <v>101.4719161133185</v>
       </c>
       <c r="P19" t="n">
-        <v>86.82675405014079</v>
+        <v>86.82675405014078</v>
       </c>
       <c r="Q19" t="n">
         <v>60.11434392331984</v>
       </c>
       <c r="R19" t="n">
-        <v>32.27939909290412</v>
+        <v>32.27939909290411</v>
       </c>
       <c r="S19" t="n">
         <v>12.51104085343655</v>
@@ -32426,7 +32426,7 @@
         <v>3.067391341218143</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03915818733469976</v>
+        <v>0.03915818733469975</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32478,7 +32478,7 @@
         <v>203.5813498175912</v>
       </c>
       <c r="L20" t="n">
-        <v>252.5606663430876</v>
+        <v>252.5606663430875</v>
       </c>
       <c r="M20" t="n">
         <v>281.0224045372727</v>
@@ -32499,7 +32499,7 @@
         <v>100.5333330619519</v>
       </c>
       <c r="S20" t="n">
-        <v>36.4699154621492</v>
+        <v>36.46991546214919</v>
       </c>
       <c r="T20" t="n">
         <v>7.00590476952531</v>
@@ -32578,7 +32578,7 @@
         <v>53.16622845048833</v>
       </c>
       <c r="S21" t="n">
-        <v>15.9055508256441</v>
+        <v>15.90555082564409</v>
       </c>
       <c r="T21" t="n">
         <v>3.451523307855237</v>
@@ -32624,13 +32624,13 @@
         <v>0.7179001011361613</v>
       </c>
       <c r="H22" t="n">
-        <v>6.382784535556057</v>
+        <v>6.382784535556058</v>
       </c>
       <c r="I22" t="n">
         <v>21.58921395053111</v>
       </c>
       <c r="J22" t="n">
-        <v>50.75553715032661</v>
+        <v>50.7555371503266</v>
       </c>
       <c r="K22" t="n">
         <v>83.40693902291036</v>
@@ -32648,7 +32648,7 @@
         <v>101.4719161133186</v>
       </c>
       <c r="P22" t="n">
-        <v>86.82675405014079</v>
+        <v>86.82675405014078</v>
       </c>
       <c r="Q22" t="n">
         <v>60.11434392331984</v>
@@ -32943,7 +32943,7 @@
         <v>16.390456246922</v>
       </c>
       <c r="I26" t="n">
-        <v>61.70077524320381</v>
+        <v>61.70077524320379</v>
       </c>
       <c r="J26" t="n">
         <v>135.8349308812105</v>
@@ -32952,7 +32952,7 @@
         <v>203.5813498175912</v>
       </c>
       <c r="L26" t="n">
-        <v>252.5606663430876</v>
+        <v>252.5606663430875</v>
       </c>
       <c r="M26" t="n">
         <v>281.0224045372727</v>
@@ -32973,13 +32973,13 @@
         <v>100.5333330619519</v>
       </c>
       <c r="S26" t="n">
-        <v>36.4699154621492</v>
+        <v>36.46991546214919</v>
       </c>
       <c r="T26" t="n">
-        <v>7.00590476952531</v>
+        <v>7.005904769525309</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1280348101797886</v>
+        <v>0.1280348101797885</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8563082853003202</v>
+        <v>0.8563082853003201</v>
       </c>
       <c r="H27" t="n">
-        <v>8.270135281716252</v>
+        <v>8.27013528171625</v>
       </c>
       <c r="I27" t="n">
         <v>29.48254403336629</v>
@@ -33049,16 +33049,16 @@
         <v>109.3070014709672</v>
       </c>
       <c r="R27" t="n">
-        <v>53.16622845048833</v>
+        <v>53.16622845048832</v>
       </c>
       <c r="S27" t="n">
-        <v>15.9055508256441</v>
+        <v>15.90555082564409</v>
       </c>
       <c r="T27" t="n">
-        <v>3.451523307855237</v>
+        <v>3.451523307855236</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05633607140133688</v>
+        <v>0.05633607140133687</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,19 +33098,19 @@
         <v>0.7179001011361613</v>
       </c>
       <c r="H28" t="n">
-        <v>6.382784535556057</v>
+        <v>6.382784535556056</v>
       </c>
       <c r="I28" t="n">
         <v>21.58921395053111</v>
       </c>
       <c r="J28" t="n">
-        <v>50.75553715032661</v>
+        <v>50.7555371503266</v>
       </c>
       <c r="K28" t="n">
-        <v>83.40693902291036</v>
+        <v>83.40693902291035</v>
       </c>
       <c r="L28" t="n">
-        <v>106.7321659452799</v>
+        <v>106.7321659452798</v>
       </c>
       <c r="M28" t="n">
         <v>112.5341040353712</v>
@@ -33119,16 +33119,16 @@
         <v>109.8582945675001</v>
       </c>
       <c r="O28" t="n">
-        <v>101.4719161133186</v>
+        <v>101.4719161133185</v>
       </c>
       <c r="P28" t="n">
-        <v>86.82675405014079</v>
+        <v>86.82675405014078</v>
       </c>
       <c r="Q28" t="n">
         <v>60.11434392331984</v>
       </c>
       <c r="R28" t="n">
-        <v>32.27939909290412</v>
+        <v>32.27939909290411</v>
       </c>
       <c r="S28" t="n">
         <v>12.51104085343655</v>
@@ -33137,7 +33137,7 @@
         <v>3.067391341218143</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03915818733469976</v>
+        <v>0.03915818733469975</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33189,7 +33189,7 @@
         <v>203.5813498175912</v>
       </c>
       <c r="L29" t="n">
-        <v>252.5606663430876</v>
+        <v>252.5606663430875</v>
       </c>
       <c r="M29" t="n">
         <v>281.0224045372727</v>
@@ -33210,7 +33210,7 @@
         <v>100.5333330619519</v>
       </c>
       <c r="S29" t="n">
-        <v>36.4699154621492</v>
+        <v>36.46991546214919</v>
       </c>
       <c r="T29" t="n">
         <v>7.00590476952531</v>
@@ -33289,7 +33289,7 @@
         <v>53.16622845048833</v>
       </c>
       <c r="S30" t="n">
-        <v>15.9055508256441</v>
+        <v>15.90555082564409</v>
       </c>
       <c r="T30" t="n">
         <v>3.451523307855237</v>
@@ -33335,13 +33335,13 @@
         <v>0.7179001011361613</v>
       </c>
       <c r="H31" t="n">
-        <v>6.382784535556057</v>
+        <v>6.382784535556058</v>
       </c>
       <c r="I31" t="n">
         <v>21.58921395053111</v>
       </c>
       <c r="J31" t="n">
-        <v>50.75553715032661</v>
+        <v>50.7555371503266</v>
       </c>
       <c r="K31" t="n">
         <v>83.40693902291036</v>
@@ -33359,7 +33359,7 @@
         <v>101.4719161133186</v>
       </c>
       <c r="P31" t="n">
-        <v>86.82675405014079</v>
+        <v>86.82675405014078</v>
       </c>
       <c r="Q31" t="n">
         <v>60.11434392331984</v>
@@ -33417,7 +33417,7 @@
         <v>16.390456246922</v>
       </c>
       <c r="I32" t="n">
-        <v>61.70077524320379</v>
+        <v>61.70077524320381</v>
       </c>
       <c r="J32" t="n">
         <v>135.8349308812105</v>
@@ -33450,10 +33450,10 @@
         <v>36.46991546214919</v>
       </c>
       <c r="T32" t="n">
-        <v>7.005904769525309</v>
+        <v>7.00590476952531</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1280348101797885</v>
+        <v>0.1280348101797886</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8563082853003201</v>
+        <v>0.8563082853003202</v>
       </c>
       <c r="H33" t="n">
-        <v>8.27013528171625</v>
+        <v>8.270135281716252</v>
       </c>
       <c r="I33" t="n">
         <v>29.48254403336629</v>
@@ -33523,16 +33523,16 @@
         <v>109.3070014709672</v>
       </c>
       <c r="R33" t="n">
-        <v>53.16622845048832</v>
+        <v>53.16622845048833</v>
       </c>
       <c r="S33" t="n">
         <v>15.90555082564409</v>
       </c>
       <c r="T33" t="n">
-        <v>3.451523307855236</v>
+        <v>3.451523307855237</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05633607140133687</v>
+        <v>0.05633607140133688</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,7 +33572,7 @@
         <v>0.7179001011361613</v>
       </c>
       <c r="H34" t="n">
-        <v>6.382784535556056</v>
+        <v>6.382784535556058</v>
       </c>
       <c r="I34" t="n">
         <v>21.58921395053111</v>
@@ -33581,10 +33581,10 @@
         <v>50.7555371503266</v>
       </c>
       <c r="K34" t="n">
-        <v>83.40693902291035</v>
+        <v>83.40693902291036</v>
       </c>
       <c r="L34" t="n">
-        <v>106.7321659452798</v>
+        <v>106.7321659452799</v>
       </c>
       <c r="M34" t="n">
         <v>112.5341040353712</v>
@@ -33593,7 +33593,7 @@
         <v>109.8582945675001</v>
       </c>
       <c r="O34" t="n">
-        <v>101.4719161133185</v>
+        <v>101.4719161133186</v>
       </c>
       <c r="P34" t="n">
         <v>86.82675405014078</v>
@@ -33602,7 +33602,7 @@
         <v>60.11434392331984</v>
       </c>
       <c r="R34" t="n">
-        <v>32.27939909290411</v>
+        <v>32.27939909290412</v>
       </c>
       <c r="S34" t="n">
         <v>12.51104085343655</v>
@@ -33611,7 +33611,7 @@
         <v>3.067391341218143</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03915818733469975</v>
+        <v>0.03915818733469976</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>16.390456246922</v>
       </c>
       <c r="I41" t="n">
-        <v>61.70077524320381</v>
+        <v>61.70077524320379</v>
       </c>
       <c r="J41" t="n">
         <v>135.8349308812105</v>
@@ -34161,10 +34161,10 @@
         <v>36.46991546214919</v>
       </c>
       <c r="T41" t="n">
-        <v>7.00590476952531</v>
+        <v>7.005904769525309</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1280348101797886</v>
+        <v>0.1280348101797885</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8563082853003202</v>
+        <v>0.8563082853003201</v>
       </c>
       <c r="H42" t="n">
-        <v>8.270135281716252</v>
+        <v>8.27013528171625</v>
       </c>
       <c r="I42" t="n">
         <v>29.48254403336629</v>
@@ -34234,16 +34234,16 @@
         <v>109.3070014709672</v>
       </c>
       <c r="R42" t="n">
-        <v>53.16622845048833</v>
+        <v>53.16622845048832</v>
       </c>
       <c r="S42" t="n">
         <v>15.90555082564409</v>
       </c>
       <c r="T42" t="n">
-        <v>3.451523307855237</v>
+        <v>3.451523307855236</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05633607140133688</v>
+        <v>0.05633607140133687</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,7 +34283,7 @@
         <v>0.7179001011361613</v>
       </c>
       <c r="H43" t="n">
-        <v>6.382784535556058</v>
+        <v>6.382784535556056</v>
       </c>
       <c r="I43" t="n">
         <v>21.58921395053111</v>
@@ -34292,10 +34292,10 @@
         <v>50.7555371503266</v>
       </c>
       <c r="K43" t="n">
-        <v>83.40693902291036</v>
+        <v>83.40693902291035</v>
       </c>
       <c r="L43" t="n">
-        <v>106.7321659452799</v>
+        <v>106.7321659452798</v>
       </c>
       <c r="M43" t="n">
         <v>112.5341040353712</v>
@@ -34304,7 +34304,7 @@
         <v>109.8582945675001</v>
       </c>
       <c r="O43" t="n">
-        <v>101.4719161133186</v>
+        <v>101.4719161133185</v>
       </c>
       <c r="P43" t="n">
         <v>86.82675405014078</v>
@@ -34313,7 +34313,7 @@
         <v>60.11434392331984</v>
       </c>
       <c r="R43" t="n">
-        <v>32.27939909290412</v>
+        <v>32.27939909290411</v>
       </c>
       <c r="S43" t="n">
         <v>12.51104085343655</v>
@@ -34322,7 +34322,7 @@
         <v>3.067391341218143</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03915818733469976</v>
+        <v>0.03915818733469975</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>16.390456246922</v>
       </c>
       <c r="I44" t="n">
-        <v>61.70077524320381</v>
+        <v>61.70077524320379</v>
       </c>
       <c r="J44" t="n">
         <v>135.8349308812105</v>
@@ -34398,10 +34398,10 @@
         <v>36.46991546214919</v>
       </c>
       <c r="T44" t="n">
-        <v>7.00590476952531</v>
+        <v>7.005904769525309</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1280348101797886</v>
+        <v>0.1280348101797885</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8563082853003202</v>
+        <v>0.8563082853003201</v>
       </c>
       <c r="H45" t="n">
-        <v>8.270135281716252</v>
+        <v>8.27013528171625</v>
       </c>
       <c r="I45" t="n">
         <v>29.48254403336629</v>
@@ -34471,16 +34471,16 @@
         <v>109.3070014709672</v>
       </c>
       <c r="R45" t="n">
-        <v>53.16622845048833</v>
+        <v>53.16622845048832</v>
       </c>
       <c r="S45" t="n">
         <v>15.90555082564409</v>
       </c>
       <c r="T45" t="n">
-        <v>3.451523307855237</v>
+        <v>3.451523307855236</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05633607140133688</v>
+        <v>0.05633607140133687</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,7 +34520,7 @@
         <v>0.7179001011361613</v>
       </c>
       <c r="H46" t="n">
-        <v>6.382784535556058</v>
+        <v>6.382784535556056</v>
       </c>
       <c r="I46" t="n">
         <v>21.58921395053111</v>
@@ -34529,10 +34529,10 @@
         <v>50.7555371503266</v>
       </c>
       <c r="K46" t="n">
-        <v>83.40693902291036</v>
+        <v>83.40693902291035</v>
       </c>
       <c r="L46" t="n">
-        <v>106.7321659452799</v>
+        <v>106.7321659452798</v>
       </c>
       <c r="M46" t="n">
         <v>112.5341040353712</v>
@@ -34541,7 +34541,7 @@
         <v>109.8582945675001</v>
       </c>
       <c r="O46" t="n">
-        <v>101.4719161133186</v>
+        <v>101.4719161133185</v>
       </c>
       <c r="P46" t="n">
         <v>86.82675405014078</v>
@@ -34550,7 +34550,7 @@
         <v>60.11434392331984</v>
       </c>
       <c r="R46" t="n">
-        <v>32.27939909290412</v>
+        <v>32.27939909290411</v>
       </c>
       <c r="S46" t="n">
         <v>12.51104085343655</v>
@@ -34559,7 +34559,7 @@
         <v>3.067391341218143</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03915818733469976</v>
+        <v>0.03915818733469975</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
